--- a/Offline/BusinessManagement/ProfitabilityV2.xlsx
+++ b/Offline/BusinessManagement/ProfitabilityV2.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Offline\BusinessManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8F01A9-D60D-4359-BB37-D5489FA688CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FEC310-9F3F-498F-ACBC-3F5FD5F741A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Profitability-Final" sheetId="14" r:id="rId1"/>
+    <sheet name="Profitability" sheetId="14" r:id="rId1"/>
+    <sheet name="LawCourses+Marketing" sheetId="15" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Profitability-Final'!$A$3:$BA$411</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Profitability!$A$3:$BA$411</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4551" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4582" uniqueCount="691">
   <si>
     <t>Hindi</t>
   </si>
@@ -2036,6 +2037,75 @@
   <si>
     <t>Installment till full Module Pay</t>
   </si>
+  <si>
+    <t>Courses</t>
+  </si>
+  <si>
+    <t>Colleges</t>
+  </si>
+  <si>
+    <t>Timing</t>
+  </si>
+  <si>
+    <t>Subject/Speciality</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Surendranath</t>
+  </si>
+  <si>
+    <t>Morning 7-10am</t>
+  </si>
+  <si>
+    <t>Law</t>
+  </si>
+  <si>
+    <t>CMS</t>
+  </si>
+  <si>
+    <t>Hazra Law college</t>
+  </si>
+  <si>
+    <t>9am</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>South Calcutta Law College</t>
+  </si>
+  <si>
+    <t>UPSC / WBCS</t>
+  </si>
+  <si>
+    <t>Jogesh Chandra Choudhury</t>
+  </si>
+  <si>
+    <t>Legal Courses Tuitions</t>
+  </si>
+  <si>
+    <t>Saltlake NUJS Law Campus</t>
+  </si>
+  <si>
+    <t>Day probably</t>
+  </si>
+  <si>
+    <t>CLAT</t>
+  </si>
+  <si>
+    <t>CA Zonal Office Kasba ()</t>
+  </si>
+  <si>
+    <t>CA, CS</t>
+  </si>
+  <si>
+    <t>BESCo</t>
+  </si>
+  <si>
+    <t>St Xaviers Evening Batch</t>
+  </si>
 </sst>
 </file>
 
@@ -2044,7 +2114,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2097,6 +2167,14 @@
       <b/>
       <sz val="9"/>
       <name val="Oxygen"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="27">
@@ -2342,7 +2420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2437,72 +2515,6 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="24" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="25" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="26" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2513,6 +2525,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2545,6 +2566,64 @@
     <xf numFmtId="0" fontId="8" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="26" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="25" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="24" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2882,60 +2961,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="56" t="s">
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="34" t="s">
         <v>283</v>
       </c>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="58" t="s">
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="39" t="s">
         <v>293</v>
       </c>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="60"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="41"/>
       <c r="AE1" s="30"/>
-      <c r="AF1" s="61" t="s">
+      <c r="AF1" s="42" t="s">
         <v>666</v>
       </c>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="63" t="s">
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="44" t="s">
         <v>667</v>
       </c>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="41" t="s">
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="58" t="s">
         <v>664</v>
       </c>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="43"/>
-      <c r="AP1" s="65" t="s">
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="46" t="s">
         <v>665</v>
       </c>
-      <c r="AQ1" s="66"/>
-      <c r="AR1" s="66"/>
-      <c r="AS1" s="67"/>
+      <c r="AQ1" s="47"/>
+      <c r="AR1" s="47"/>
+      <c r="AS1" s="48"/>
       <c r="AT1" s="36" t="s">
         <v>662</v>
       </c>
@@ -2950,173 +3029,173 @@
       <c r="BA1" s="38"/>
     </row>
     <row r="2" spans="1:53" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="49" t="s">
         <v>265</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="49" t="s">
         <v>292</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51" t="s">
+      <c r="L2" s="49"/>
+      <c r="M2" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51" t="s">
+      <c r="N2" s="49"/>
+      <c r="O2" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="51" t="s">
+      <c r="P2" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="51" t="s">
+      <c r="Q2" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="R2" s="51" t="s">
+      <c r="R2" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="S2" s="51" t="s">
+      <c r="S2" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="T2" s="51" t="s">
+      <c r="T2" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="51" t="s">
+      <c r="U2" s="49" t="s">
         <v>661</v>
       </c>
-      <c r="V2" s="32" t="s">
+      <c r="V2" s="51" t="s">
         <v>660</v>
       </c>
-      <c r="W2" s="52" t="s">
+      <c r="W2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="52" t="s">
+      <c r="X2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="53" t="s">
+      <c r="Y2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="52" t="s">
+      <c r="Z2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="46" t="s">
+      <c r="AA2" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="AB2" s="46" t="s">
+      <c r="AB2" s="55" t="s">
         <v>297</v>
       </c>
-      <c r="AC2" s="45" t="s">
+      <c r="AC2" s="61" t="s">
         <v>298</v>
       </c>
-      <c r="AD2" s="46" t="s">
+      <c r="AD2" s="55" t="s">
         <v>299</v>
       </c>
-      <c r="AE2" s="47" t="s">
+      <c r="AE2" s="62" t="s">
         <v>659</v>
       </c>
-      <c r="AF2" s="48" t="s">
+      <c r="AF2" s="63" t="s">
         <v>296</v>
       </c>
-      <c r="AG2" s="48" t="s">
+      <c r="AG2" s="63" t="s">
         <v>297</v>
       </c>
-      <c r="AH2" s="49" t="s">
+      <c r="AH2" s="64" t="s">
         <v>298</v>
       </c>
-      <c r="AI2" s="34" t="s">
+      <c r="AI2" s="66" t="s">
         <v>296</v>
       </c>
-      <c r="AJ2" s="34" t="s">
+      <c r="AJ2" s="66" t="s">
         <v>297</v>
       </c>
-      <c r="AK2" s="35" t="s">
+      <c r="AK2" s="67" t="s">
         <v>298</v>
       </c>
-      <c r="AL2" s="44" t="s">
+      <c r="AL2" s="56" t="s">
         <v>296</v>
       </c>
-      <c r="AM2" s="44" t="s">
+      <c r="AM2" s="56" t="s">
         <v>297</v>
       </c>
-      <c r="AN2" s="50" t="s">
+      <c r="AN2" s="57" t="s">
         <v>298</v>
       </c>
-      <c r="AO2" s="44" t="s">
+      <c r="AO2" s="56" t="s">
         <v>299</v>
       </c>
-      <c r="AP2" s="32" t="s">
+      <c r="AP2" s="51" t="s">
         <v>296</v>
       </c>
-      <c r="AQ2" s="32" t="s">
+      <c r="AQ2" s="51" t="s">
         <v>297</v>
       </c>
-      <c r="AR2" s="33" t="s">
+      <c r="AR2" s="65" t="s">
         <v>298</v>
       </c>
-      <c r="AS2" s="32" t="s">
+      <c r="AS2" s="51" t="s">
         <v>299</v>
       </c>
-      <c r="AT2" s="39" t="s">
+      <c r="AT2" s="53" t="s">
         <v>296</v>
       </c>
-      <c r="AU2" s="39" t="s">
+      <c r="AU2" s="53" t="s">
         <v>297</v>
       </c>
-      <c r="AV2" s="40" t="s">
+      <c r="AV2" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="AW2" s="39" t="s">
+      <c r="AW2" s="53" t="s">
         <v>299</v>
       </c>
-      <c r="AX2" s="39" t="s">
+      <c r="AX2" s="53" t="s">
         <v>296</v>
       </c>
-      <c r="AY2" s="39" t="s">
+      <c r="AY2" s="53" t="s">
         <v>297</v>
       </c>
-      <c r="AZ2" s="40" t="s">
+      <c r="AZ2" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="BA2" s="39" t="s">
+      <c r="BA2" s="53" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:53" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
       <c r="K3" s="11" t="s">
         <v>20</v>
       </c>
@@ -3129,45 +3208,45 @@
       <c r="N3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="34"/>
-      <c r="AJ3" s="34"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="50"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="32"/>
-      <c r="AQ3" s="32"/>
-      <c r="AR3" s="33"/>
-      <c r="AS3" s="32"/>
-      <c r="AT3" s="39"/>
-      <c r="AU3" s="39"/>
-      <c r="AV3" s="40"/>
-      <c r="AW3" s="39"/>
-      <c r="AX3" s="39"/>
-      <c r="AY3" s="39"/>
-      <c r="AZ3" s="40"/>
-      <c r="BA3" s="39"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="61"/>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="67"/>
+      <c r="AL3" s="56"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="56"/>
+      <c r="AP3" s="51"/>
+      <c r="AQ3" s="51"/>
+      <c r="AR3" s="65"/>
+      <c r="AS3" s="51"/>
+      <c r="AT3" s="53"/>
+      <c r="AU3" s="53"/>
+      <c r="AV3" s="54"/>
+      <c r="AW3" s="53"/>
+      <c r="AX3" s="53"/>
+      <c r="AY3" s="53"/>
+      <c r="AZ3" s="54"/>
+      <c r="BA3" s="53"/>
     </row>
     <row r="4" spans="1:53" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
@@ -82230,13 +82309,46 @@
   </sheetData>
   <autoFilter ref="A3:BA411" xr:uid="{84401B97-A087-485E-8645-032449D84CC1}"/>
   <mergeCells count="60">
-    <mergeCell ref="F1:V1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -82249,48 +82361,147 @@
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="F1:V1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="AP1:AS1"/>
     <mergeCell ref="AL1:AO1"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="BA2:BA3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AK2:AK3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33625F75-9581-40DF-9462-CEA60DDF96BF}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="68" t="s">
+        <v>668</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>669</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>670</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C2" t="s">
+        <v>674</v>
+      </c>
+      <c r="D2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>676</v>
+      </c>
+      <c r="B3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C3" t="s">
+        <v>678</v>
+      </c>
+      <c r="D3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>679</v>
+      </c>
+      <c r="B4" t="s">
+        <v>680</v>
+      </c>
+      <c r="C4" t="s">
+        <v>674</v>
+      </c>
+      <c r="D4" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>681</v>
+      </c>
+      <c r="B5" t="s">
+        <v>682</v>
+      </c>
+      <c r="C5" t="s">
+        <v>674</v>
+      </c>
+      <c r="D5" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>683</v>
+      </c>
+      <c r="B6" t="s">
+        <v>684</v>
+      </c>
+      <c r="C6" t="s">
+        <v>685</v>
+      </c>
+      <c r="D6" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>686</v>
+      </c>
+      <c r="B7" t="s">
+        <v>687</v>
+      </c>
+      <c r="D7" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>689</v>
+      </c>
+      <c r="D8" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>690</v>
+      </c>
+      <c r="D9" t="s">
+        <v>688</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Offline/BusinessManagement/ProfitabilityV2.xlsx
+++ b/Offline/BusinessManagement/ProfitabilityV2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Offline\BusinessManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5315E81E-A8EB-4B66-A859-9FE9BCB0C085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65FBE59-8BE9-48EF-9D79-EAA7DCE6C302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2514,6 +2514,63 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="24" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="26" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="25" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2524,15 +2581,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2572,54 +2620,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="25" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="26" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="24" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2913,10 +2913,10 @@
   <dimension ref="A1:BA412"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="W1" sqref="W1:BA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.5" x14ac:dyDescent="0.45"/>
@@ -2958,241 +2958,241 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="52" t="s">
         <v>263</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="35" t="s">
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="54" t="s">
         <v>279</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="40" t="s">
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="56" t="s">
         <v>288</v>
       </c>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="42"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="58"/>
       <c r="AE1" s="30"/>
-      <c r="AF1" s="43" t="s">
+      <c r="AF1" s="59" t="s">
         <v>661</v>
       </c>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="45" t="s">
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="61" t="s">
         <v>662</v>
       </c>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="50" t="s">
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="66" t="s">
         <v>659</v>
       </c>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="47" t="s">
+      <c r="AM1" s="67"/>
+      <c r="AN1" s="67"/>
+      <c r="AO1" s="68"/>
+      <c r="AP1" s="63" t="s">
         <v>660</v>
       </c>
-      <c r="AQ1" s="48"/>
-      <c r="AR1" s="48"/>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="37" t="s">
+      <c r="AQ1" s="64"/>
+      <c r="AR1" s="64"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="39" t="s">
         <v>657</v>
       </c>
-      <c r="AU1" s="38"/>
-      <c r="AV1" s="38"/>
-      <c r="AW1" s="39"/>
-      <c r="AX1" s="37" t="s">
+      <c r="AU1" s="40"/>
+      <c r="AV1" s="40"/>
+      <c r="AW1" s="41"/>
+      <c r="AX1" s="39" t="s">
         <v>658</v>
       </c>
-      <c r="AY1" s="38"/>
-      <c r="AZ1" s="38"/>
-      <c r="BA1" s="39"/>
+      <c r="AY1" s="40"/>
+      <c r="AZ1" s="40"/>
+      <c r="BA1" s="41"/>
     </row>
     <row r="2" spans="1:53" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="50" t="s">
         <v>287</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="53" t="s">
+      <c r="K2" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53" t="s">
+      <c r="L2" s="50"/>
+      <c r="M2" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53" t="s">
+      <c r="N2" s="50"/>
+      <c r="O2" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="53" t="s">
+      <c r="P2" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="R2" s="53" t="s">
+      <c r="R2" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="S2" s="53" t="s">
+      <c r="S2" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="T2" s="53" t="s">
+      <c r="T2" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="53" t="s">
+      <c r="U2" s="50" t="s">
         <v>656</v>
       </c>
-      <c r="V2" s="55" t="s">
+      <c r="V2" s="35" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="54" t="s">
+      <c r="W2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="54" t="s">
+      <c r="X2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="56" t="s">
+      <c r="Y2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="54" t="s">
+      <c r="Z2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="59" t="s">
+      <c r="AA2" s="42" t="s">
         <v>291</v>
       </c>
-      <c r="AB2" s="59" t="s">
+      <c r="AB2" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="AC2" s="58" t="s">
+      <c r="AC2" s="46" t="s">
         <v>293</v>
       </c>
-      <c r="AD2" s="59" t="s">
+      <c r="AD2" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="AE2" s="60" t="s">
+      <c r="AE2" s="47" t="s">
         <v>654</v>
       </c>
-      <c r="AF2" s="61" t="s">
+      <c r="AF2" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="AG2" s="61" t="s">
+      <c r="AG2" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="AH2" s="63" t="s">
+      <c r="AH2" s="45" t="s">
         <v>293</v>
       </c>
-      <c r="AI2" s="67" t="s">
+      <c r="AI2" s="37" t="s">
         <v>291</v>
       </c>
-      <c r="AJ2" s="67" t="s">
+      <c r="AJ2" s="37" t="s">
         <v>292</v>
       </c>
-      <c r="AK2" s="68" t="s">
+      <c r="AK2" s="38" t="s">
         <v>293</v>
       </c>
-      <c r="AL2" s="57" t="s">
+      <c r="AL2" s="43" t="s">
         <v>291</v>
       </c>
-      <c r="AM2" s="57" t="s">
+      <c r="AM2" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="AN2" s="62" t="s">
+      <c r="AN2" s="44" t="s">
         <v>293</v>
       </c>
-      <c r="AO2" s="57" t="s">
+      <c r="AO2" s="43" t="s">
         <v>294</v>
       </c>
-      <c r="AP2" s="55" t="s">
+      <c r="AP2" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="AQ2" s="55" t="s">
+      <c r="AQ2" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="AR2" s="66" t="s">
+      <c r="AR2" s="36" t="s">
         <v>293</v>
       </c>
-      <c r="AS2" s="55" t="s">
+      <c r="AS2" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="AT2" s="64" t="s">
+      <c r="AT2" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="AU2" s="64" t="s">
+      <c r="AU2" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="AV2" s="65" t="s">
+      <c r="AV2" s="34" t="s">
         <v>293</v>
       </c>
-      <c r="AW2" s="64" t="s">
+      <c r="AW2" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="AX2" s="64" t="s">
+      <c r="AX2" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="AY2" s="64" t="s">
+      <c r="AY2" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="AZ2" s="65" t="s">
+      <c r="AZ2" s="34" t="s">
         <v>293</v>
       </c>
-      <c r="BA2" s="64" t="s">
+      <c r="BA2" s="33" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:53" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
       <c r="K3" s="11" t="s">
         <v>20</v>
       </c>
@@ -3205,45 +3205,45 @@
       <c r="N3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="60"/>
-      <c r="AF3" s="61"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="67"/>
-      <c r="AJ3" s="67"/>
-      <c r="AK3" s="68"/>
-      <c r="AL3" s="57"/>
-      <c r="AM3" s="57"/>
-      <c r="AN3" s="62"/>
-      <c r="AO3" s="57"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="55"/>
-      <c r="AR3" s="66"/>
-      <c r="AS3" s="55"/>
-      <c r="AT3" s="64"/>
-      <c r="AU3" s="64"/>
-      <c r="AV3" s="65"/>
-      <c r="AW3" s="64"/>
-      <c r="AX3" s="64"/>
-      <c r="AY3" s="64"/>
-      <c r="AZ3" s="65"/>
-      <c r="BA3" s="64"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="35"/>
+      <c r="AQ3" s="35"/>
+      <c r="AR3" s="36"/>
+      <c r="AS3" s="35"/>
+      <c r="AT3" s="33"/>
+      <c r="AU3" s="33"/>
+      <c r="AV3" s="34"/>
+      <c r="AW3" s="33"/>
+      <c r="AX3" s="33"/>
+      <c r="AY3" s="33"/>
+      <c r="AZ3" s="34"/>
+      <c r="BA3" s="33"/>
     </row>
     <row r="4" spans="1:53" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
@@ -82308,34 +82308,26 @@
   </sheetData>
   <autoFilter ref="A3:BA411" xr:uid="{84401B97-A087-485E-8645-032449D84CC1}"/>
   <mergeCells count="60">
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AX1:BA1"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="BA2:BA3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="F1:V1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="AI1:AK1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:L2"/>
     <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
@@ -82348,26 +82340,34 @@
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="F1:V1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AF1:AH1"/>
-    <mergeCell ref="AI1:AK1"/>
-    <mergeCell ref="AP1:AS1"/>
-    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AS2:AS3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -82509,7 +82509,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DE9C25-34C7-48FA-8D98-DEFB44556AE3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AY10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>

--- a/Offline/BusinessManagement/ProfitabilityV2.xlsx
+++ b/Offline/BusinessManagement/ProfitabilityV2.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Offline\BusinessManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C5713F-4F0E-42F9-B41D-784B0BBD5D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED1E468-13D0-4C2B-9A09-D231651B9B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Profitability" sheetId="14" r:id="rId1"/>
     <sheet name="LawCourses+Marketing" sheetId="15" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="16" r:id="rId3"/>
+    <sheet name="Commerce" sheetId="16" r:id="rId3"/>
+    <sheet name="Humanities" sheetId="17" r:id="rId4"/>
+    <sheet name="Law" sheetId="19" r:id="rId5"/>
+    <sheet name="NeetIIT" sheetId="20" r:id="rId6"/>
+    <sheet name="Science" sheetId="21" r:id="rId7"/>
+    <sheet name="Tech" sheetId="18" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Profitability!$A$3:$BA$415</definedName>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4627" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5052" uniqueCount="779">
   <si>
     <t>Hindi</t>
   </si>
@@ -2096,9 +2101,6 @@
     <t>Amrita Chatt</t>
   </si>
   <si>
-    <t>Sutapa Sen</t>
-  </si>
-  <si>
     <t>Sayan</t>
   </si>
   <si>
@@ -2125,6 +2127,255 @@
   <si>
     <t>WB - VIII - Computers</t>
   </si>
+  <si>
+    <t>Student Strength</t>
+  </si>
+  <si>
+    <t>50 Plus</t>
+  </si>
+  <si>
+    <t>20 Plus</t>
+  </si>
+  <si>
+    <t>10 Plus</t>
+  </si>
+  <si>
+    <t>5 Plus</t>
+  </si>
+  <si>
+    <t>Arijit-Bhattacharya</t>
+  </si>
+  <si>
+    <t>Dr-Ranjit-Kr-Sur</t>
+  </si>
+  <si>
+    <t>Dr Ranjit Kr Sur</t>
+  </si>
+  <si>
+    <t>Amrita</t>
+  </si>
+  <si>
+    <t>Siddartha Bhattacharya</t>
+  </si>
+  <si>
+    <t>Rahul Kigan</t>
+  </si>
+  <si>
+    <t>Dr Partha Sarathi Chakraborty</t>
+  </si>
+  <si>
+    <t>Sangita</t>
+  </si>
+  <si>
+    <t>PHP, WordPress</t>
+  </si>
+  <si>
+    <t>B.B.A. - Management Info System</t>
+  </si>
+  <si>
+    <t>C.A. - Inter - EIS &amp; Strategic Management</t>
+  </si>
+  <si>
+    <t>Subhayan Sengupta</t>
+  </si>
+  <si>
+    <t>Advanced IoT, Robotics for Engineers &amp; Professionals</t>
+  </si>
+  <si>
+    <t>IoT, Robotics for Engineers &amp; Professionals</t>
+  </si>
+  <si>
+    <t>IoT, Robotics ICSE/CBSE/WB Class XII</t>
+  </si>
+  <si>
+    <t>IoT, Robotics ICSE/CBSE/WB Class XI</t>
+  </si>
+  <si>
+    <t>IoT, Robotics ICSE/CBSE/WB Class X</t>
+  </si>
+  <si>
+    <t>IoT, Robotics ICSE/CBSE/WB Class IX</t>
+  </si>
+  <si>
+    <t>IoT, Robotics ICSE/CBSE/WB Class VIII</t>
+  </si>
+  <si>
+    <t>IoT, Robotics ICSE/CBSE/WB Class VII</t>
+  </si>
+  <si>
+    <t>IoT, Robotics ICSE/CBSE/WB Class VI</t>
+  </si>
+  <si>
+    <t>Bappaditya Debsingha</t>
+  </si>
+  <si>
+    <t>ISC - XII – Computer Science</t>
+  </si>
+  <si>
+    <t>ISC - XI – Computer Science</t>
+  </si>
+  <si>
+    <t>ICSE - X – Computer Science</t>
+  </si>
+  <si>
+    <t>ICSE - IX – Computer Science</t>
+  </si>
+  <si>
+    <t>CBSE - XII – Computer Science</t>
+  </si>
+  <si>
+    <t>CBSE - XI – Computer Science</t>
+  </si>
+  <si>
+    <t>CBSE - X – Computer Science</t>
+  </si>
+  <si>
+    <t>CBSE - IX – Computer Science</t>
+  </si>
+  <si>
+    <t>WB - XII - Computer Science</t>
+  </si>
+  <si>
+    <t>WB - XI - Computer Science</t>
+  </si>
+  <si>
+    <t>WB - X - Computer Science</t>
+  </si>
+  <si>
+    <t>WB - IX - Computer Science</t>
+  </si>
+  <si>
+    <t>ICSE - VIII - Computer Science</t>
+  </si>
+  <si>
+    <t>CBSE - VIII - Computer Science</t>
+  </si>
+  <si>
+    <t>Sayan Basak</t>
+  </si>
+  <si>
+    <t>IIT JEE  Maths</t>
+  </si>
+  <si>
+    <t>NEET Biology</t>
+  </si>
+  <si>
+    <t>IIT-JEE, NEET Physics</t>
+  </si>
+  <si>
+    <t>Soumitra Sarkar</t>
+  </si>
+  <si>
+    <t>B.B.A. - Public Service Management</t>
+  </si>
+  <si>
+    <t>B.B.A. - Principles of Management</t>
+  </si>
+  <si>
+    <t>B.B.A. - Prod &amp; Materials Management</t>
+  </si>
+  <si>
+    <t>Email : kinglostpath@gmail.com</t>
+  </si>
+  <si>
+    <t>Contact No : 98306 79656</t>
+  </si>
+  <si>
+    <t>29/Aug 4:00pm</t>
+  </si>
+  <si>
+    <t>phone#: 98364 52839</t>
+  </si>
+  <si>
+    <t>email: arijitb54@gmail.com</t>
+  </si>
+  <si>
+    <t>email: iamsdey.2020@gmail.com</t>
+  </si>
+  <si>
+    <t>phone: 87773 01944</t>
+  </si>
+  <si>
+    <t>phone#: 89109 95635</t>
+  </si>
+  <si>
+    <t>email: duttasonali84r@gmail.com</t>
+  </si>
+  <si>
+    <t>phone# 98311 01304</t>
+  </si>
+  <si>
+    <t>email: rksur.edu@gmail.com</t>
+  </si>
+  <si>
+    <t>1/Sep 5:00pm</t>
+  </si>
+  <si>
+    <t>sangitabanerjee6991@gmail.com</t>
+  </si>
+  <si>
+    <t>Email: shubhayan.sengupta@gmail.com</t>
+  </si>
+  <si>
+    <t>sb6919.69@gmail.com</t>
+  </si>
+  <si>
+    <t>js.coms1983@gmail.com</t>
+  </si>
+  <si>
+    <t>proj2021kd@gmail.com</t>
+  </si>
+  <si>
+    <t>01/Sep/2023 Friday 5 pm</t>
+  </si>
+  <si>
+    <t>iamabhipshadutta@gmail.com</t>
+  </si>
+  <si>
+    <t>74392 84197</t>
+  </si>
+  <si>
+    <t>avishekadhikari101@gmail.com</t>
+  </si>
+  <si>
+    <t>3/Sep/2023 4:00pm</t>
+  </si>
+  <si>
+    <t>1/Sep/2023 5:00pm</t>
+  </si>
+  <si>
+    <t>suvendubiswas1992@gmail.com</t>
+  </si>
+  <si>
+    <t>86970 21685 dipanwitabiswas07@gmail.com</t>
+  </si>
+  <si>
+    <t>78900 73544 hemasharma@gmail.com</t>
+  </si>
+  <si>
+    <t>Suparna Paul</t>
+  </si>
+  <si>
+    <t>84200 53867</t>
+  </si>
+  <si>
+    <t>paulsuparna555@gmail.com</t>
+  </si>
+  <si>
+    <t>98316 25533</t>
+  </si>
+  <si>
+    <t>das.pradipta2007@gmail.com</t>
+  </si>
+  <si>
+    <t>62902 18461</t>
+  </si>
+  <si>
+    <t>sudiptobhowallo@gmail.com</t>
+  </si>
+  <si>
+    <t>Jay-sir Subhamay Dey</t>
+  </si>
 </sst>
 </file>
 
@@ -2133,7 +2384,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2195,8 +2446,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Oxygen"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Oxygen"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Oxygen"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="27">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2353,8 +2629,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -2434,12 +2740,126 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2535,6 +2955,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2643,9 +3090,65 @@
     <xf numFmtId="0" fontId="7" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2934,22 +3437,22 @@
   <dimension ref="A1:BA416"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="J148" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Z159" sqref="Z159"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="13.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="31.19921875" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.86328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.53125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.53125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.19921875" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.796875" style="1" customWidth="1"/>
     <col min="7" max="7" width="7.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" customWidth="1"/>
     <col min="9" max="9" width="6.796875" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.86328125" style="1" customWidth="1"/>
     <col min="11" max="11" width="7.796875" style="1" customWidth="1"/>
@@ -2958,7 +3461,7 @@
     <col min="15" max="15" width="7.46484375" style="1" customWidth="1"/>
     <col min="16" max="16" width="5.86328125" style="1" customWidth="1"/>
     <col min="17" max="17" width="4.53125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.46484375" style="1" customWidth="1"/>
     <col min="19" max="19" width="8.19921875" style="1" customWidth="1"/>
     <col min="20" max="20" width="4.19921875" style="1" customWidth="1"/>
     <col min="21" max="21" width="9" style="1" customWidth="1"/>
@@ -2979,241 +3482,241 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="61" t="s">
         <v>263</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="54" t="s">
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="63" t="s">
         <v>279</v>
       </c>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="56" t="s">
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="65" t="s">
         <v>288</v>
       </c>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="58"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="67"/>
       <c r="AE1" s="30"/>
-      <c r="AF1" s="59" t="s">
+      <c r="AF1" s="68" t="s">
         <v>661</v>
       </c>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="61" t="s">
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="70" t="s">
         <v>662</v>
       </c>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="66" t="s">
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="71"/>
+      <c r="AL1" s="75" t="s">
         <v>659</v>
       </c>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="68"/>
-      <c r="AP1" s="63" t="s">
+      <c r="AM1" s="76"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="77"/>
+      <c r="AP1" s="72" t="s">
         <v>660</v>
       </c>
-      <c r="AQ1" s="64"/>
-      <c r="AR1" s="64"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="37" t="s">
+      <c r="AQ1" s="73"/>
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="74"/>
+      <c r="AT1" s="46" t="s">
         <v>657</v>
       </c>
-      <c r="AU1" s="38"/>
-      <c r="AV1" s="38"/>
-      <c r="AW1" s="39"/>
-      <c r="AX1" s="37" t="s">
+      <c r="AU1" s="47"/>
+      <c r="AV1" s="47"/>
+      <c r="AW1" s="48"/>
+      <c r="AX1" s="46" t="s">
         <v>658</v>
       </c>
-      <c r="AY1" s="38"/>
-      <c r="AZ1" s="38"/>
-      <c r="BA1" s="39"/>
+      <c r="AY1" s="47"/>
+      <c r="AZ1" s="47"/>
+      <c r="BA1" s="48"/>
     </row>
     <row r="2" spans="1:53" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="59" t="s">
         <v>262</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="59" t="s">
         <v>287</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50" t="s">
+      <c r="L2" s="59"/>
+      <c r="M2" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50" t="s">
+      <c r="N2" s="59"/>
+      <c r="O2" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="50" t="s">
+      <c r="P2" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="50" t="s">
+      <c r="Q2" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="R2" s="50" t="s">
+      <c r="R2" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="S2" s="50" t="s">
+      <c r="S2" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="T2" s="50" t="s">
+      <c r="T2" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="50" t="s">
+      <c r="U2" s="59" t="s">
         <v>656</v>
       </c>
-      <c r="V2" s="33" t="s">
+      <c r="V2" s="42" t="s">
         <v>655</v>
       </c>
-      <c r="W2" s="49" t="s">
+      <c r="W2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="49" t="s">
+      <c r="X2" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="51" t="s">
+      <c r="Y2" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="49" t="s">
+      <c r="Z2" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="40" t="s">
+      <c r="AA2" s="49" t="s">
         <v>291</v>
       </c>
-      <c r="AB2" s="40" t="s">
+      <c r="AB2" s="49" t="s">
         <v>292</v>
       </c>
-      <c r="AC2" s="44" t="s">
+      <c r="AC2" s="53" t="s">
         <v>293</v>
       </c>
-      <c r="AD2" s="40" t="s">
+      <c r="AD2" s="49" t="s">
         <v>294</v>
       </c>
-      <c r="AE2" s="45" t="s">
+      <c r="AE2" s="54" t="s">
         <v>654</v>
       </c>
-      <c r="AF2" s="46" t="s">
+      <c r="AF2" s="55" t="s">
         <v>291</v>
       </c>
-      <c r="AG2" s="46" t="s">
+      <c r="AG2" s="55" t="s">
         <v>292</v>
       </c>
-      <c r="AH2" s="43" t="s">
+      <c r="AH2" s="52" t="s">
         <v>293</v>
       </c>
-      <c r="AI2" s="47" t="s">
+      <c r="AI2" s="56" t="s">
         <v>291</v>
       </c>
-      <c r="AJ2" s="47" t="s">
+      <c r="AJ2" s="56" t="s">
         <v>292</v>
       </c>
-      <c r="AK2" s="48" t="s">
+      <c r="AK2" s="57" t="s">
         <v>293</v>
       </c>
-      <c r="AL2" s="41" t="s">
+      <c r="AL2" s="50" t="s">
         <v>291</v>
       </c>
-      <c r="AM2" s="41" t="s">
+      <c r="AM2" s="50" t="s">
         <v>292</v>
       </c>
-      <c r="AN2" s="42" t="s">
+      <c r="AN2" s="51" t="s">
         <v>293</v>
       </c>
-      <c r="AO2" s="41" t="s">
+      <c r="AO2" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="AP2" s="33" t="s">
+      <c r="AP2" s="42" t="s">
         <v>291</v>
       </c>
-      <c r="AQ2" s="33" t="s">
+      <c r="AQ2" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="AR2" s="36" t="s">
+      <c r="AR2" s="45" t="s">
         <v>293</v>
       </c>
-      <c r="AS2" s="33" t="s">
+      <c r="AS2" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="AT2" s="34" t="s">
+      <c r="AT2" s="43" t="s">
         <v>291</v>
       </c>
-      <c r="AU2" s="34" t="s">
+      <c r="AU2" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="AV2" s="35" t="s">
+      <c r="AV2" s="44" t="s">
         <v>293</v>
       </c>
-      <c r="AW2" s="34" t="s">
+      <c r="AW2" s="43" t="s">
         <v>294</v>
       </c>
-      <c r="AX2" s="34" t="s">
+      <c r="AX2" s="43" t="s">
         <v>291</v>
       </c>
-      <c r="AY2" s="34" t="s">
+      <c r="AY2" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="AZ2" s="35" t="s">
+      <c r="AZ2" s="44" t="s">
         <v>293</v>
       </c>
-      <c r="BA2" s="34" t="s">
+      <c r="BA2" s="43" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:53" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
       <c r="K3" s="11" t="s">
         <v>20</v>
       </c>
@@ -3226,45 +3729,45 @@
       <c r="N3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="47"/>
-      <c r="AK3" s="48"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="42"/>
-      <c r="AO3" s="41"/>
-      <c r="AP3" s="33"/>
-      <c r="AQ3" s="33"/>
-      <c r="AR3" s="36"/>
-      <c r="AS3" s="33"/>
-      <c r="AT3" s="34"/>
-      <c r="AU3" s="34"/>
-      <c r="AV3" s="35"/>
-      <c r="AW3" s="34"/>
-      <c r="AX3" s="34"/>
-      <c r="AY3" s="34"/>
-      <c r="AZ3" s="35"/>
-      <c r="BA3" s="34"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="52"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="51"/>
+      <c r="AO3" s="50"/>
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="42"/>
+      <c r="AR3" s="45"/>
+      <c r="AS3" s="42"/>
+      <c r="AT3" s="43"/>
+      <c r="AU3" s="43"/>
+      <c r="AV3" s="44"/>
+      <c r="AW3" s="43"/>
+      <c r="AX3" s="43"/>
+      <c r="AY3" s="43"/>
+      <c r="AZ3" s="44"/>
+      <c r="BA3" s="43"/>
     </row>
     <row r="4" spans="1:53" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
@@ -3283,7 +3786,7 @@
         <v>127</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>183</v>
+        <v>706</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>271</v>
@@ -4063,7 +4566,7 @@
         <v>280</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>183</v>
+        <v>708</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>271</v>
@@ -4647,11 +5150,11 @@
       <c r="E11" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>180</v>
+      <c r="F11" s="28" t="s">
+        <v>741</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>271</v>
       </c>
       <c r="H11" s="28" t="s">
         <v>278</v>
@@ -5427,11 +5930,11 @@
       <c r="E15" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>180</v>
+      <c r="F15" s="28" t="s">
+        <v>741</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>271</v>
       </c>
       <c r="H15" s="28" t="s">
         <v>278</v>
@@ -5608,10 +6111,10 @@
     </row>
     <row r="16" spans="1:53" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="12" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>50</v>
@@ -5623,7 +6126,7 @@
         <v>128</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>271</v>
@@ -5803,13 +6306,13 @@
     </row>
     <row r="17" spans="1:53" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B17" s="23" t="s">
+        <v>689</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>690</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>691</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>25</v>
@@ -5818,7 +6321,7 @@
         <v>128</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>271</v>
@@ -5998,13 +6501,13 @@
     </row>
     <row r="18" spans="1:53" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="12" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>25</v>
@@ -6013,7 +6516,7 @@
         <v>128</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>271</v>
@@ -7378,7 +7881,7 @@
         <v>281</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>271</v>
@@ -9133,7 +9636,7 @@
         <v>128</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G34" s="28" t="s">
         <v>271</v>
@@ -10498,7 +11001,7 @@
         <v>281</v>
       </c>
       <c r="F41" s="28" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G41" s="28" t="s">
         <v>271</v>
@@ -12253,7 +12756,7 @@
         <v>128</v>
       </c>
       <c r="F50" s="28" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G50" s="28" t="s">
         <v>271</v>
@@ -14592,11 +15095,11 @@
       <c r="E62" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="F62" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G62" s="19" t="s">
-        <v>180</v>
+      <c r="F62" s="28" t="s">
+        <v>741</v>
+      </c>
+      <c r="G62" s="28" t="s">
+        <v>271</v>
       </c>
       <c r="H62" s="28" t="s">
         <v>278</v>
@@ -14983,7 +15486,7 @@
         <v>128</v>
       </c>
       <c r="F64" s="28" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G64" s="28" t="s">
         <v>271</v>
@@ -17322,11 +17825,11 @@
       <c r="E76" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="F76" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G76" s="19" t="s">
-        <v>180</v>
+      <c r="F76" s="28" t="s">
+        <v>741</v>
+      </c>
+      <c r="G76" s="28" t="s">
+        <v>271</v>
       </c>
       <c r="H76" s="28" t="s">
         <v>278</v>
@@ -17713,7 +18216,7 @@
         <v>128</v>
       </c>
       <c r="F78" s="28" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G78" s="28" t="s">
         <v>271</v>
@@ -19662,11 +20165,11 @@
       <c r="E88" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="F88" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G88" s="19" t="s">
-        <v>180</v>
+      <c r="F88" s="28" t="s">
+        <v>741</v>
+      </c>
+      <c r="G88" s="28" t="s">
+        <v>271</v>
       </c>
       <c r="H88" s="28" t="s">
         <v>278</v>
@@ -21223,7 +21726,7 @@
         <v>281</v>
       </c>
       <c r="F96" s="28" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G96" s="28" t="s">
         <v>271</v>
@@ -22783,7 +23286,7 @@
         <v>4</v>
       </c>
       <c r="F104" s="28" t="s">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="G104" s="28" t="s">
         <v>271</v>
@@ -23563,7 +24066,7 @@
         <v>128</v>
       </c>
       <c r="F108" s="28" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G108" s="28" t="s">
         <v>271</v>
@@ -24928,7 +25431,7 @@
         <v>281</v>
       </c>
       <c r="F115" s="28" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G115" s="28" t="s">
         <v>271</v>
@@ -26488,7 +26991,7 @@
         <v>4</v>
       </c>
       <c r="F123" s="28" t="s">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="G123" s="28" t="s">
         <v>271</v>
@@ -27268,7 +27771,7 @@
         <v>128</v>
       </c>
       <c r="F127" s="28" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G127" s="28" t="s">
         <v>271</v>
@@ -28632,11 +29135,11 @@
       <c r="E134" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="F134" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G134" s="19" t="s">
-        <v>180</v>
+      <c r="F134" s="28" t="s">
+        <v>741</v>
+      </c>
+      <c r="G134" s="28" t="s">
+        <v>271</v>
       </c>
       <c r="H134" s="28" t="s">
         <v>278</v>
@@ -29608,7 +30111,7 @@
         <v>128</v>
       </c>
       <c r="F139" s="28" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G139" s="28" t="s">
         <v>271</v>
@@ -30972,11 +31475,11 @@
       <c r="E146" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="F146" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G146" s="19" t="s">
-        <v>180</v>
+      <c r="F146" s="28" t="s">
+        <v>741</v>
+      </c>
+      <c r="G146" s="28" t="s">
+        <v>271</v>
       </c>
       <c r="H146" s="28" t="s">
         <v>278</v>
@@ -31948,7 +32451,7 @@
         <v>128</v>
       </c>
       <c r="F151" s="28" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G151" s="28" t="s">
         <v>271</v>
@@ -33493,7 +33996,7 @@
     </row>
     <row r="159" spans="1:53" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A159" s="18" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>47</v>
@@ -34873,7 +35376,7 @@
         <v>281</v>
       </c>
       <c r="F166" s="28" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G166" s="28" t="s">
         <v>271</v>
@@ -36823,7 +37326,7 @@
         <v>128</v>
       </c>
       <c r="F176" s="28" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G176" s="28" t="s">
         <v>271</v>
@@ -38188,7 +38691,7 @@
         <v>281</v>
       </c>
       <c r="F183" s="28" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G183" s="28" t="s">
         <v>271</v>
@@ -40138,7 +40641,7 @@
         <v>128</v>
       </c>
       <c r="F193" s="28" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G193" s="28" t="s">
         <v>271</v>
@@ -41308,7 +41811,7 @@
         <v>280</v>
       </c>
       <c r="F199" s="28" t="s">
-        <v>189</v>
+        <v>708</v>
       </c>
       <c r="G199" s="28" t="s">
         <v>271</v>
@@ -41697,11 +42200,11 @@
       <c r="E201" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="F201" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G201" s="19" t="s">
-        <v>180</v>
+      <c r="F201" s="28" t="s">
+        <v>741</v>
+      </c>
+      <c r="G201" s="28" t="s">
+        <v>271</v>
       </c>
       <c r="H201" s="28" t="s">
         <v>278</v>
@@ -42088,7 +42591,7 @@
         <v>128</v>
       </c>
       <c r="F203" s="28" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G203" s="28" t="s">
         <v>271</v>
@@ -43258,7 +43761,7 @@
         <v>280</v>
       </c>
       <c r="F209" s="28" t="s">
-        <v>189</v>
+        <v>708</v>
       </c>
       <c r="G209" s="28" t="s">
         <v>271</v>
@@ -43647,11 +44150,11 @@
       <c r="E211" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="F211" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G211" s="19" t="s">
-        <v>180</v>
+      <c r="F211" s="28" t="s">
+        <v>741</v>
+      </c>
+      <c r="G211" s="28" t="s">
+        <v>271</v>
       </c>
       <c r="H211" s="28" t="s">
         <v>278</v>
@@ -44038,7 +44541,7 @@
         <v>128</v>
       </c>
       <c r="F213" s="28" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G213" s="28" t="s">
         <v>271</v>
@@ -45208,7 +45711,7 @@
         <v>280</v>
       </c>
       <c r="F219" s="28" t="s">
-        <v>189</v>
+        <v>708</v>
       </c>
       <c r="G219" s="28" t="s">
         <v>271</v>
@@ -45402,11 +45905,11 @@
       <c r="E220" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="F220" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G220" s="19" t="s">
-        <v>180</v>
+      <c r="F220" s="28" t="s">
+        <v>741</v>
+      </c>
+      <c r="G220" s="28" t="s">
+        <v>271</v>
       </c>
       <c r="H220" s="28" t="s">
         <v>278</v>
@@ -48913,7 +49416,7 @@
         <v>4</v>
       </c>
       <c r="F238" s="28" t="s">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="G238" s="28" t="s">
         <v>271</v>
@@ -49108,7 +49611,7 @@
         <v>4</v>
       </c>
       <c r="F239" s="28" t="s">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="G239" s="28" t="s">
         <v>271</v>
@@ -51253,7 +51756,7 @@
         <v>4</v>
       </c>
       <c r="F250" s="28" t="s">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="G250" s="28" t="s">
         <v>271</v>
@@ -51448,7 +51951,7 @@
         <v>4</v>
       </c>
       <c r="F251" s="28" t="s">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="G251" s="28" t="s">
         <v>271</v>
@@ -51643,7 +52146,7 @@
         <v>4</v>
       </c>
       <c r="F252" s="28" t="s">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="G252" s="28" t="s">
         <v>271</v>
@@ -57096,7 +57599,7 @@
         <v>4</v>
       </c>
       <c r="F280" s="28" t="s">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="G280" s="28" t="s">
         <v>271</v>
@@ -79393,7 +79896,7 @@
         <v>128</v>
       </c>
       <c r="F397" s="28" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G397" s="28" t="s">
         <v>271</v>
@@ -79589,7 +80092,7 @@
         <v>128</v>
       </c>
       <c r="F398" s="28" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G398" s="28" t="s">
         <v>271</v>
@@ -83308,14 +83811,4455 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DE9C25-34C7-48FA-8D98-DEFB44556AE3}">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor theme="9" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="B1:L39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AY10"/>
+    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.06640625" style="85"/>
+    <col min="2" max="2" width="30.59765625" style="85" customWidth="1"/>
+    <col min="3" max="6" width="8" style="85" customWidth="1"/>
+    <col min="7" max="7" width="9.06640625" style="85"/>
+    <col min="8" max="8" width="27.86328125" style="85" customWidth="1"/>
+    <col min="9" max="13" width="9.06640625" style="85"/>
+    <col min="14" max="14" width="22.265625" style="85" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="7.86328125" style="85" customWidth="1"/>
+    <col min="19" max="19" width="9.06640625" style="85"/>
+    <col min="20" max="20" width="23.6640625" style="85" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.06640625" style="85"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C1" s="86" t="s">
+        <v>748</v>
+      </c>
+      <c r="F1" t="s">
+        <v>747</v>
+      </c>
+      <c r="H1" s="85" t="s">
+        <v>702</v>
+      </c>
+      <c r="I1" s="86" t="s">
+        <v>754</v>
+      </c>
+      <c r="L1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="85" t="s">
+        <v>701</v>
+      </c>
+      <c r="C2" s="86" t="s">
+        <v>749</v>
+      </c>
+      <c r="I2" s="86" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="90" t="s">
+        <v>696</v>
+      </c>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="92"/>
+      <c r="H3" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="90" t="s">
+        <v>696</v>
+      </c>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="92"/>
+    </row>
+    <row r="4" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="93"/>
+      <c r="C4" s="94" t="s">
+        <v>697</v>
+      </c>
+      <c r="D4" s="94" t="s">
+        <v>698</v>
+      </c>
+      <c r="E4" s="94" t="s">
+        <v>699</v>
+      </c>
+      <c r="F4" s="94" t="s">
+        <v>700</v>
+      </c>
+      <c r="H4" s="93"/>
+      <c r="I4" s="94" t="s">
+        <v>697</v>
+      </c>
+      <c r="J4" s="94" t="s">
+        <v>698</v>
+      </c>
+      <c r="K4" s="94" t="s">
+        <v>699</v>
+      </c>
+      <c r="L4" s="94" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B5" s="36" t="s">
+        <v>389</v>
+      </c>
+      <c r="C5" s="14">
+        <v>19800</v>
+      </c>
+      <c r="D5" s="14">
+        <v>9900</v>
+      </c>
+      <c r="E5" s="14">
+        <v>4950</v>
+      </c>
+      <c r="F5" s="14">
+        <v>2475</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="I5" s="14">
+        <v>19800</v>
+      </c>
+      <c r="J5" s="14">
+        <v>9900</v>
+      </c>
+      <c r="K5" s="14">
+        <v>4950</v>
+      </c>
+      <c r="L5" s="14">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B6" s="36" t="s">
+        <v>408</v>
+      </c>
+      <c r="C6" s="14">
+        <v>19800</v>
+      </c>
+      <c r="D6" s="14">
+        <v>9900</v>
+      </c>
+      <c r="E6" s="14">
+        <v>4950</v>
+      </c>
+      <c r="F6" s="14">
+        <v>2475</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>411</v>
+      </c>
+      <c r="I6" s="14">
+        <v>19800</v>
+      </c>
+      <c r="J6" s="14">
+        <v>9900</v>
+      </c>
+      <c r="K6" s="14">
+        <v>4950</v>
+      </c>
+      <c r="L6" s="14">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B7" s="36" t="s">
+        <v>512</v>
+      </c>
+      <c r="C7" s="14">
+        <v>15840</v>
+      </c>
+      <c r="D7" s="14">
+        <v>7920</v>
+      </c>
+      <c r="E7" s="14">
+        <v>3960</v>
+      </c>
+      <c r="F7" s="14">
+        <v>1980</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>523</v>
+      </c>
+      <c r="I7" s="14">
+        <v>13200</v>
+      </c>
+      <c r="J7" s="14">
+        <v>6600</v>
+      </c>
+      <c r="K7" s="14">
+        <v>3300</v>
+      </c>
+      <c r="L7" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B8" s="36" t="s">
+        <v>513</v>
+      </c>
+      <c r="C8" s="14">
+        <v>15840</v>
+      </c>
+      <c r="D8" s="14">
+        <v>7920</v>
+      </c>
+      <c r="E8" s="14">
+        <v>3960</v>
+      </c>
+      <c r="F8" s="14">
+        <v>1980</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>524</v>
+      </c>
+      <c r="I8" s="14">
+        <v>13200</v>
+      </c>
+      <c r="J8" s="14">
+        <v>6600</v>
+      </c>
+      <c r="K8" s="14">
+        <v>3300</v>
+      </c>
+      <c r="L8" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B9" s="36" t="s">
+        <v>520</v>
+      </c>
+      <c r="C9" s="14">
+        <v>13200</v>
+      </c>
+      <c r="D9" s="14">
+        <v>6600</v>
+      </c>
+      <c r="E9" s="14">
+        <v>3300</v>
+      </c>
+      <c r="F9" s="14">
+        <v>1650</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>535</v>
+      </c>
+      <c r="I9" s="14">
+        <v>13200</v>
+      </c>
+      <c r="J9" s="14">
+        <v>6600</v>
+      </c>
+      <c r="K9" s="14">
+        <v>3300</v>
+      </c>
+      <c r="L9" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B10" s="36" t="s">
+        <v>521</v>
+      </c>
+      <c r="C10" s="14">
+        <v>13200</v>
+      </c>
+      <c r="D10" s="14">
+        <v>6600</v>
+      </c>
+      <c r="E10" s="14">
+        <v>3300</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1650</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>536</v>
+      </c>
+      <c r="I10" s="14">
+        <v>13200</v>
+      </c>
+      <c r="J10" s="14">
+        <v>6600</v>
+      </c>
+      <c r="K10" s="14">
+        <v>3300</v>
+      </c>
+      <c r="L10" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B11" s="36" t="s">
+        <v>522</v>
+      </c>
+      <c r="C11" s="14">
+        <v>13200</v>
+      </c>
+      <c r="D11" s="14">
+        <v>6600</v>
+      </c>
+      <c r="E11" s="14">
+        <v>3300</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1650</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>537</v>
+      </c>
+      <c r="I11" s="14">
+        <v>13200</v>
+      </c>
+      <c r="J11" s="14">
+        <v>6600</v>
+      </c>
+      <c r="K11" s="14">
+        <v>3300</v>
+      </c>
+      <c r="L11" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B12" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="C12" s="14">
+        <v>13200</v>
+      </c>
+      <c r="D12" s="14">
+        <v>6600</v>
+      </c>
+      <c r="E12" s="14">
+        <v>3300</v>
+      </c>
+      <c r="F12" s="14">
+        <v>1650</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>565</v>
+      </c>
+      <c r="I12" s="14">
+        <v>7857</v>
+      </c>
+      <c r="J12" s="14">
+        <v>3929</v>
+      </c>
+      <c r="K12" s="14">
+        <v>1964</v>
+      </c>
+      <c r="L12" s="14">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B13" s="36" t="s">
+        <v>743</v>
+      </c>
+      <c r="C13" s="14">
+        <v>13200</v>
+      </c>
+      <c r="D13" s="14">
+        <v>6600</v>
+      </c>
+      <c r="E13" s="14">
+        <v>3300</v>
+      </c>
+      <c r="F13" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B14" s="36" t="s">
+        <v>744</v>
+      </c>
+      <c r="C14" s="14">
+        <v>13200</v>
+      </c>
+      <c r="D14" s="14">
+        <v>6600</v>
+      </c>
+      <c r="E14" s="14">
+        <v>3300</v>
+      </c>
+      <c r="F14" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B15" s="36" t="s">
+        <v>551</v>
+      </c>
+      <c r="C15" s="14">
+        <v>13200</v>
+      </c>
+      <c r="D15" s="14">
+        <v>6600</v>
+      </c>
+      <c r="E15" s="14">
+        <v>3300</v>
+      </c>
+      <c r="F15" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B16" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="C16" s="14">
+        <v>13200</v>
+      </c>
+      <c r="D16" s="14">
+        <v>6600</v>
+      </c>
+      <c r="E16" s="14">
+        <v>3300</v>
+      </c>
+      <c r="F16" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B17" s="36" t="s">
+        <v>554</v>
+      </c>
+      <c r="C17" s="14">
+        <v>13200</v>
+      </c>
+      <c r="D17" s="14">
+        <v>6600</v>
+      </c>
+      <c r="E17" s="14">
+        <v>3300</v>
+      </c>
+      <c r="F17" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B18" s="36" t="s">
+        <v>555</v>
+      </c>
+      <c r="C18" s="14">
+        <v>13200</v>
+      </c>
+      <c r="D18" s="14">
+        <v>6600</v>
+      </c>
+      <c r="E18" s="14">
+        <v>3300</v>
+      </c>
+      <c r="F18" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B19" s="36" t="s">
+        <v>559</v>
+      </c>
+      <c r="C19" s="14">
+        <v>13200</v>
+      </c>
+      <c r="D19" s="14">
+        <v>6600</v>
+      </c>
+      <c r="E19" s="14">
+        <v>3300</v>
+      </c>
+      <c r="F19" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B20" s="36" t="s">
+        <v>560</v>
+      </c>
+      <c r="C20" s="14">
+        <v>13200</v>
+      </c>
+      <c r="D20" s="14">
+        <v>6600</v>
+      </c>
+      <c r="E20" s="14">
+        <v>3300</v>
+      </c>
+      <c r="F20" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B21" s="36" t="s">
+        <v>742</v>
+      </c>
+      <c r="C21" s="14">
+        <v>13200</v>
+      </c>
+      <c r="D21" s="14">
+        <v>6600</v>
+      </c>
+      <c r="E21" s="14">
+        <v>3300</v>
+      </c>
+      <c r="F21" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C22" s="86" t="s">
+        <v>750</v>
+      </c>
+      <c r="F22" t="s">
+        <v>747</v>
+      </c>
+      <c r="H22" s="85" t="s">
+        <v>175</v>
+      </c>
+      <c r="I22" s="87" t="s">
+        <v>752</v>
+      </c>
+      <c r="L22" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="85" t="s">
+        <v>778</v>
+      </c>
+      <c r="C23" s="86" t="s">
+        <v>751</v>
+      </c>
+      <c r="I23" s="87" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="90" t="s">
+        <v>696</v>
+      </c>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="92"/>
+      <c r="H24" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="90" t="s">
+        <v>696</v>
+      </c>
+      <c r="J24" s="91"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="92"/>
+    </row>
+    <row r="25" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B25" s="93"/>
+      <c r="C25" s="94" t="s">
+        <v>697</v>
+      </c>
+      <c r="D25" s="94" t="s">
+        <v>698</v>
+      </c>
+      <c r="E25" s="94" t="s">
+        <v>699</v>
+      </c>
+      <c r="F25" s="94" t="s">
+        <v>700</v>
+      </c>
+      <c r="H25" s="93"/>
+      <c r="I25" s="94" t="s">
+        <v>697</v>
+      </c>
+      <c r="J25" s="94" t="s">
+        <v>698</v>
+      </c>
+      <c r="K25" s="94" t="s">
+        <v>699</v>
+      </c>
+      <c r="L25" s="94" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B26" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="C26" s="14">
+        <v>13200</v>
+      </c>
+      <c r="D26" s="14">
+        <v>6600</v>
+      </c>
+      <c r="E26" s="14">
+        <v>3300</v>
+      </c>
+      <c r="F26" s="14">
+        <v>1650</v>
+      </c>
+      <c r="H26" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="I26" s="14">
+        <v>19800</v>
+      </c>
+      <c r="J26" s="14">
+        <v>9900</v>
+      </c>
+      <c r="K26" s="14">
+        <v>4950</v>
+      </c>
+      <c r="L26" s="14">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B27" s="36" t="s">
+        <v>319</v>
+      </c>
+      <c r="C27" s="14">
+        <v>13200</v>
+      </c>
+      <c r="D27" s="14">
+        <v>6600</v>
+      </c>
+      <c r="E27" s="14">
+        <v>3300</v>
+      </c>
+      <c r="F27" s="14">
+        <v>1650</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="I27" s="14">
+        <v>19800</v>
+      </c>
+      <c r="J27" s="14">
+        <v>9900</v>
+      </c>
+      <c r="K27" s="14">
+        <v>4950</v>
+      </c>
+      <c r="L27" s="14">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B28" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="C28" s="14">
+        <v>13200</v>
+      </c>
+      <c r="D28" s="14">
+        <v>6600</v>
+      </c>
+      <c r="E28" s="14">
+        <v>3300</v>
+      </c>
+      <c r="F28" s="14">
+        <v>1650</v>
+      </c>
+      <c r="H28" s="36" t="s">
+        <v>346</v>
+      </c>
+      <c r="I28" s="14">
+        <v>9240</v>
+      </c>
+      <c r="J28" s="14">
+        <v>4620</v>
+      </c>
+      <c r="K28" s="14">
+        <v>2310</v>
+      </c>
+      <c r="L28" s="14">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B29" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="C29" s="14">
+        <v>13200</v>
+      </c>
+      <c r="D29" s="14">
+        <v>6600</v>
+      </c>
+      <c r="E29" s="14">
+        <v>3300</v>
+      </c>
+      <c r="F29" s="14">
+        <v>1650</v>
+      </c>
+      <c r="H29" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="I29" s="14">
+        <v>9240</v>
+      </c>
+      <c r="J29" s="14">
+        <v>4620</v>
+      </c>
+      <c r="K29" s="14">
+        <v>2310</v>
+      </c>
+      <c r="L29" s="14">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B30" s="36" t="s">
+        <v>345</v>
+      </c>
+      <c r="C30" s="14">
+        <v>9240</v>
+      </c>
+      <c r="D30" s="14">
+        <v>4620</v>
+      </c>
+      <c r="E30" s="14">
+        <v>2310</v>
+      </c>
+      <c r="F30" s="14">
+        <v>1155</v>
+      </c>
+      <c r="H30" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="I30" s="14">
+        <v>19800</v>
+      </c>
+      <c r="J30" s="14">
+        <v>9900</v>
+      </c>
+      <c r="K30" s="14">
+        <v>4950</v>
+      </c>
+      <c r="L30" s="14">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B31" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C31" s="14">
+        <v>9240</v>
+      </c>
+      <c r="D31" s="14">
+        <v>4620</v>
+      </c>
+      <c r="E31" s="14">
+        <v>2310</v>
+      </c>
+      <c r="F31" s="14">
+        <v>1155</v>
+      </c>
+      <c r="H31" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="I31" s="14">
+        <v>19800</v>
+      </c>
+      <c r="J31" s="14">
+        <v>9900</v>
+      </c>
+      <c r="K31" s="14">
+        <v>4950</v>
+      </c>
+      <c r="L31" s="14">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B32" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="C32" s="14">
+        <v>13200</v>
+      </c>
+      <c r="D32" s="14">
+        <v>6600</v>
+      </c>
+      <c r="E32" s="14">
+        <v>3300</v>
+      </c>
+      <c r="F32" s="14">
+        <v>1650</v>
+      </c>
+      <c r="H32" s="36" t="s">
+        <v>456</v>
+      </c>
+      <c r="I32" s="14">
+        <v>19800</v>
+      </c>
+      <c r="J32" s="14">
+        <v>9900</v>
+      </c>
+      <c r="K32" s="14">
+        <v>4950</v>
+      </c>
+      <c r="L32" s="14">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B33" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="C33" s="14">
+        <v>13200</v>
+      </c>
+      <c r="D33" s="14">
+        <v>6600</v>
+      </c>
+      <c r="E33" s="14">
+        <v>3300</v>
+      </c>
+      <c r="F33" s="14">
+        <v>1650</v>
+      </c>
+      <c r="H33" s="36" t="s">
+        <v>472</v>
+      </c>
+      <c r="I33" s="14">
+        <v>19800</v>
+      </c>
+      <c r="J33" s="14">
+        <v>9900</v>
+      </c>
+      <c r="K33" s="14">
+        <v>4950</v>
+      </c>
+      <c r="L33" s="14">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B34" s="36" t="s">
+        <v>407</v>
+      </c>
+      <c r="C34" s="14">
+        <v>13200</v>
+      </c>
+      <c r="D34" s="14">
+        <v>6600</v>
+      </c>
+      <c r="E34" s="14">
+        <v>3300</v>
+      </c>
+      <c r="F34" s="14">
+        <v>1650</v>
+      </c>
+      <c r="H34" s="36" t="s">
+        <v>517</v>
+      </c>
+      <c r="I34" s="14">
+        <v>13200</v>
+      </c>
+      <c r="J34" s="14">
+        <v>6600</v>
+      </c>
+      <c r="K34" s="14">
+        <v>3300</v>
+      </c>
+      <c r="L34" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B35" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="C35" s="14">
+        <v>13200</v>
+      </c>
+      <c r="D35" s="14">
+        <v>6600</v>
+      </c>
+      <c r="E35" s="14">
+        <v>3300</v>
+      </c>
+      <c r="F35" s="14">
+        <v>1650</v>
+      </c>
+      <c r="H35" s="36" t="s">
+        <v>518</v>
+      </c>
+      <c r="I35" s="14">
+        <v>13200</v>
+      </c>
+      <c r="J35" s="14">
+        <v>6600</v>
+      </c>
+      <c r="K35" s="14">
+        <v>3300</v>
+      </c>
+      <c r="L35" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B36" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="C36" s="14">
+        <v>7260</v>
+      </c>
+      <c r="D36" s="14">
+        <v>3630</v>
+      </c>
+      <c r="E36" s="14">
+        <v>1815</v>
+      </c>
+      <c r="F36" s="14">
+        <v>907.5</v>
+      </c>
+      <c r="H36" s="36" t="s">
+        <v>519</v>
+      </c>
+      <c r="I36" s="14">
+        <v>13200</v>
+      </c>
+      <c r="J36" s="14">
+        <v>6600</v>
+      </c>
+      <c r="K36" s="14">
+        <v>3300</v>
+      </c>
+      <c r="L36" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B37" s="36" t="s">
+        <v>437</v>
+      </c>
+      <c r="C37" s="14">
+        <v>7260</v>
+      </c>
+      <c r="D37" s="14">
+        <v>3630</v>
+      </c>
+      <c r="E37" s="14">
+        <v>1815</v>
+      </c>
+      <c r="F37" s="14">
+        <v>907.5</v>
+      </c>
+      <c r="H37" s="36" t="s">
+        <v>539</v>
+      </c>
+      <c r="I37" s="14">
+        <v>13200</v>
+      </c>
+      <c r="J37" s="14">
+        <v>6600</v>
+      </c>
+      <c r="K37" s="14">
+        <v>3300</v>
+      </c>
+      <c r="L37" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B38" s="36" t="s">
+        <v>457</v>
+      </c>
+      <c r="C38" s="14">
+        <v>13200</v>
+      </c>
+      <c r="D38" s="14">
+        <v>6600</v>
+      </c>
+      <c r="E38" s="14">
+        <v>3300</v>
+      </c>
+      <c r="F38" s="14">
+        <v>1650</v>
+      </c>
+      <c r="H38" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="I38" s="14">
+        <v>13200</v>
+      </c>
+      <c r="J38" s="14">
+        <v>6600</v>
+      </c>
+      <c r="K38" s="14">
+        <v>3300</v>
+      </c>
+      <c r="L38" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B39" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="C39" s="14">
+        <v>13200</v>
+      </c>
+      <c r="D39" s="14">
+        <v>6600</v>
+      </c>
+      <c r="E39" s="14">
+        <v>3300</v>
+      </c>
+      <c r="F39" s="14">
+        <v>1650</v>
+      </c>
+      <c r="H39" s="36" t="s">
+        <v>544</v>
+      </c>
+      <c r="I39" s="14">
+        <v>13200</v>
+      </c>
+      <c r="J39" s="14">
+        <v>6600</v>
+      </c>
+      <c r="K39" s="14">
+        <v>3300</v>
+      </c>
+      <c r="L39" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:F24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE263F4F-69CC-4C2A-903E-DD881DA1CAF7}">
+  <dimension ref="B1:R34"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="8" max="8" width="27.06640625" customWidth="1"/>
+    <col min="14" max="14" width="27.9296875" customWidth="1"/>
+    <col min="15" max="15" width="11.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" t="s">
+        <v>769</v>
+      </c>
+      <c r="H1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I1" t="s">
+        <v>770</v>
+      </c>
+      <c r="N1" t="s">
+        <v>771</v>
+      </c>
+      <c r="O1" t="s">
+        <v>772</v>
+      </c>
+      <c r="P1" s="88" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="2" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>696</v>
+      </c>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="82"/>
+      <c r="H2" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="80" t="s">
+        <v>696</v>
+      </c>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="82"/>
+      <c r="N2" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="80" t="s">
+        <v>696</v>
+      </c>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="82"/>
+    </row>
+    <row r="3" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="79"/>
+      <c r="C3" s="34" t="s">
+        <v>697</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>698</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>699</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>700</v>
+      </c>
+      <c r="H3" s="79"/>
+      <c r="I3" s="34" t="s">
+        <v>697</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>698</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>699</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>700</v>
+      </c>
+      <c r="N3" s="79"/>
+      <c r="O3" s="34" t="s">
+        <v>697</v>
+      </c>
+      <c r="P3" s="34" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>699</v>
+      </c>
+      <c r="R3" s="34" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B4" s="36" t="s">
+        <v>339</v>
+      </c>
+      <c r="C4" s="14">
+        <v>9240</v>
+      </c>
+      <c r="D4" s="14">
+        <v>4620</v>
+      </c>
+      <c r="E4" s="14">
+        <v>2310</v>
+      </c>
+      <c r="F4" s="14">
+        <v>1155</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="I4" s="14">
+        <v>13200</v>
+      </c>
+      <c r="J4" s="14">
+        <v>6600</v>
+      </c>
+      <c r="K4" s="14">
+        <v>3300</v>
+      </c>
+      <c r="L4" s="14">
+        <v>1650</v>
+      </c>
+      <c r="N4" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="O4" s="14">
+        <v>13200</v>
+      </c>
+      <c r="P4" s="14">
+        <v>6600</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>3300</v>
+      </c>
+      <c r="R4" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B5" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="C5" s="14">
+        <v>9240</v>
+      </c>
+      <c r="D5" s="14">
+        <v>4620</v>
+      </c>
+      <c r="E5" s="14">
+        <v>2310</v>
+      </c>
+      <c r="F5" s="14">
+        <v>1155</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="I5" s="14">
+        <v>13200</v>
+      </c>
+      <c r="J5" s="14">
+        <v>6600</v>
+      </c>
+      <c r="K5" s="14">
+        <v>3300</v>
+      </c>
+      <c r="L5" s="14">
+        <v>1650</v>
+      </c>
+      <c r="N5" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="O5" s="14">
+        <v>13200</v>
+      </c>
+      <c r="P5" s="14">
+        <v>6600</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>3300</v>
+      </c>
+      <c r="R5" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B6" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="C6" s="14">
+        <v>8580</v>
+      </c>
+      <c r="D6" s="14">
+        <v>4290</v>
+      </c>
+      <c r="E6" s="14">
+        <v>2145</v>
+      </c>
+      <c r="F6" s="14">
+        <v>1072.5</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="I6" s="14">
+        <v>7920</v>
+      </c>
+      <c r="J6" s="14">
+        <v>3960</v>
+      </c>
+      <c r="K6" s="14">
+        <v>1980</v>
+      </c>
+      <c r="L6" s="14">
+        <v>990</v>
+      </c>
+      <c r="N6" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="O6" s="14">
+        <v>13200</v>
+      </c>
+      <c r="P6" s="14">
+        <v>6600</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>3300</v>
+      </c>
+      <c r="R6" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B7" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="C7" s="14">
+        <v>8580</v>
+      </c>
+      <c r="D7" s="14">
+        <v>4290</v>
+      </c>
+      <c r="E7" s="14">
+        <v>2145</v>
+      </c>
+      <c r="F7" s="14">
+        <v>1072.5</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="I7" s="14">
+        <v>7920</v>
+      </c>
+      <c r="J7" s="14">
+        <v>3960</v>
+      </c>
+      <c r="K7" s="14">
+        <v>1980</v>
+      </c>
+      <c r="L7" s="14">
+        <v>990</v>
+      </c>
+      <c r="N7" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="O7" s="14">
+        <v>13200</v>
+      </c>
+      <c r="P7" s="14">
+        <v>6600</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>3300</v>
+      </c>
+      <c r="R7" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B8" s="36" t="s">
+        <v>428</v>
+      </c>
+      <c r="C8" s="14">
+        <v>8580</v>
+      </c>
+      <c r="D8" s="14">
+        <v>4290</v>
+      </c>
+      <c r="E8" s="14">
+        <v>2145</v>
+      </c>
+      <c r="F8" s="14">
+        <v>1072.5</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="I8" s="14">
+        <v>7260</v>
+      </c>
+      <c r="J8" s="14">
+        <v>3630</v>
+      </c>
+      <c r="K8" s="14">
+        <v>1815</v>
+      </c>
+      <c r="L8" s="14">
+        <v>907.5</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>453</v>
+      </c>
+      <c r="O8" s="14">
+        <v>13200</v>
+      </c>
+      <c r="P8" s="14">
+        <v>6600</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>3300</v>
+      </c>
+      <c r="R8" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B9" s="36" t="s">
+        <v>440</v>
+      </c>
+      <c r="C9" s="14">
+        <v>7920</v>
+      </c>
+      <c r="D9" s="14">
+        <v>3960</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1980</v>
+      </c>
+      <c r="F9" s="14">
+        <v>990</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="I9" s="14">
+        <v>13200</v>
+      </c>
+      <c r="J9" s="14">
+        <v>6600</v>
+      </c>
+      <c r="K9" s="14">
+        <v>3300</v>
+      </c>
+      <c r="L9" s="14">
+        <v>1650</v>
+      </c>
+      <c r="N9" s="36" t="s">
+        <v>469</v>
+      </c>
+      <c r="O9" s="14">
+        <v>13200</v>
+      </c>
+      <c r="P9" s="14">
+        <v>6600</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>3300</v>
+      </c>
+      <c r="R9" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B10" s="36" t="s">
+        <v>479</v>
+      </c>
+      <c r="C10" s="14">
+        <v>9240</v>
+      </c>
+      <c r="D10" s="14">
+        <v>4620</v>
+      </c>
+      <c r="E10" s="14">
+        <v>2310</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1155</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>399</v>
+      </c>
+      <c r="I10" s="14">
+        <v>13200</v>
+      </c>
+      <c r="J10" s="14">
+        <v>6600</v>
+      </c>
+      <c r="K10" s="14">
+        <v>3300</v>
+      </c>
+      <c r="L10" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="36" t="s">
+        <v>489</v>
+      </c>
+      <c r="C11" s="14">
+        <v>9240</v>
+      </c>
+      <c r="D11" s="14">
+        <v>4620</v>
+      </c>
+      <c r="E11" s="14">
+        <v>2310</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1155</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>419</v>
+      </c>
+      <c r="I11" s="14">
+        <v>7260</v>
+      </c>
+      <c r="J11" s="14">
+        <v>3630</v>
+      </c>
+      <c r="K11" s="14">
+        <v>1815</v>
+      </c>
+      <c r="L11" s="14">
+        <v>907.5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>195</v>
+      </c>
+      <c r="O11" t="s">
+        <v>774</v>
+      </c>
+      <c r="P11" s="88" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="36" t="s">
+        <v>499</v>
+      </c>
+      <c r="C12" s="14">
+        <v>8580</v>
+      </c>
+      <c r="D12" s="14">
+        <v>4290</v>
+      </c>
+      <c r="E12" s="14">
+        <v>2145</v>
+      </c>
+      <c r="F12" s="14">
+        <v>1072.5</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="I12" s="14">
+        <v>7260</v>
+      </c>
+      <c r="J12" s="14">
+        <v>3630</v>
+      </c>
+      <c r="K12" s="14">
+        <v>1815</v>
+      </c>
+      <c r="L12" s="14">
+        <v>907.5</v>
+      </c>
+      <c r="N12" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="80" t="s">
+        <v>696</v>
+      </c>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="82"/>
+    </row>
+    <row r="13" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H13" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="I13" s="14">
+        <v>6600</v>
+      </c>
+      <c r="J13" s="14">
+        <v>3300</v>
+      </c>
+      <c r="K13" s="14">
+        <v>1650</v>
+      </c>
+      <c r="L13" s="14">
+        <v>825</v>
+      </c>
+      <c r="N13" s="79"/>
+      <c r="O13" s="34" t="s">
+        <v>697</v>
+      </c>
+      <c r="P13" s="34" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q13" s="34" t="s">
+        <v>699</v>
+      </c>
+      <c r="R13" s="34" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" t="s">
+        <v>776</v>
+      </c>
+      <c r="D14" s="88" t="s">
+        <v>777</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>449</v>
+      </c>
+      <c r="I14" s="14">
+        <v>13200</v>
+      </c>
+      <c r="J14" s="14">
+        <v>6600</v>
+      </c>
+      <c r="K14" s="14">
+        <v>3300</v>
+      </c>
+      <c r="L14" s="14">
+        <v>1650</v>
+      </c>
+      <c r="N14" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="O14" s="14">
+        <v>13200</v>
+      </c>
+      <c r="P14" s="14">
+        <v>6600</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>3300</v>
+      </c>
+      <c r="R14" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="80" t="s">
+        <v>696</v>
+      </c>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82"/>
+      <c r="H15" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="I15" s="14">
+        <v>13200</v>
+      </c>
+      <c r="J15" s="14">
+        <v>6600</v>
+      </c>
+      <c r="K15" s="14">
+        <v>3300</v>
+      </c>
+      <c r="L15" s="14">
+        <v>1650</v>
+      </c>
+      <c r="N15" s="36" t="s">
+        <v>323</v>
+      </c>
+      <c r="O15" s="14">
+        <v>13200</v>
+      </c>
+      <c r="P15" s="14">
+        <v>6600</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>3300</v>
+      </c>
+      <c r="R15" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="35"/>
+      <c r="C16" s="34" t="s">
+        <v>697</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>698</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>699</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>700</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>481</v>
+      </c>
+      <c r="I16" s="14">
+        <v>7920</v>
+      </c>
+      <c r="J16" s="14">
+        <v>3960</v>
+      </c>
+      <c r="K16" s="14">
+        <v>1980</v>
+      </c>
+      <c r="L16" s="14">
+        <v>990</v>
+      </c>
+      <c r="N16" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="O16" s="14">
+        <v>7920</v>
+      </c>
+      <c r="P16" s="14">
+        <v>3960</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>1980</v>
+      </c>
+      <c r="R16" s="14">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B17" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="C17" s="14">
+        <v>13200</v>
+      </c>
+      <c r="D17" s="14">
+        <v>6600</v>
+      </c>
+      <c r="E17" s="14">
+        <v>3300</v>
+      </c>
+      <c r="F17" s="14">
+        <v>1650</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>491</v>
+      </c>
+      <c r="I17" s="14">
+        <v>7920</v>
+      </c>
+      <c r="J17" s="14">
+        <v>3960</v>
+      </c>
+      <c r="K17" s="14">
+        <v>1980</v>
+      </c>
+      <c r="L17" s="14">
+        <v>990</v>
+      </c>
+      <c r="N17" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="O17" s="14">
+        <v>7920</v>
+      </c>
+      <c r="P17" s="14">
+        <v>3960</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>1980</v>
+      </c>
+      <c r="R17" s="14">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B18" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="C18" s="14">
+        <v>13200</v>
+      </c>
+      <c r="D18" s="14">
+        <v>6600</v>
+      </c>
+      <c r="E18" s="14">
+        <v>3300</v>
+      </c>
+      <c r="F18" s="14">
+        <v>1650</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>501</v>
+      </c>
+      <c r="I18" s="14">
+        <v>7260</v>
+      </c>
+      <c r="J18" s="14">
+        <v>3630</v>
+      </c>
+      <c r="K18" s="14">
+        <v>1815</v>
+      </c>
+      <c r="L18" s="14">
+        <v>907.5</v>
+      </c>
+      <c r="N18" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="O18" s="14">
+        <v>7260</v>
+      </c>
+      <c r="P18" s="14">
+        <v>3630</v>
+      </c>
+      <c r="Q18" s="14">
+        <v>1815</v>
+      </c>
+      <c r="R18" s="14">
+        <v>907.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B19" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="C19" s="14">
+        <v>13200</v>
+      </c>
+      <c r="D19" s="14">
+        <v>6600</v>
+      </c>
+      <c r="E19" s="14">
+        <v>3300</v>
+      </c>
+      <c r="F19" s="14">
+        <v>1650</v>
+      </c>
+      <c r="N19" s="36" t="s">
+        <v>378</v>
+      </c>
+      <c r="O19" s="14">
+        <v>13200</v>
+      </c>
+      <c r="P19" s="14">
+        <v>6600</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>3300</v>
+      </c>
+      <c r="R19" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B20" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="C20" s="14">
+        <v>13200</v>
+      </c>
+      <c r="D20" s="14">
+        <v>6600</v>
+      </c>
+      <c r="E20" s="14">
+        <v>3300</v>
+      </c>
+      <c r="F20" s="14">
+        <v>1650</v>
+      </c>
+      <c r="N20" s="36" t="s">
+        <v>397</v>
+      </c>
+      <c r="O20" s="14">
+        <v>13200</v>
+      </c>
+      <c r="P20" s="14">
+        <v>6600</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>3300</v>
+      </c>
+      <c r="R20" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="C21" s="14">
+        <v>7920</v>
+      </c>
+      <c r="D21" s="14">
+        <v>3960</v>
+      </c>
+      <c r="E21" s="14">
+        <v>1980</v>
+      </c>
+      <c r="F21" s="14">
+        <v>990</v>
+      </c>
+      <c r="N21" s="36" t="s">
+        <v>447</v>
+      </c>
+      <c r="O21" s="14">
+        <v>13200</v>
+      </c>
+      <c r="P21" s="14">
+        <v>6600</v>
+      </c>
+      <c r="Q21" s="14">
+        <v>3300</v>
+      </c>
+      <c r="R21" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B22" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="C22" s="14">
+        <v>7920</v>
+      </c>
+      <c r="D22" s="14">
+        <v>3960</v>
+      </c>
+      <c r="E22" s="14">
+        <v>1980</v>
+      </c>
+      <c r="F22" s="14">
+        <v>990</v>
+      </c>
+      <c r="N22" s="36" t="s">
+        <v>463</v>
+      </c>
+      <c r="O22" s="14">
+        <v>13200</v>
+      </c>
+      <c r="P22" s="14">
+        <v>6600</v>
+      </c>
+      <c r="Q22" s="14">
+        <v>3300</v>
+      </c>
+      <c r="R22" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B23" s="36" t="s">
+        <v>372</v>
+      </c>
+      <c r="C23" s="14">
+        <v>7260</v>
+      </c>
+      <c r="D23" s="14">
+        <v>3630</v>
+      </c>
+      <c r="E23" s="14">
+        <v>1815</v>
+      </c>
+      <c r="F23" s="14">
+        <v>907.5</v>
+      </c>
+      <c r="N23" s="36" t="s">
+        <v>528</v>
+      </c>
+      <c r="O23" s="14">
+        <v>13200</v>
+      </c>
+      <c r="P23" s="14">
+        <v>6600</v>
+      </c>
+      <c r="Q23" s="14">
+        <v>3300</v>
+      </c>
+      <c r="R23" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B24" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="C24" s="14">
+        <v>13200</v>
+      </c>
+      <c r="D24" s="14">
+        <v>6600</v>
+      </c>
+      <c r="E24" s="14">
+        <v>3300</v>
+      </c>
+      <c r="F24" s="14">
+        <v>1650</v>
+      </c>
+      <c r="N24" s="36" t="s">
+        <v>529</v>
+      </c>
+      <c r="O24" s="14">
+        <v>13200</v>
+      </c>
+      <c r="P24" s="14">
+        <v>6600</v>
+      </c>
+      <c r="Q24" s="14">
+        <v>3300</v>
+      </c>
+      <c r="R24" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B25" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="C25" s="14">
+        <v>13200</v>
+      </c>
+      <c r="D25" s="14">
+        <v>6600</v>
+      </c>
+      <c r="E25" s="14">
+        <v>3300</v>
+      </c>
+      <c r="F25" s="14">
+        <v>1650</v>
+      </c>
+      <c r="N25" s="36" t="s">
+        <v>533</v>
+      </c>
+      <c r="O25" s="14">
+        <v>13200</v>
+      </c>
+      <c r="P25" s="14">
+        <v>6600</v>
+      </c>
+      <c r="Q25" s="14">
+        <v>3300</v>
+      </c>
+      <c r="R25" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B26" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="C26" s="14">
+        <v>13200</v>
+      </c>
+      <c r="D26" s="14">
+        <v>6600</v>
+      </c>
+      <c r="E26" s="14">
+        <v>3300</v>
+      </c>
+      <c r="F26" s="14">
+        <v>1650</v>
+      </c>
+      <c r="N26" s="36" t="s">
+        <v>534</v>
+      </c>
+      <c r="O26" s="14">
+        <v>13200</v>
+      </c>
+      <c r="P26" s="14">
+        <v>6600</v>
+      </c>
+      <c r="Q26" s="14">
+        <v>3300</v>
+      </c>
+      <c r="R26" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B27" s="36" t="s">
+        <v>402</v>
+      </c>
+      <c r="C27" s="14">
+        <v>13200</v>
+      </c>
+      <c r="D27" s="14">
+        <v>6600</v>
+      </c>
+      <c r="E27" s="14">
+        <v>3300</v>
+      </c>
+      <c r="F27" s="14">
+        <v>1650</v>
+      </c>
+      <c r="N27" s="36" t="s">
+        <v>542</v>
+      </c>
+      <c r="O27" s="14">
+        <v>13200</v>
+      </c>
+      <c r="P27" s="14">
+        <v>6600</v>
+      </c>
+      <c r="Q27" s="14">
+        <v>3300</v>
+      </c>
+      <c r="R27" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B28" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C28" s="14">
+        <v>7260</v>
+      </c>
+      <c r="D28" s="14">
+        <v>3630</v>
+      </c>
+      <c r="E28" s="14">
+        <v>1815</v>
+      </c>
+      <c r="F28" s="14">
+        <v>907.5</v>
+      </c>
+      <c r="N28" s="36" t="s">
+        <v>547</v>
+      </c>
+      <c r="O28" s="14">
+        <v>13200</v>
+      </c>
+      <c r="P28" s="14">
+        <v>6600</v>
+      </c>
+      <c r="Q28" s="14">
+        <v>3300</v>
+      </c>
+      <c r="R28" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B29" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="C29" s="14">
+        <v>7260</v>
+      </c>
+      <c r="D29" s="14">
+        <v>3630</v>
+      </c>
+      <c r="E29" s="14">
+        <v>1815</v>
+      </c>
+      <c r="F29" s="14">
+        <v>907.5</v>
+      </c>
+      <c r="N29" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="O29" s="14">
+        <v>13200</v>
+      </c>
+      <c r="P29" s="14">
+        <v>6600</v>
+      </c>
+      <c r="Q29" s="14">
+        <v>3300</v>
+      </c>
+      <c r="R29" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B30" s="36" t="s">
+        <v>443</v>
+      </c>
+      <c r="C30" s="14">
+        <v>6600</v>
+      </c>
+      <c r="D30" s="14">
+        <v>3300</v>
+      </c>
+      <c r="E30" s="14">
+        <v>1650</v>
+      </c>
+      <c r="F30" s="14">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B31" s="36" t="s">
+        <v>450</v>
+      </c>
+      <c r="C31" s="14">
+        <v>13200</v>
+      </c>
+      <c r="D31" s="14">
+        <v>6600</v>
+      </c>
+      <c r="E31" s="14">
+        <v>3300</v>
+      </c>
+      <c r="F31" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B32" s="36" t="s">
+        <v>452</v>
+      </c>
+      <c r="C32" s="14">
+        <v>13200</v>
+      </c>
+      <c r="D32" s="14">
+        <v>6600</v>
+      </c>
+      <c r="E32" s="14">
+        <v>3300</v>
+      </c>
+      <c r="F32" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B33" s="36" t="s">
+        <v>466</v>
+      </c>
+      <c r="C33" s="14">
+        <v>13200</v>
+      </c>
+      <c r="D33" s="14">
+        <v>6600</v>
+      </c>
+      <c r="E33" s="14">
+        <v>3300</v>
+      </c>
+      <c r="F33" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B34" s="36" t="s">
+        <v>468</v>
+      </c>
+      <c r="C34" s="14">
+        <v>13200</v>
+      </c>
+      <c r="D34" s="14">
+        <v>6600</v>
+      </c>
+      <c r="E34" s="14">
+        <v>3300</v>
+      </c>
+      <c r="F34" s="14">
+        <v>1650</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:R2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="P1" r:id="rId1" xr:uid="{8845360C-2093-4399-8461-36E1B46CAEBB}"/>
+    <hyperlink ref="P11" r:id="rId2" xr:uid="{580DD472-D3CD-4D0C-8A0B-177EBAAADE18}"/>
+    <hyperlink ref="D14" r:id="rId3" xr:uid="{6266286B-B619-4A1F-A470-08F069C84087}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA07277-34A2-4324-A096-A26B631A9DFC}">
+  <dimension ref="B2:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>696</v>
+      </c>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
+    </row>
+    <row r="4" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="79"/>
+      <c r="C4" s="34" t="s">
+        <v>697</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>698</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>699</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>700</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67ABDD4D-96A4-4E82-8FFC-04A05620F8F6}">
+  <dimension ref="B2:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="24.53125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>696</v>
+      </c>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
+    </row>
+    <row r="4" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="79"/>
+      <c r="C4" s="34" t="s">
+        <v>697</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>698</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>699</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B5" s="36" t="s">
+        <v>738</v>
+      </c>
+      <c r="C5" s="14">
+        <v>26400</v>
+      </c>
+      <c r="D5" s="14">
+        <v>13200</v>
+      </c>
+      <c r="E5" s="14">
+        <v>6600</v>
+      </c>
+      <c r="F5" s="14">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>696</v>
+      </c>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="82"/>
+    </row>
+    <row r="9" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="79"/>
+      <c r="C9" s="34" t="s">
+        <v>697</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>698</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>699</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10" s="36" t="s">
+        <v>739</v>
+      </c>
+      <c r="C10" s="14">
+        <v>26400</v>
+      </c>
+      <c r="D10" s="14">
+        <v>13200</v>
+      </c>
+      <c r="E10" s="14">
+        <v>6600</v>
+      </c>
+      <c r="F10" s="14">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="80" t="s">
+        <v>696</v>
+      </c>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="82"/>
+    </row>
+    <row r="14" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="79"/>
+      <c r="C14" s="34" t="s">
+        <v>697</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>698</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>699</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B15" s="36" t="s">
+        <v>740</v>
+      </c>
+      <c r="C15" s="14">
+        <v>26400</v>
+      </c>
+      <c r="D15" s="14">
+        <v>13200</v>
+      </c>
+      <c r="E15" s="14">
+        <v>6600</v>
+      </c>
+      <c r="F15" s="14">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="80" t="s">
+        <v>696</v>
+      </c>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="82"/>
+    </row>
+    <row r="19" spans="2:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="79"/>
+      <c r="C19" s="34" t="s">
+        <v>697</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>698</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>699</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B20" s="36" t="s">
+        <v>740</v>
+      </c>
+      <c r="C20" s="14">
+        <v>26400</v>
+      </c>
+      <c r="D20" s="14">
+        <v>13200</v>
+      </c>
+      <c r="E20" s="14">
+        <v>6600</v>
+      </c>
+      <c r="F20" s="14">
+        <v>3300</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:F13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A66789-66FA-4F3A-B72F-C2F5EF43F729}">
+  <dimension ref="B1:L33"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.73046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="C1">
+        <v>7980251325</v>
+      </c>
+      <c r="E1" t="s">
+        <v>747</v>
+      </c>
+      <c r="I1" t="s">
+        <v>764</v>
+      </c>
+      <c r="L1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="88" t="s">
+        <v>763</v>
+      </c>
+      <c r="H2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I2" s="88" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>696</v>
+      </c>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
+      <c r="H3" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="80" t="s">
+        <v>696</v>
+      </c>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="82"/>
+    </row>
+    <row r="4" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="79"/>
+      <c r="C4" s="34" t="s">
+        <v>697</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>698</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>699</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>700</v>
+      </c>
+      <c r="H4" s="79"/>
+      <c r="I4" s="34" t="s">
+        <v>697</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>698</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>699</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B5" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="C5" s="14">
+        <v>19800</v>
+      </c>
+      <c r="D5" s="14">
+        <v>9900</v>
+      </c>
+      <c r="E5" s="14">
+        <v>4950</v>
+      </c>
+      <c r="F5" s="14">
+        <v>2475</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>320</v>
+      </c>
+      <c r="I5" s="14">
+        <v>19800</v>
+      </c>
+      <c r="J5" s="14">
+        <v>9900</v>
+      </c>
+      <c r="K5" s="14">
+        <v>4950</v>
+      </c>
+      <c r="L5" s="14">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B6" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="C6" s="14">
+        <v>19800</v>
+      </c>
+      <c r="D6" s="14">
+        <v>9900</v>
+      </c>
+      <c r="E6" s="14">
+        <v>4950</v>
+      </c>
+      <c r="F6" s="14">
+        <v>2475</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="I6" s="14">
+        <v>19800</v>
+      </c>
+      <c r="J6" s="14">
+        <v>9900</v>
+      </c>
+      <c r="K6" s="14">
+        <v>4950</v>
+      </c>
+      <c r="L6" s="14">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B7" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="C7" s="14">
+        <v>9240</v>
+      </c>
+      <c r="D7" s="14">
+        <v>4620</v>
+      </c>
+      <c r="E7" s="14">
+        <v>2310</v>
+      </c>
+      <c r="F7" s="14">
+        <v>1155</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>347</v>
+      </c>
+      <c r="I7" s="14">
+        <v>9240</v>
+      </c>
+      <c r="J7" s="14">
+        <v>4620</v>
+      </c>
+      <c r="K7" s="14">
+        <v>2310</v>
+      </c>
+      <c r="L7" s="14">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B8" s="37" t="s">
+        <v>363</v>
+      </c>
+      <c r="C8" s="14">
+        <v>9240</v>
+      </c>
+      <c r="D8" s="14">
+        <v>4620</v>
+      </c>
+      <c r="E8" s="14">
+        <v>2310</v>
+      </c>
+      <c r="F8" s="14">
+        <v>1155</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="I8" s="14">
+        <v>19800</v>
+      </c>
+      <c r="J8" s="14">
+        <v>9900</v>
+      </c>
+      <c r="K8" s="14">
+        <v>4950</v>
+      </c>
+      <c r="L8" s="14">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B9" s="37" t="s">
+        <v>375</v>
+      </c>
+      <c r="C9" s="14">
+        <v>8580</v>
+      </c>
+      <c r="D9" s="14">
+        <v>4290</v>
+      </c>
+      <c r="E9" s="14">
+        <v>2145</v>
+      </c>
+      <c r="F9" s="14">
+        <v>1072.5</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>410</v>
+      </c>
+      <c r="I9" s="14">
+        <v>19800</v>
+      </c>
+      <c r="J9" s="14">
+        <v>9900</v>
+      </c>
+      <c r="K9" s="14">
+        <v>4950</v>
+      </c>
+      <c r="L9" s="14">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B10" s="37" t="s">
+        <v>485</v>
+      </c>
+      <c r="C10" s="14">
+        <v>7920</v>
+      </c>
+      <c r="D10" s="14">
+        <v>3960</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1980</v>
+      </c>
+      <c r="F10" s="14">
+        <v>990</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="I10" s="14">
+        <v>19800</v>
+      </c>
+      <c r="J10" s="14">
+        <v>9900</v>
+      </c>
+      <c r="K10" s="14">
+        <v>4950</v>
+      </c>
+      <c r="L10" s="14">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="24.75" x14ac:dyDescent="0.45">
+      <c r="B11" s="37" t="s">
+        <v>495</v>
+      </c>
+      <c r="C11" s="14">
+        <v>7920</v>
+      </c>
+      <c r="D11" s="14">
+        <v>3960</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1980</v>
+      </c>
+      <c r="F11" s="14">
+        <v>990</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="I11" s="14">
+        <v>19800</v>
+      </c>
+      <c r="J11" s="14">
+        <v>9900</v>
+      </c>
+      <c r="K11" s="14">
+        <v>4950</v>
+      </c>
+      <c r="L11" s="14">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="E12" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13">
+        <v>7980473704</v>
+      </c>
+      <c r="E13" s="88" t="s">
+        <v>768</v>
+      </c>
+      <c r="H13" t="s">
+        <v>708</v>
+      </c>
+      <c r="I13" s="88" t="s">
+        <v>757</v>
+      </c>
+      <c r="L13">
+        <v>6291755179</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="80" t="s">
+        <v>696</v>
+      </c>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="82"/>
+      <c r="H14" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="80" t="s">
+        <v>696</v>
+      </c>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="82"/>
+    </row>
+    <row r="15" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="79"/>
+      <c r="C15" s="34" t="s">
+        <v>697</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>698</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>699</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>700</v>
+      </c>
+      <c r="H15" s="79"/>
+      <c r="I15" s="34" t="s">
+        <v>697</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>698</v>
+      </c>
+      <c r="K15" s="34" t="s">
+        <v>699</v>
+      </c>
+      <c r="L15" s="34" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B16" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="C16" s="14">
+        <v>19800</v>
+      </c>
+      <c r="D16" s="14">
+        <v>9900</v>
+      </c>
+      <c r="E16" s="14">
+        <v>4950</v>
+      </c>
+      <c r="F16" s="14">
+        <v>2475</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="I16" s="14">
+        <v>19800</v>
+      </c>
+      <c r="J16" s="14">
+        <v>9900</v>
+      </c>
+      <c r="K16" s="14">
+        <v>4950</v>
+      </c>
+      <c r="L16" s="14">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B17" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="C17" s="14">
+        <v>9240</v>
+      </c>
+      <c r="D17" s="14">
+        <v>4620</v>
+      </c>
+      <c r="E17" s="14">
+        <v>2310</v>
+      </c>
+      <c r="F17" s="14">
+        <v>1155</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="I17" s="14">
+        <v>7920</v>
+      </c>
+      <c r="J17" s="14">
+        <v>3960</v>
+      </c>
+      <c r="K17" s="14">
+        <v>1980</v>
+      </c>
+      <c r="L17" s="14">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B18" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="C18" s="14">
+        <v>9240</v>
+      </c>
+      <c r="D18" s="14">
+        <v>4620</v>
+      </c>
+      <c r="E18" s="14">
+        <v>2310</v>
+      </c>
+      <c r="F18" s="14">
+        <v>1155</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="I18" s="14">
+        <v>7920</v>
+      </c>
+      <c r="J18" s="14">
+        <v>3960</v>
+      </c>
+      <c r="K18" s="14">
+        <v>1980</v>
+      </c>
+      <c r="L18" s="14">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B19" s="37" t="s">
+        <v>374</v>
+      </c>
+      <c r="C19" s="14">
+        <v>8580</v>
+      </c>
+      <c r="D19" s="14">
+        <v>4290</v>
+      </c>
+      <c r="E19" s="14">
+        <v>2145</v>
+      </c>
+      <c r="F19" s="14">
+        <v>1072.5</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="I19" s="14">
+        <v>8580</v>
+      </c>
+      <c r="J19" s="14">
+        <v>4290</v>
+      </c>
+      <c r="K19" s="14">
+        <v>2145</v>
+      </c>
+      <c r="L19" s="14">
+        <v>1072.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21">
+        <v>9874041067</v>
+      </c>
+      <c r="H21" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="80" t="s">
+        <v>696</v>
+      </c>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="82"/>
+      <c r="H22" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="80" t="s">
+        <v>696</v>
+      </c>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="82"/>
+    </row>
+    <row r="23" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="79"/>
+      <c r="C23" s="34" t="s">
+        <v>697</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>698</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>699</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>700</v>
+      </c>
+      <c r="H23" s="79"/>
+      <c r="I23" s="34" t="s">
+        <v>697</v>
+      </c>
+      <c r="J23" s="34" t="s">
+        <v>698</v>
+      </c>
+      <c r="K23" s="34" t="s">
+        <v>699</v>
+      </c>
+      <c r="L23" s="34" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B24" s="37" t="s">
+        <v>421</v>
+      </c>
+      <c r="C24" s="14">
+        <v>8580</v>
+      </c>
+      <c r="D24" s="14">
+        <v>4290</v>
+      </c>
+      <c r="E24" s="14">
+        <v>2145</v>
+      </c>
+      <c r="F24" s="14">
+        <v>1072.5</v>
+      </c>
+      <c r="H24" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="I24" s="14">
+        <v>19800</v>
+      </c>
+      <c r="J24" s="14">
+        <v>9900</v>
+      </c>
+      <c r="K24" s="14">
+        <v>4950</v>
+      </c>
+      <c r="L24" s="14">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B25" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="C25" s="14">
+        <v>8580</v>
+      </c>
+      <c r="D25" s="14">
+        <v>4290</v>
+      </c>
+      <c r="E25" s="14">
+        <v>2145</v>
+      </c>
+      <c r="F25" s="14">
+        <v>1072.5</v>
+      </c>
+      <c r="H25" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="I25" s="14">
+        <v>19800</v>
+      </c>
+      <c r="J25" s="14">
+        <v>9900</v>
+      </c>
+      <c r="K25" s="14">
+        <v>4950</v>
+      </c>
+      <c r="L25" s="14">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B26" s="37" t="s">
+        <v>445</v>
+      </c>
+      <c r="C26" s="14">
+        <v>7920</v>
+      </c>
+      <c r="D26" s="14">
+        <v>3960</v>
+      </c>
+      <c r="E26" s="14">
+        <v>1980</v>
+      </c>
+      <c r="F26" s="14">
+        <v>990</v>
+      </c>
+      <c r="H26" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="I26" s="14">
+        <v>9240</v>
+      </c>
+      <c r="J26" s="14">
+        <v>4620</v>
+      </c>
+      <c r="K26" s="14">
+        <v>2310</v>
+      </c>
+      <c r="L26" s="14">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="H27" s="37" t="s">
+        <v>364</v>
+      </c>
+      <c r="I27" s="14">
+        <v>9240</v>
+      </c>
+      <c r="J27" s="14">
+        <v>4620</v>
+      </c>
+      <c r="K27" s="14">
+        <v>2310</v>
+      </c>
+      <c r="L27" s="14">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="H28" s="37" t="s">
+        <v>376</v>
+      </c>
+      <c r="I28" s="14">
+        <v>8580</v>
+      </c>
+      <c r="J28" s="14">
+        <v>4290</v>
+      </c>
+      <c r="K28" s="14">
+        <v>2145</v>
+      </c>
+      <c r="L28" s="14">
+        <v>1072.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="H29" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="I29" s="14">
+        <v>8580</v>
+      </c>
+      <c r="J29" s="14">
+        <v>4290</v>
+      </c>
+      <c r="K29" s="14">
+        <v>2145</v>
+      </c>
+      <c r="L29" s="14">
+        <v>1072.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="H30" s="37" t="s">
+        <v>434</v>
+      </c>
+      <c r="I30" s="14">
+        <v>8580</v>
+      </c>
+      <c r="J30" s="14">
+        <v>4290</v>
+      </c>
+      <c r="K30" s="14">
+        <v>2145</v>
+      </c>
+      <c r="L30" s="14">
+        <v>1072.5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="H31" s="37" t="s">
+        <v>486</v>
+      </c>
+      <c r="I31" s="14">
+        <v>7920</v>
+      </c>
+      <c r="J31" s="14">
+        <v>3960</v>
+      </c>
+      <c r="K31" s="14">
+        <v>1980</v>
+      </c>
+      <c r="L31" s="14">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="H32" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="I32" s="14">
+        <v>7920</v>
+      </c>
+      <c r="J32" s="14">
+        <v>3960</v>
+      </c>
+      <c r="K32" s="14">
+        <v>1980</v>
+      </c>
+      <c r="L32" s="14">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="33" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H33" s="37" t="s">
+        <v>505</v>
+      </c>
+      <c r="I33" s="14">
+        <v>7260</v>
+      </c>
+      <c r="J33" s="14">
+        <v>3630</v>
+      </c>
+      <c r="K33" s="14">
+        <v>1815</v>
+      </c>
+      <c r="L33" s="14">
+        <v>907.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H22:H23"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I13" r:id="rId1" xr:uid="{D7848268-AB73-4ECA-925B-29C40641E38A}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{5EC76383-0E40-4D52-A777-0D7638F48497}"/>
+    <hyperlink ref="I2" r:id="rId3" xr:uid="{725E835C-0EDB-4EC9-9895-D59DA3389F33}"/>
+    <hyperlink ref="E13" r:id="rId4" xr:uid="{1813E3D0-0C46-4D54-A23C-178EE4E5D2BD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43978937-0596-4240-A001-EEE1E6731804}">
+  <dimension ref="B1:R34"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.9296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.53125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.46484375" customWidth="1"/>
+    <col min="14" max="14" width="24.06640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>712</v>
+      </c>
+      <c r="C1" t="s">
+        <v>758</v>
+      </c>
+      <c r="H1" t="s">
+        <v>722</v>
+      </c>
+      <c r="I1" t="s">
+        <v>745</v>
+      </c>
+      <c r="L1" t="s">
+        <v>747</v>
+      </c>
+      <c r="N1" t="s">
+        <v>186</v>
+      </c>
+      <c r="O1" s="88" t="s">
+        <v>761</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="2" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C2">
+        <v>7478247983</v>
+      </c>
+      <c r="E2" t="s">
+        <v>762</v>
+      </c>
+      <c r="I2" t="s">
+        <v>746</v>
+      </c>
+      <c r="O2">
+        <v>9830158918</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>696</v>
+      </c>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="83"/>
+      <c r="H3" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="90" t="s">
+        <v>696</v>
+      </c>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="95"/>
+      <c r="N3" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="80" t="s">
+        <v>696</v>
+      </c>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="83"/>
+    </row>
+    <row r="4" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="84"/>
+      <c r="C4" s="34" t="s">
+        <v>697</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>698</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>699</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>700</v>
+      </c>
+      <c r="H4" s="96"/>
+      <c r="I4" s="94" t="s">
+        <v>697</v>
+      </c>
+      <c r="J4" s="94" t="s">
+        <v>698</v>
+      </c>
+      <c r="K4" s="94" t="s">
+        <v>699</v>
+      </c>
+      <c r="L4" s="94" t="s">
+        <v>700</v>
+      </c>
+      <c r="N4" s="84"/>
+      <c r="O4" s="34" t="s">
+        <v>697</v>
+      </c>
+      <c r="P4" s="34" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q4" s="34" t="s">
+        <v>699</v>
+      </c>
+      <c r="R4" s="34" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="40">
+        <v>26400</v>
+      </c>
+      <c r="D5" s="40">
+        <v>13200</v>
+      </c>
+      <c r="E5" s="40">
+        <v>6600</v>
+      </c>
+      <c r="F5" s="40">
+        <v>3300</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>713</v>
+      </c>
+      <c r="I5" s="40">
+        <v>39600</v>
+      </c>
+      <c r="J5" s="40">
+        <v>19800</v>
+      </c>
+      <c r="K5" s="40">
+        <v>9900</v>
+      </c>
+      <c r="L5" s="40">
+        <v>4950</v>
+      </c>
+      <c r="N5" s="39" t="s">
+        <v>723</v>
+      </c>
+      <c r="O5" s="40">
+        <v>15840</v>
+      </c>
+      <c r="P5" s="40">
+        <v>7920</v>
+      </c>
+      <c r="Q5" s="40">
+        <v>3960</v>
+      </c>
+      <c r="R5" s="40">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B6" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="38">
+        <v>26400</v>
+      </c>
+      <c r="D6" s="38">
+        <v>13200</v>
+      </c>
+      <c r="E6" s="38">
+        <v>6600</v>
+      </c>
+      <c r="F6" s="38">
+        <v>3300</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>714</v>
+      </c>
+      <c r="I6" s="38">
+        <v>39600</v>
+      </c>
+      <c r="J6" s="38">
+        <v>19800</v>
+      </c>
+      <c r="K6" s="38">
+        <v>9900</v>
+      </c>
+      <c r="L6" s="38">
+        <v>4950</v>
+      </c>
+      <c r="N6" s="37" t="s">
+        <v>724</v>
+      </c>
+      <c r="O6" s="38">
+        <v>15840</v>
+      </c>
+      <c r="P6" s="38">
+        <v>7920</v>
+      </c>
+      <c r="Q6" s="38">
+        <v>3960</v>
+      </c>
+      <c r="R6" s="38">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B7" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="38">
+        <v>26400</v>
+      </c>
+      <c r="D7" s="38">
+        <v>13200</v>
+      </c>
+      <c r="E7" s="38">
+        <v>6600</v>
+      </c>
+      <c r="F7" s="38">
+        <v>3300</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>715</v>
+      </c>
+      <c r="I7" s="38">
+        <v>33000</v>
+      </c>
+      <c r="J7" s="38">
+        <v>16500</v>
+      </c>
+      <c r="K7" s="38">
+        <v>8250</v>
+      </c>
+      <c r="L7" s="38">
+        <v>4125</v>
+      </c>
+      <c r="N7" s="37" t="s">
+        <v>725</v>
+      </c>
+      <c r="O7" s="38">
+        <v>9240</v>
+      </c>
+      <c r="P7" s="38">
+        <v>4620</v>
+      </c>
+      <c r="Q7" s="38">
+        <v>2310</v>
+      </c>
+      <c r="R7" s="38">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B8" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="38">
+        <v>26400</v>
+      </c>
+      <c r="D8" s="38">
+        <v>13200</v>
+      </c>
+      <c r="E8" s="38">
+        <v>6600</v>
+      </c>
+      <c r="F8" s="38">
+        <v>3300</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>716</v>
+      </c>
+      <c r="I8" s="38">
+        <v>33000</v>
+      </c>
+      <c r="J8" s="38">
+        <v>16500</v>
+      </c>
+      <c r="K8" s="38">
+        <v>8250</v>
+      </c>
+      <c r="L8" s="38">
+        <v>4125</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>726</v>
+      </c>
+      <c r="O8" s="38">
+        <v>9240</v>
+      </c>
+      <c r="P8" s="38">
+        <v>4620</v>
+      </c>
+      <c r="Q8" s="38">
+        <v>2310</v>
+      </c>
+      <c r="R8" s="38">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B9" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="38">
+        <v>26400</v>
+      </c>
+      <c r="D9" s="38">
+        <v>13200</v>
+      </c>
+      <c r="E9" s="38">
+        <v>6600</v>
+      </c>
+      <c r="F9" s="38">
+        <v>3300</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>717</v>
+      </c>
+      <c r="I9" s="38">
+        <v>33000</v>
+      </c>
+      <c r="J9" s="38">
+        <v>16500</v>
+      </c>
+      <c r="K9" s="38">
+        <v>8250</v>
+      </c>
+      <c r="L9" s="38">
+        <v>4125</v>
+      </c>
+      <c r="N9" s="37" t="s">
+        <v>727</v>
+      </c>
+      <c r="O9" s="38">
+        <v>15840</v>
+      </c>
+      <c r="P9" s="38">
+        <v>7920</v>
+      </c>
+      <c r="Q9" s="38">
+        <v>3960</v>
+      </c>
+      <c r="R9" s="38">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B10" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="38">
+        <v>26400</v>
+      </c>
+      <c r="D10" s="38">
+        <v>13200</v>
+      </c>
+      <c r="E10" s="38">
+        <v>6600</v>
+      </c>
+      <c r="F10" s="38">
+        <v>3300</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>718</v>
+      </c>
+      <c r="I10" s="38">
+        <v>33000</v>
+      </c>
+      <c r="J10" s="38">
+        <v>16500</v>
+      </c>
+      <c r="K10" s="38">
+        <v>8250</v>
+      </c>
+      <c r="L10" s="38">
+        <v>4125</v>
+      </c>
+      <c r="N10" s="37" t="s">
+        <v>728</v>
+      </c>
+      <c r="O10" s="38">
+        <v>15840</v>
+      </c>
+      <c r="P10" s="38">
+        <v>7920</v>
+      </c>
+      <c r="Q10" s="38">
+        <v>3960</v>
+      </c>
+      <c r="R10" s="38">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B11" s="37" t="s">
+        <v>709</v>
+      </c>
+      <c r="C11" s="38">
+        <v>26400</v>
+      </c>
+      <c r="D11" s="38">
+        <v>13200</v>
+      </c>
+      <c r="E11" s="38">
+        <v>6600</v>
+      </c>
+      <c r="F11" s="38">
+        <v>3300</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>719</v>
+      </c>
+      <c r="I11" s="38">
+        <v>19800</v>
+      </c>
+      <c r="J11" s="38">
+        <v>9900</v>
+      </c>
+      <c r="K11" s="38">
+        <v>4950</v>
+      </c>
+      <c r="L11" s="38">
+        <v>2475</v>
+      </c>
+      <c r="N11" s="37" t="s">
+        <v>729</v>
+      </c>
+      <c r="O11" s="38">
+        <v>9240</v>
+      </c>
+      <c r="P11" s="38">
+        <v>4620</v>
+      </c>
+      <c r="Q11" s="38">
+        <v>2310</v>
+      </c>
+      <c r="R11" s="38">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B12" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="38">
+        <v>26400</v>
+      </c>
+      <c r="D12" s="38">
+        <v>13200</v>
+      </c>
+      <c r="E12" s="38">
+        <v>6600</v>
+      </c>
+      <c r="F12" s="38">
+        <v>3300</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>720</v>
+      </c>
+      <c r="I12" s="38">
+        <v>19800</v>
+      </c>
+      <c r="J12" s="38">
+        <v>9900</v>
+      </c>
+      <c r="K12" s="38">
+        <v>4950</v>
+      </c>
+      <c r="L12" s="38">
+        <v>2475</v>
+      </c>
+      <c r="N12" s="37" t="s">
+        <v>730</v>
+      </c>
+      <c r="O12" s="38">
+        <v>9240</v>
+      </c>
+      <c r="P12" s="38">
+        <v>4620</v>
+      </c>
+      <c r="Q12" s="38">
+        <v>2310</v>
+      </c>
+      <c r="R12" s="38">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B13" s="37" t="s">
+        <v>458</v>
+      </c>
+      <c r="C13" s="38">
+        <v>19800</v>
+      </c>
+      <c r="D13" s="38">
+        <v>9900</v>
+      </c>
+      <c r="E13" s="38">
+        <v>4950</v>
+      </c>
+      <c r="F13" s="38">
+        <v>2475</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>721</v>
+      </c>
+      <c r="I13" s="38">
+        <v>19800</v>
+      </c>
+      <c r="J13" s="38">
+        <v>9900</v>
+      </c>
+      <c r="K13" s="38">
+        <v>4950</v>
+      </c>
+      <c r="L13" s="38">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B14" s="37" t="s">
+        <v>474</v>
+      </c>
+      <c r="C14" s="38">
+        <v>19800</v>
+      </c>
+      <c r="D14" s="38">
+        <v>9900</v>
+      </c>
+      <c r="E14" s="38">
+        <v>4950</v>
+      </c>
+      <c r="F14" s="38">
+        <v>2475</v>
+      </c>
+      <c r="K14" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="C15" s="38">
+        <v>13200</v>
+      </c>
+      <c r="D15" s="38">
+        <v>6600</v>
+      </c>
+      <c r="E15" s="38">
+        <v>3300</v>
+      </c>
+      <c r="F15" s="38">
+        <v>1650</v>
+      </c>
+      <c r="H15" t="s">
+        <v>737</v>
+      </c>
+      <c r="I15">
+        <v>7003597510</v>
+      </c>
+      <c r="K15" s="88" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="C16" s="38">
+        <v>13200</v>
+      </c>
+      <c r="D16" s="38">
+        <v>6600</v>
+      </c>
+      <c r="E16" s="38">
+        <v>3300</v>
+      </c>
+      <c r="F16" s="38">
+        <v>1650</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="80" t="s">
+        <v>696</v>
+      </c>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="83"/>
+    </row>
+    <row r="17" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="37" t="s">
+        <v>538</v>
+      </c>
+      <c r="C17" s="38">
+        <v>13200</v>
+      </c>
+      <c r="D17" s="38">
+        <v>6600</v>
+      </c>
+      <c r="E17" s="38">
+        <v>3300</v>
+      </c>
+      <c r="F17" s="38">
+        <v>1650</v>
+      </c>
+      <c r="H17" s="41"/>
+      <c r="I17" s="34" t="s">
+        <v>697</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>698</v>
+      </c>
+      <c r="K17" s="34" t="s">
+        <v>699</v>
+      </c>
+      <c r="L17" s="34" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B18" s="37" t="s">
+        <v>710</v>
+      </c>
+      <c r="C18" s="38">
+        <v>13200</v>
+      </c>
+      <c r="D18" s="38">
+        <v>6600</v>
+      </c>
+      <c r="E18" s="38">
+        <v>3300</v>
+      </c>
+      <c r="F18" s="38">
+        <v>1650</v>
+      </c>
+      <c r="H18" s="39" t="s">
+        <v>694</v>
+      </c>
+      <c r="I18" s="14">
+        <v>26400</v>
+      </c>
+      <c r="J18" s="14">
+        <v>13200</v>
+      </c>
+      <c r="K18" s="14">
+        <v>6600</v>
+      </c>
+      <c r="L18" s="14">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B19" s="37" t="s">
+        <v>711</v>
+      </c>
+      <c r="C19" s="38">
+        <v>7857</v>
+      </c>
+      <c r="D19" s="38">
+        <v>3929</v>
+      </c>
+      <c r="E19" s="38">
+        <v>1964</v>
+      </c>
+      <c r="F19" s="38">
+        <v>982</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>692</v>
+      </c>
+      <c r="I19" s="14">
+        <v>26400</v>
+      </c>
+      <c r="J19" s="14">
+        <v>13200</v>
+      </c>
+      <c r="K19" s="14">
+        <v>6600</v>
+      </c>
+      <c r="L19" s="14">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="E20" t="s">
+        <v>762</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>691</v>
+      </c>
+      <c r="I20" s="14">
+        <v>19800</v>
+      </c>
+      <c r="J20" s="14">
+        <v>9900</v>
+      </c>
+      <c r="K20" s="14">
+        <v>4950</v>
+      </c>
+      <c r="L20" s="14">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21">
+        <v>9833304779</v>
+      </c>
+      <c r="D21" s="88" t="s">
+        <v>760</v>
+      </c>
+      <c r="H21" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="I21" s="14">
+        <v>39600</v>
+      </c>
+      <c r="J21" s="14">
+        <v>19800</v>
+      </c>
+      <c r="K21" s="14">
+        <v>9900</v>
+      </c>
+      <c r="L21" s="14">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="80" t="s">
+        <v>696</v>
+      </c>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="83"/>
+      <c r="H22" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="I22" s="14">
+        <v>39600</v>
+      </c>
+      <c r="J22" s="14">
+        <v>19800</v>
+      </c>
+      <c r="K22" s="14">
+        <v>9900</v>
+      </c>
+      <c r="L22" s="14">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="84"/>
+      <c r="C23" s="34" t="s">
+        <v>697</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>698</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>699</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>700</v>
+      </c>
+      <c r="H23" s="37" t="s">
+        <v>352</v>
+      </c>
+      <c r="I23" s="14">
+        <v>33000</v>
+      </c>
+      <c r="J23" s="14">
+        <v>16500</v>
+      </c>
+      <c r="K23" s="14">
+        <v>8250</v>
+      </c>
+      <c r="L23" s="14">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B24" s="39" t="s">
+        <v>731</v>
+      </c>
+      <c r="C24" s="40">
+        <v>19800</v>
+      </c>
+      <c r="D24" s="40">
+        <v>9900</v>
+      </c>
+      <c r="E24" s="40">
+        <v>4950</v>
+      </c>
+      <c r="F24" s="40">
+        <v>2475</v>
+      </c>
+      <c r="H24" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="I24" s="14">
+        <v>33000</v>
+      </c>
+      <c r="J24" s="14">
+        <v>16500</v>
+      </c>
+      <c r="K24" s="14">
+        <v>8250</v>
+      </c>
+      <c r="L24" s="14">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B25" s="37" t="s">
+        <v>732</v>
+      </c>
+      <c r="C25" s="38">
+        <v>19800</v>
+      </c>
+      <c r="D25" s="38">
+        <v>9900</v>
+      </c>
+      <c r="E25" s="38">
+        <v>4950</v>
+      </c>
+      <c r="F25" s="38">
+        <v>2475</v>
+      </c>
+      <c r="H25" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="I25" s="14">
+        <v>39600</v>
+      </c>
+      <c r="J25" s="14">
+        <v>19800</v>
+      </c>
+      <c r="K25" s="14">
+        <v>9900</v>
+      </c>
+      <c r="L25" s="14">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B26" s="37" t="s">
+        <v>733</v>
+      </c>
+      <c r="C26" s="38">
+        <v>8580</v>
+      </c>
+      <c r="D26" s="38">
+        <v>4290</v>
+      </c>
+      <c r="E26" s="38">
+        <v>2145</v>
+      </c>
+      <c r="F26" s="38">
+        <v>1073</v>
+      </c>
+      <c r="H26" s="37" t="s">
+        <v>415</v>
+      </c>
+      <c r="I26" s="14">
+        <v>39600</v>
+      </c>
+      <c r="J26" s="14">
+        <v>19800</v>
+      </c>
+      <c r="K26" s="14">
+        <v>9900</v>
+      </c>
+      <c r="L26" s="14">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B27" s="37" t="s">
+        <v>734</v>
+      </c>
+      <c r="C27" s="38">
+        <v>8580</v>
+      </c>
+      <c r="D27" s="38">
+        <v>4290</v>
+      </c>
+      <c r="E27" s="38">
+        <v>2145</v>
+      </c>
+      <c r="F27" s="38">
+        <v>1073</v>
+      </c>
+      <c r="H27" s="37" t="s">
+        <v>427</v>
+      </c>
+      <c r="I27" s="14">
+        <v>33000</v>
+      </c>
+      <c r="J27" s="14">
+        <v>16500</v>
+      </c>
+      <c r="K27" s="14">
+        <v>8250</v>
+      </c>
+      <c r="L27" s="14">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B28" s="37" t="s">
+        <v>735</v>
+      </c>
+      <c r="C28" s="38">
+        <v>8580</v>
+      </c>
+      <c r="D28" s="38">
+        <v>4290</v>
+      </c>
+      <c r="E28" s="38">
+        <v>2145</v>
+      </c>
+      <c r="F28" s="38">
+        <v>1073</v>
+      </c>
+      <c r="H28" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="I28" s="14">
+        <v>33000</v>
+      </c>
+      <c r="J28" s="14">
+        <v>16500</v>
+      </c>
+      <c r="K28" s="14">
+        <v>8250</v>
+      </c>
+      <c r="L28" s="14">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B29" s="37" t="s">
+        <v>736</v>
+      </c>
+      <c r="C29" s="38">
+        <v>8580</v>
+      </c>
+      <c r="D29" s="38">
+        <v>4290</v>
+      </c>
+      <c r="E29" s="38">
+        <v>2145</v>
+      </c>
+      <c r="F29" s="38">
+        <v>1073</v>
+      </c>
+      <c r="H29" s="37" t="s">
+        <v>462</v>
+      </c>
+      <c r="I29" s="14">
+        <v>39600</v>
+      </c>
+      <c r="J29" s="14">
+        <v>19800</v>
+      </c>
+      <c r="K29" s="14">
+        <v>9900</v>
+      </c>
+      <c r="L29" s="14">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="H30" s="39" t="s">
+        <v>478</v>
+      </c>
+      <c r="I30" s="14">
+        <v>39600</v>
+      </c>
+      <c r="J30" s="14">
+        <v>19800</v>
+      </c>
+      <c r="K30" s="14">
+        <v>9900</v>
+      </c>
+      <c r="L30" s="14">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="H31" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="I31" s="14">
+        <v>33000</v>
+      </c>
+      <c r="J31" s="14">
+        <v>16500</v>
+      </c>
+      <c r="K31" s="14">
+        <v>8250</v>
+      </c>
+      <c r="L31" s="14">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="H32" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="I32" s="14">
+        <v>33000</v>
+      </c>
+      <c r="J32" s="14">
+        <v>16500</v>
+      </c>
+      <c r="K32" s="14">
+        <v>8250</v>
+      </c>
+      <c r="L32" s="14">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="33" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H33" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="I33" s="14">
+        <v>39600</v>
+      </c>
+      <c r="J33" s="14">
+        <v>19800</v>
+      </c>
+      <c r="K33" s="14">
+        <v>9900</v>
+      </c>
+      <c r="L33" s="14">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="34" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="H34" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="I34" s="14">
+        <v>39600</v>
+      </c>
+      <c r="J34" s="14">
+        <v>19800</v>
+      </c>
+      <c r="K34" s="14">
+        <v>9900</v>
+      </c>
+      <c r="L34" s="14">
+        <v>4950</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:L3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K15" r:id="rId1" xr:uid="{B6812D7B-A717-4D35-AF57-B2E0E8303EA6}"/>
+    <hyperlink ref="D21" r:id="rId2" xr:uid="{72D5D569-1EEC-403A-A3D3-2FEBA8B7EDB3}"/>
+    <hyperlink ref="O1" r:id="rId3" xr:uid="{A9C8BB69-501C-4BB1-91B1-57F903F27DBC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Offline/BusinessManagement/ProfitabilityV2.xlsx
+++ b/Offline/BusinessManagement/ProfitabilityV2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B88E402-A28E-4E05-89CF-F740AD5D903B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488AF6C7-2351-4A23-A8F8-D6DB3B49AC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,9 +177,6 @@
     <t>Mobile Apps Development</t>
   </si>
   <si>
-    <t>AI, IoT, Robotics</t>
-  </si>
-  <si>
     <t>ML Projects Org, Hyperparameters, TF (Deep Dive), PyTorch, Keras, ML-Ops &amp; Deployment, GAN, LLM, LLM-Ops</t>
   </si>
   <si>
@@ -205,6 +202,9 @@
   </si>
   <si>
     <t>Full Stack (React Native (Android, IOS))</t>
+  </si>
+  <si>
+    <t>AI, IoT, Robotics - Board Syllabus</t>
   </si>
 </sst>
 </file>
@@ -247,7 +247,7 @@
       <name val="Oxygen"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,12 +275,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,120 +567,117 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -976,1206 +967,1206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O17" sqref="L17:O22"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="10.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="36.59765625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="38.9296875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="8.06640625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="6" style="20" customWidth="1"/>
-    <col min="5" max="5" width="5.265625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="4.9296875" style="20" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" style="20" customWidth="1"/>
-    <col min="8" max="8" width="6.19921875" style="20" customWidth="1"/>
-    <col min="9" max="9" width="4.53125" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.9296875" style="20" customWidth="1"/>
-    <col min="11" max="11" width="5.19921875" style="20" customWidth="1"/>
-    <col min="12" max="16" width="6.265625" style="20" customWidth="1"/>
-    <col min="17" max="16384" width="10.796875" style="20"/>
+    <col min="1" max="1" width="36.59765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.9296875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="8.06640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="6" style="12" customWidth="1"/>
+    <col min="5" max="5" width="5.265625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="4.9296875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="6.19921875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="4.53125" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.9296875" style="12" customWidth="1"/>
+    <col min="11" max="11" width="5.19921875" style="12" customWidth="1"/>
+    <col min="12" max="16" width="6.265625" style="12" customWidth="1"/>
+    <col min="17" max="16384" width="10.796875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="5"/>
+      <c r="L1" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="31"/>
     </row>
-    <row r="2" spans="1:16" s="6" customFormat="1" ht="21.75" x14ac:dyDescent="0.45">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10" t="s">
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="32.65" x14ac:dyDescent="0.45">
+      <c r="A2" s="37"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="7">
         <v>4</v>
       </c>
-      <c r="E3" s="15">
-        <v>1</v>
-      </c>
-      <c r="F3" s="15">
-        <v>1</v>
-      </c>
-      <c r="G3" s="15" t="s">
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="7">
         <f>J3*0%</f>
         <v>0</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="7">
         <f>H3*18%</f>
         <v>0</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="8">
         <v>10000</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="9">
         <v>100</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="10">
         <f t="shared" ref="L3:M3" si="0">M3*2</f>
         <v>0</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="11">
         <f>O3*2</f>
         <v>0</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="11">
         <f>P3*2</f>
         <v>0</v>
       </c>
-      <c r="P3" s="19">
+      <c r="P3" s="11">
         <f>IF(G3="Once",H3*90%,(IF(G3="Half-Yearly",(H3*90%)/6,(IF(G3="Yearly",(H3*90%)/12,"Formula Error")))))</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="21.75" x14ac:dyDescent="0.45">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="7">
         <v>16</v>
       </c>
-      <c r="E4" s="15">
-        <v>1</v>
-      </c>
-      <c r="F4" s="15">
-        <v>1</v>
-      </c>
-      <c r="G4" s="15" t="s">
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="7">
         <f>J4*0%</f>
         <v>0</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="7">
         <f>H4*18%</f>
         <v>0</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="8">
         <v>100000</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="9">
         <v>100</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="10">
         <f t="shared" ref="L4:N22" si="1">M4*2</f>
         <v>0</v>
       </c>
-      <c r="M4" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N4" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O4" s="19">
+      <c r="M4" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="11">
         <f t="shared" ref="O4" si="2">P4*2</f>
         <v>0</v>
       </c>
-      <c r="P4" s="19">
+      <c r="P4" s="11">
         <f t="shared" ref="P4:P22" si="3">IF(G4="Once",H4*90%,(IF(G4="Half-Yearly",(H4*90%)/6,(IF(G4="Yearly",(H4*90%)/12,"Formula Error")))))</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="21.75" x14ac:dyDescent="0.45">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="7">
         <v>16</v>
       </c>
-      <c r="E5" s="15">
-        <v>1</v>
-      </c>
-      <c r="F5" s="15">
-        <v>1</v>
-      </c>
-      <c r="G5" s="15" t="s">
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="7">
         <f>J5*0%</f>
         <v>0</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="7">
         <f t="shared" ref="I5:I6" si="4">H5*18%</f>
         <v>0</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="8">
         <v>100000</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="9">
         <v>100</v>
       </c>
-      <c r="L5" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="19">
+      <c r="L5" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="11">
         <f t="shared" ref="O5" si="5">P5*2</f>
         <v>0</v>
       </c>
-      <c r="P5" s="19">
+      <c r="P5" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="7">
         <v>16</v>
       </c>
-      <c r="E6" s="15">
-        <v>1</v>
-      </c>
-      <c r="F6" s="15">
-        <v>1</v>
-      </c>
-      <c r="G6" s="15" t="s">
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="7">
         <f>J6*0%</f>
         <v>0</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="8">
         <v>200000</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="9">
         <v>100</v>
       </c>
-      <c r="L6" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="19">
+      <c r="L6" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="11">
         <f t="shared" ref="O6" si="6">P6*2</f>
         <v>0</v>
       </c>
-      <c r="P6" s="19">
+      <c r="P6" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="7">
         <v>12</v>
       </c>
-      <c r="E7" s="15">
-        <v>1</v>
-      </c>
-      <c r="F7" s="15">
-        <v>1</v>
-      </c>
-      <c r="G7" s="15" t="s">
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="7">
         <f t="shared" ref="H7:H14" si="7">J7*50%</f>
         <v>6000</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="7">
         <f t="shared" ref="I7:I14" si="8">H7*18%</f>
         <v>1080</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="8">
         <v>12000</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="9">
         <v>50</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="10">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="11">
         <f t="shared" si="1"/>
         <v>43200</v>
       </c>
-      <c r="N7" s="19">
+      <c r="N7" s="11">
         <f t="shared" si="1"/>
         <v>21600</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O7" s="11">
         <f t="shared" ref="O7" si="9">P7*2</f>
         <v>10800</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P7" s="11">
         <f t="shared" si="3"/>
         <v>5400</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="7">
         <v>12</v>
       </c>
-      <c r="E8" s="15">
-        <v>1</v>
-      </c>
-      <c r="F8" s="15">
-        <v>1</v>
-      </c>
-      <c r="G8" s="15" t="s">
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="7">
         <f t="shared" si="7"/>
         <v>6000</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="7">
         <f t="shared" si="8"/>
         <v>1080</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="8">
         <v>12000</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="9">
         <v>50</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="10">
         <f t="shared" si="1"/>
         <v>86400</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="11">
         <f t="shared" si="1"/>
         <v>43200</v>
       </c>
-      <c r="N8" s="19">
+      <c r="N8" s="11">
         <f t="shared" si="1"/>
         <v>21600</v>
       </c>
-      <c r="O8" s="19">
+      <c r="O8" s="11">
         <f t="shared" ref="O8" si="10">P8*2</f>
         <v>10800</v>
       </c>
-      <c r="P8" s="19">
+      <c r="P8" s="11">
         <f t="shared" si="3"/>
         <v>5400</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="7">
         <v>12</v>
       </c>
-      <c r="E9" s="15">
-        <v>1</v>
-      </c>
-      <c r="F9" s="15">
-        <v>1</v>
-      </c>
-      <c r="G9" s="15" t="s">
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="7">
         <f t="shared" si="7"/>
         <v>10000</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="7">
         <f t="shared" si="8"/>
         <v>1800</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="8">
         <v>20000</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="9">
         <v>50</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="10">
         <f t="shared" si="1"/>
         <v>144000</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9" s="11">
         <f t="shared" si="1"/>
         <v>72000</v>
       </c>
-      <c r="N9" s="19">
+      <c r="N9" s="11">
         <f t="shared" si="1"/>
         <v>36000</v>
       </c>
-      <c r="O9" s="19">
+      <c r="O9" s="11">
         <f t="shared" ref="O9" si="11">P9*2</f>
         <v>18000</v>
       </c>
-      <c r="P9" s="19">
+      <c r="P9" s="11">
         <f t="shared" si="3"/>
         <v>9000</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="7">
         <v>12</v>
       </c>
-      <c r="E10" s="15">
-        <v>1</v>
-      </c>
-      <c r="F10" s="15">
-        <v>1</v>
-      </c>
-      <c r="G10" s="15" t="s">
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="7">
         <f t="shared" si="7"/>
         <v>10000</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="7">
         <f t="shared" si="8"/>
         <v>1800</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="8">
         <v>20000</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="9">
         <v>50</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="10">
         <f t="shared" si="1"/>
         <v>144000</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="11">
         <f t="shared" si="1"/>
         <v>72000</v>
       </c>
-      <c r="N10" s="19">
+      <c r="N10" s="11">
         <f t="shared" si="1"/>
         <v>36000</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O10" s="11">
         <f t="shared" ref="O10:O11" si="12">P10*2</f>
         <v>18000</v>
       </c>
-      <c r="P10" s="19">
+      <c r="P10" s="11">
         <f t="shared" si="3"/>
         <v>9000</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="14" t="s">
+      <c r="B11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="7">
         <v>12</v>
       </c>
-      <c r="E11" s="15">
-        <v>1</v>
-      </c>
-      <c r="F11" s="15">
-        <v>1</v>
-      </c>
-      <c r="G11" s="15" t="s">
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="7">
         <f t="shared" si="7"/>
         <v>10000</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="7">
         <f t="shared" si="8"/>
         <v>1800</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="8">
         <v>20000</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="9">
         <v>50</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L11" s="10">
         <f t="shared" si="1"/>
         <v>144000</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M11" s="11">
         <f t="shared" si="1"/>
         <v>72000</v>
       </c>
-      <c r="N11" s="19">
+      <c r="N11" s="11">
         <f t="shared" si="1"/>
         <v>36000</v>
       </c>
-      <c r="O11" s="19">
+      <c r="O11" s="11">
         <f t="shared" si="12"/>
         <v>18000</v>
       </c>
-      <c r="P11" s="19">
+      <c r="P11" s="11">
         <f t="shared" si="3"/>
         <v>9000</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="7">
         <v>12</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="7">
         <v>2</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15" t="s">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="7">
         <f t="shared" si="7"/>
         <v>3000</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="7">
         <f t="shared" si="8"/>
         <v>540</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="8">
         <v>6000</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="9">
         <v>50</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="10">
         <f t="shared" si="1"/>
         <v>43200</v>
       </c>
-      <c r="M12" s="19">
+      <c r="M12" s="11">
         <f t="shared" si="1"/>
         <v>21600</v>
       </c>
-      <c r="N12" s="19">
+      <c r="N12" s="11">
         <f t="shared" si="1"/>
         <v>10800</v>
       </c>
-      <c r="O12" s="19">
+      <c r="O12" s="11">
         <f t="shared" ref="O12" si="13">P12*2</f>
         <v>5400</v>
       </c>
-      <c r="P12" s="19">
+      <c r="P12" s="11">
         <f t="shared" si="3"/>
         <v>2700</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="7">
         <v>12</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="7">
         <v>2</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15" t="s">
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="7">
         <f t="shared" si="7"/>
         <v>3000</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="7">
         <f t="shared" si="8"/>
         <v>540</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="8">
         <v>6000</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="9">
         <v>50</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="10">
         <f t="shared" si="1"/>
         <v>43200</v>
       </c>
-      <c r="M13" s="19">
+      <c r="M13" s="11">
         <f t="shared" si="1"/>
         <v>21600</v>
       </c>
-      <c r="N13" s="19">
+      <c r="N13" s="11">
         <f t="shared" si="1"/>
         <v>10800</v>
       </c>
-      <c r="O13" s="19">
+      <c r="O13" s="11">
         <f t="shared" ref="O13" si="14">P13*2</f>
         <v>5400</v>
       </c>
-      <c r="P13" s="19">
+      <c r="P13" s="11">
         <f t="shared" si="3"/>
         <v>2700</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="7">
         <v>52</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="7">
         <v>2</v>
       </c>
-      <c r="F14" s="15">
-        <v>0</v>
-      </c>
-      <c r="G14" s="15" t="s">
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="7">
         <f t="shared" si="7"/>
         <v>6000</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="7">
         <f t="shared" si="8"/>
         <v>1080</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="8">
         <v>12000</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="9">
         <v>50</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L14" s="10">
         <f t="shared" si="1"/>
         <v>14400</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M14" s="11">
         <f t="shared" si="1"/>
         <v>7200</v>
       </c>
-      <c r="N14" s="19">
+      <c r="N14" s="11">
         <f t="shared" si="1"/>
         <v>3600</v>
       </c>
-      <c r="O14" s="19">
+      <c r="O14" s="11">
         <f t="shared" ref="O14" si="15">P14*2</f>
         <v>1800</v>
       </c>
-      <c r="P14" s="19">
+      <c r="P14" s="11">
         <f t="shared" si="3"/>
         <v>900</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="14" t="s">
+      <c r="B15" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="7">
         <v>52</v>
       </c>
-      <c r="E15" s="15">
-        <v>1</v>
-      </c>
-      <c r="F15" s="15">
-        <v>1</v>
-      </c>
-      <c r="G15" s="15" t="s">
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="7">
         <v>12000</v>
       </c>
-      <c r="I15" s="15">
-        <v>0</v>
-      </c>
-      <c r="J15" s="16">
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8">
         <v>18000</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="9">
         <v>50</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15" s="10">
         <f t="shared" si="1"/>
         <v>28800</v>
       </c>
-      <c r="M15" s="19">
+      <c r="M15" s="11">
         <f t="shared" si="1"/>
         <v>14400</v>
       </c>
-      <c r="N15" s="19">
+      <c r="N15" s="11">
         <f t="shared" si="1"/>
         <v>7200</v>
       </c>
-      <c r="O15" s="19">
+      <c r="O15" s="11">
         <f t="shared" ref="O15" si="16">P15*2</f>
         <v>3600</v>
       </c>
-      <c r="P15" s="19">
+      <c r="P15" s="11">
         <f t="shared" si="3"/>
         <v>1800</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="11.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="30" t="s">
+      <c r="B16" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="22">
         <v>52</v>
       </c>
-      <c r="E16" s="31">
-        <v>1</v>
-      </c>
-      <c r="F16" s="31">
-        <v>1</v>
-      </c>
-      <c r="G16" s="31" t="s">
+      <c r="E16" s="22">
+        <v>1</v>
+      </c>
+      <c r="F16" s="22">
+        <v>1</v>
+      </c>
+      <c r="G16" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="22">
         <v>9000</v>
       </c>
-      <c r="I16" s="31">
-        <v>0</v>
-      </c>
-      <c r="J16" s="32">
+      <c r="I16" s="22">
+        <v>0</v>
+      </c>
+      <c r="J16" s="23">
         <v>24000</v>
       </c>
-      <c r="K16" s="33">
+      <c r="K16" s="24">
         <v>50</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="10">
         <f t="shared" si="1"/>
         <v>21600</v>
       </c>
-      <c r="M16" s="19">
+      <c r="M16" s="11">
         <f t="shared" si="1"/>
         <v>10800</v>
       </c>
-      <c r="N16" s="19">
+      <c r="N16" s="11">
         <f t="shared" si="1"/>
         <v>5400</v>
       </c>
-      <c r="O16" s="19">
+      <c r="O16" s="11">
         <f t="shared" ref="O16" si="17">P16*2</f>
         <v>2700</v>
       </c>
-      <c r="P16" s="19">
+      <c r="P16" s="11">
         <f t="shared" si="3"/>
         <v>1350</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A17" s="34" t="str">
+      <c r="A17" s="25" t="str">
         <f>"XI - XII - All Boards - " &amp; B17</f>
         <v>XI - XII - All Boards - All Other Subjects</v>
       </c>
-      <c r="B17" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36">
+      <c r="B17" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36" t="s">
+      <c r="C17" s="26"/>
+      <c r="D17" s="27">
+        <v>52</v>
+      </c>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="27">
         <f t="shared" ref="H17" si="18">J17*50%</f>
         <v>36000</v>
       </c>
-      <c r="I17" s="36">
-        <v>0</v>
-      </c>
-      <c r="J17" s="16">
+      <c r="I17" s="27">
+        <v>0</v>
+      </c>
+      <c r="J17" s="8">
         <v>72000</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="8">
         <v>51</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="10">
         <f t="shared" ref="L17" si="19">M17*2</f>
         <v>86400</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M17" s="10">
         <f t="shared" ref="M17" si="20">N17*2</f>
         <v>43200</v>
       </c>
-      <c r="N17" s="18">
+      <c r="N17" s="10">
         <f t="shared" ref="N17" si="21">O17*2</f>
         <v>21600</v>
       </c>
-      <c r="O17" s="18">
+      <c r="O17" s="10">
         <f t="shared" ref="O17" si="22">P17*2</f>
         <v>10800</v>
       </c>
-      <c r="P17" s="28">
+      <c r="P17" s="19">
         <f>IF(G17="Once",H17*90%,(IF(G17="Half-Yearly",(H17*90%)/6,(IF(G17="Yearly",(H17*90%)/12,"Formula Error")))))</f>
         <v>5400</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A18" s="34" t="str">
+      <c r="A18" s="25" t="str">
         <f>"VIII - X - All Boards - " &amp; B18</f>
         <v>VIII - X - All Boards - All  Other Subjects</v>
       </c>
-      <c r="B18" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36">
+      <c r="B18" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27">
         <v>52</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36" t="s">
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="36">
+      <c r="H18" s="27">
         <f t="shared" ref="H18" si="23">J18*50%</f>
         <v>30000</v>
       </c>
-      <c r="I18" s="36">
-        <v>0</v>
-      </c>
-      <c r="J18" s="16">
+      <c r="I18" s="27">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8">
         <v>60000</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="8">
         <v>51</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L18" s="10">
         <f t="shared" ref="L18" si="24">M18*2</f>
         <v>72000</v>
       </c>
-      <c r="M18" s="18">
+      <c r="M18" s="10">
         <f t="shared" ref="M18" si="25">N18*2</f>
         <v>36000</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N18" s="10">
         <f t="shared" ref="N18" si="26">O18*2</f>
         <v>18000</v>
       </c>
-      <c r="O18" s="18">
+      <c r="O18" s="10">
         <f t="shared" ref="O18" si="27">P18*2</f>
         <v>9000</v>
       </c>
-      <c r="P18" s="28">
+      <c r="P18" s="19">
         <f t="shared" ref="P18" si="28">IF(G18="Once",H18*90%,(IF(G18="Half-Yearly",(H18*90%)/6,(IF(G18="Yearly",(H18*90%)/12,"Formula Error")))))</f>
         <v>4500</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="27">
         <v>104</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="27">
         <v>2</v>
       </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="36">
+      <c r="F19" s="27"/>
+      <c r="G19" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="27">
         <f>J19*50%</f>
         <v>25000</v>
       </c>
-      <c r="I19" s="36">
-        <v>0</v>
-      </c>
-      <c r="J19" s="16">
+      <c r="I19" s="27">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8">
         <v>50000</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K19" s="8">
         <v>50</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L19" s="10">
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
-      <c r="M19" s="18">
+      <c r="M19" s="10">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
-      <c r="N19" s="18">
+      <c r="N19" s="10">
         <f t="shared" si="1"/>
         <v>7500</v>
       </c>
-      <c r="O19" s="18">
+      <c r="O19" s="10">
         <f t="shared" ref="O19" si="29">P19*2</f>
         <v>3750</v>
       </c>
-      <c r="P19" s="28">
+      <c r="P19" s="19">
         <f t="shared" si="3"/>
         <v>1875</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="27">
         <v>104</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="27">
         <v>2</v>
       </c>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" s="36">
+      <c r="F20" s="27"/>
+      <c r="G20" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="27">
         <f>J20*50%</f>
         <v>25000</v>
       </c>
-      <c r="I20" s="36">
-        <v>0</v>
-      </c>
-      <c r="J20" s="16">
+      <c r="I20" s="27">
+        <v>0</v>
+      </c>
+      <c r="J20" s="8">
         <v>50000</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="8">
         <v>50</v>
       </c>
-      <c r="L20" s="18">
+      <c r="L20" s="10">
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
-      <c r="M20" s="18">
+      <c r="M20" s="10">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
-      <c r="N20" s="18">
+      <c r="N20" s="10">
         <f t="shared" si="1"/>
         <v>7500</v>
       </c>
-      <c r="O20" s="18">
+      <c r="O20" s="10">
         <f t="shared" ref="O20" si="30">P20*2</f>
         <v>3750</v>
       </c>
-      <c r="P20" s="28">
+      <c r="P20" s="19">
         <f t="shared" si="3"/>
         <v>1875</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="38" t="s">
+      <c r="B21" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="27">
         <v>104</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="27">
         <v>2</v>
       </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="36">
+      <c r="F21" s="27"/>
+      <c r="G21" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="27">
         <f>J21*50%</f>
         <v>25000</v>
       </c>
-      <c r="I21" s="36">
-        <v>0</v>
-      </c>
-      <c r="J21" s="16">
+      <c r="I21" s="27">
+        <v>0</v>
+      </c>
+      <c r="J21" s="8">
         <v>50000</v>
       </c>
-      <c r="K21" s="16">
+      <c r="K21" s="8">
         <v>50</v>
       </c>
-      <c r="L21" s="18">
+      <c r="L21" s="10">
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
-      <c r="M21" s="18">
+      <c r="M21" s="10">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
-      <c r="N21" s="18">
+      <c r="N21" s="10">
         <f t="shared" si="1"/>
         <v>7500</v>
       </c>
-      <c r="O21" s="18">
+      <c r="O21" s="10">
         <f t="shared" ref="O21" si="31">P21*2</f>
         <v>3750</v>
       </c>
-      <c r="P21" s="28">
+      <c r="P21" s="19">
         <f t="shared" si="3"/>
         <v>1875</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="27">
         <v>104</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="27">
         <v>2</v>
       </c>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="H22" s="36">
+      <c r="F22" s="27"/>
+      <c r="G22" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="27">
         <f>J22*50%</f>
         <v>25000</v>
       </c>
-      <c r="I22" s="36">
-        <v>0</v>
-      </c>
-      <c r="J22" s="16">
+      <c r="I22" s="27">
+        <v>0</v>
+      </c>
+      <c r="J22" s="8">
         <v>50000</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K22" s="8">
         <v>50</v>
       </c>
-      <c r="L22" s="18">
+      <c r="L22" s="10">
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
-      <c r="M22" s="18">
+      <c r="M22" s="10">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
-      <c r="N22" s="18">
+      <c r="N22" s="10">
         <f t="shared" si="1"/>
         <v>7500</v>
       </c>
-      <c r="O22" s="18">
+      <c r="O22" s="10">
         <f t="shared" ref="O22" si="32">P22*2</f>
         <v>3750</v>
       </c>
-      <c r="P22" s="28">
+      <c r="P22" s="19">
         <f t="shared" si="3"/>
         <v>1875</v>
       </c>

--- a/Offline/BusinessManagement/ProfitabilityV2.xlsx
+++ b/Offline/BusinessManagement/ProfitabilityV2.xlsx
@@ -8,27 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488AF6C7-2351-4A23-A8F8-D6DB3B49AC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64E2BFD-762F-43D1-B695-B354725CF47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Profitability" sheetId="14" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Profitability!$A$1:$P$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Profitability!$A$1:$P$23</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
   <si>
     <t>Maths</t>
   </si>
@@ -205,6 +214,12 @@
   </si>
   <si>
     <t>AI, IoT, Robotics - Board Syllabus</t>
+  </si>
+  <si>
+    <t>AWS Cloud,Dev Ops,Agile product engineering &amp; Live Project</t>
+  </si>
+  <si>
+    <t>Agile Product Management</t>
   </si>
 </sst>
 </file>
@@ -967,33 +982,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="10.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.59765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.9296875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="8.06640625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="36.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" style="12" customWidth="1"/>
     <col min="4" max="4" width="6" style="12" customWidth="1"/>
-    <col min="5" max="5" width="5.265625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="4.9296875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="5.21875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" style="12" customWidth="1"/>
     <col min="7" max="7" width="8.33203125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="6.19921875" style="12" customWidth="1"/>
-    <col min="9" max="9" width="4.53125" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.9296875" style="12" customWidth="1"/>
-    <col min="11" max="11" width="5.19921875" style="12" customWidth="1"/>
-    <col min="12" max="16" width="6.265625" style="12" customWidth="1"/>
-    <col min="17" max="16384" width="10.796875" style="12"/>
+    <col min="8" max="8" width="6.21875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="4.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.88671875" style="12" customWidth="1"/>
+    <col min="11" max="11" width="5.21875" style="12" customWidth="1"/>
+    <col min="12" max="16" width="6.21875" style="12" customWidth="1"/>
+    <col min="17" max="16384" width="10.77734375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>2</v>
       </c>
@@ -1035,7 +1050,7 @@
       <c r="O1" s="30"/>
       <c r="P1" s="31"/>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="32.65" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A2" s="37"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -1063,7 +1078,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>46</v>
       </c>
@@ -1120,7 +1135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="21.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
@@ -1157,7 +1172,7 @@
         <v>100</v>
       </c>
       <c r="L4" s="10">
-        <f t="shared" ref="L4:N22" si="1">M4*2</f>
+        <f t="shared" ref="L4:N23" si="1">M4*2</f>
         <v>0</v>
       </c>
       <c r="M4" s="11">
@@ -1173,11 +1188,11 @@
         <v>0</v>
       </c>
       <c r="P4" s="11">
-        <f t="shared" ref="P4:P22" si="3">IF(G4="Once",H4*90%,(IF(G4="Half-Yearly",(H4*90%)/6,(IF(G4="Yearly",(H4*90%)/12,"Formula Error")))))</f>
+        <f t="shared" ref="P4:P23" si="3">IF(G4="Once",H4*90%,(IF(G4="Half-Yearly",(H4*90%)/6,(IF(G4="Yearly",(H4*90%)/12,"Formula Error")))))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="21.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
@@ -1234,7 +1249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1291,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>22</v>
       </c>
@@ -1314,11 +1329,11 @@
         <v>14</v>
       </c>
       <c r="H7" s="7">
-        <f t="shared" ref="H7:H14" si="7">J7*50%</f>
+        <f t="shared" ref="H7:H15" si="7">J7*50%</f>
         <v>6000</v>
       </c>
       <c r="I7" s="7">
-        <f t="shared" ref="I7:I14" si="8">H7*18%</f>
+        <f t="shared" ref="I7:I15" si="8">H7*18%</f>
         <v>1080</v>
       </c>
       <c r="J7" s="8">
@@ -1348,7 +1363,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>32</v>
       </c>
@@ -1405,7 +1420,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>54</v>
       </c>
@@ -1416,7 +1431,7 @@
         <v>34</v>
       </c>
       <c r="D9" s="7">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E9" s="7">
         <v>1</v>
@@ -1462,7 +1477,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>47</v>
       </c>
@@ -1473,7 +1488,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="7">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E10" s="7">
         <v>1</v>
@@ -1519,7 +1534,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>48</v>
       </c>
@@ -1530,7 +1545,7 @@
         <v>34</v>
       </c>
       <c r="D11" s="7">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E11" s="7">
         <v>1</v>
@@ -1576,67 +1591,69 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A12" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>13</v>
+    <row r="12" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="7">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E12" s="7">
-        <v>2</v>
-      </c>
-      <c r="F12" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
       <c r="G12" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="7">
-        <f t="shared" si="7"/>
-        <v>3000</v>
+        <f t="shared" ref="H12" si="13">J12*50%</f>
+        <v>10000</v>
       </c>
       <c r="I12" s="7">
-        <f t="shared" si="8"/>
-        <v>540</v>
+        <f t="shared" ref="I12" si="14">H12*18%</f>
+        <v>1800</v>
       </c>
       <c r="J12" s="8">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="K12" s="9">
         <v>50</v>
       </c>
       <c r="L12" s="10">
-        <f t="shared" si="1"/>
-        <v>43200</v>
+        <f t="shared" ref="L12" si="15">M12*2</f>
+        <v>144000</v>
       </c>
       <c r="M12" s="11">
-        <f t="shared" si="1"/>
-        <v>21600</v>
+        <f t="shared" ref="M12" si="16">N12*2</f>
+        <v>72000</v>
       </c>
       <c r="N12" s="11">
-        <f t="shared" si="1"/>
-        <v>10800</v>
+        <f t="shared" ref="N12" si="17">O12*2</f>
+        <v>36000</v>
       </c>
       <c r="O12" s="11">
-        <f t="shared" ref="O12" si="13">P12*2</f>
-        <v>5400</v>
+        <f t="shared" ref="O12" si="18">P12*2</f>
+        <v>18000</v>
       </c>
       <c r="P12" s="11">
-        <f t="shared" si="3"/>
-        <v>2700</v>
+        <f t="shared" ref="P12" si="19">IF(G12="Once",H12*90%,(IF(G12="Half-Yearly",(H12*90%)/6,(IF(G12="Yearly",(H12*90%)/12,"Formula Error")))))</f>
+        <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>35</v>
@@ -1678,7 +1695,7 @@
         <v>10800</v>
       </c>
       <c r="O13" s="11">
-        <f t="shared" ref="O13" si="14">P13*2</f>
+        <f t="shared" ref="O13" si="20">P13*2</f>
         <v>5400</v>
       </c>
       <c r="P13" s="11">
@@ -1686,231 +1703,235 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="7">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="E14" s="7">
         <v>2</v>
       </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
+      <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H14" s="7">
         <f t="shared" si="7"/>
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="I14" s="7">
         <f t="shared" si="8"/>
-        <v>1080</v>
+        <v>540</v>
       </c>
       <c r="J14" s="8">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="K14" s="9">
         <v>50</v>
       </c>
       <c r="L14" s="10">
         <f t="shared" si="1"/>
-        <v>14400</v>
+        <v>43200</v>
       </c>
       <c r="M14" s="11">
         <f t="shared" si="1"/>
-        <v>7200</v>
+        <v>21600</v>
       </c>
       <c r="N14" s="11">
         <f t="shared" si="1"/>
-        <v>3600</v>
+        <v>10800</v>
       </c>
       <c r="O14" s="11">
-        <f t="shared" ref="O14" si="15">P14*2</f>
-        <v>1800</v>
+        <f t="shared" ref="O14" si="21">P14*2</f>
+        <v>5400</v>
       </c>
       <c r="P14" s="11">
         <f t="shared" si="3"/>
-        <v>900</v>
+        <v>2700</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A15" s="18" t="s">
-        <v>27</v>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D15" s="7">
         <v>52</v>
       </c>
       <c r="E15" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="7">
+        <f t="shared" si="7"/>
+        <v>6000</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="8"/>
+        <v>1080</v>
+      </c>
+      <c r="J15" s="8">
         <v>12000</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="8">
-        <v>18000</v>
       </c>
       <c r="K15" s="9">
         <v>50</v>
       </c>
       <c r="L15" s="10">
         <f t="shared" si="1"/>
-        <v>28800</v>
+        <v>14400</v>
       </c>
       <c r="M15" s="11">
         <f t="shared" si="1"/>
-        <v>14400</v>
+        <v>7200</v>
       </c>
       <c r="N15" s="11">
         <f t="shared" si="1"/>
-        <v>7200</v>
+        <v>3600</v>
       </c>
       <c r="O15" s="11">
-        <f t="shared" ref="O15" si="16">P15*2</f>
-        <v>3600</v>
+        <f t="shared" ref="O15" si="22">P15*2</f>
+        <v>1800</v>
       </c>
       <c r="P15" s="11">
         <f t="shared" si="3"/>
-        <v>1800</v>
+        <v>900</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="11.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="20" t="s">
-        <v>26</v>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="7">
         <v>52</v>
       </c>
-      <c r="E16" s="22">
-        <v>1</v>
-      </c>
-      <c r="F16" s="22">
-        <v>1</v>
-      </c>
-      <c r="G16" s="22" t="s">
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="22">
-        <v>9000</v>
-      </c>
-      <c r="I16" s="22">
-        <v>0</v>
-      </c>
-      <c r="J16" s="23">
-        <v>24000</v>
-      </c>
-      <c r="K16" s="24">
+      <c r="H16" s="7">
+        <v>12000</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8">
+        <v>18000</v>
+      </c>
+      <c r="K16" s="9">
         <v>50</v>
       </c>
       <c r="L16" s="10">
         <f t="shared" si="1"/>
-        <v>21600</v>
+        <v>28800</v>
       </c>
       <c r="M16" s="11">
         <f t="shared" si="1"/>
-        <v>10800</v>
+        <v>14400</v>
       </c>
       <c r="N16" s="11">
         <f t="shared" si="1"/>
-        <v>5400</v>
+        <v>7200</v>
       </c>
       <c r="O16" s="11">
-        <f t="shared" ref="O16" si="17">P16*2</f>
-        <v>2700</v>
+        <f t="shared" ref="O16" si="23">P16*2</f>
+        <v>3600</v>
       </c>
       <c r="P16" s="11">
         <f t="shared" si="3"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="10.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="22">
+        <v>52</v>
+      </c>
+      <c r="E17" s="22">
+        <v>1</v>
+      </c>
+      <c r="F17" s="22">
+        <v>1</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="22">
+        <v>9000</v>
+      </c>
+      <c r="I17" s="22">
+        <v>0</v>
+      </c>
+      <c r="J17" s="23">
+        <v>24000</v>
+      </c>
+      <c r="K17" s="24">
+        <v>50</v>
+      </c>
+      <c r="L17" s="10">
+        <f t="shared" si="1"/>
+        <v>21600</v>
+      </c>
+      <c r="M17" s="11">
+        <f t="shared" si="1"/>
+        <v>10800</v>
+      </c>
+      <c r="N17" s="11">
+        <f t="shared" si="1"/>
+        <v>5400</v>
+      </c>
+      <c r="O17" s="11">
+        <f t="shared" ref="O17" si="24">P17*2</f>
+        <v>2700</v>
+      </c>
+      <c r="P17" s="11">
+        <f t="shared" si="3"/>
         <v>1350</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A17" s="25" t="str">
-        <f>"XI - XII - All Boards - " &amp; B17</f>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="25" t="str">
+        <f>"XI - XII - All Boards - " &amp; B18</f>
         <v>XI - XII - All Boards - All Other Subjects</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B18" s="26" t="s">
         <v>52</v>
-      </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27">
-        <v>52</v>
-      </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="27">
-        <f t="shared" ref="H17" si="18">J17*50%</f>
-        <v>36000</v>
-      </c>
-      <c r="I17" s="27">
-        <v>0</v>
-      </c>
-      <c r="J17" s="8">
-        <v>72000</v>
-      </c>
-      <c r="K17" s="8">
-        <v>51</v>
-      </c>
-      <c r="L17" s="10">
-        <f t="shared" ref="L17" si="19">M17*2</f>
-        <v>86400</v>
-      </c>
-      <c r="M17" s="10">
-        <f t="shared" ref="M17" si="20">N17*2</f>
-        <v>43200</v>
-      </c>
-      <c r="N17" s="10">
-        <f t="shared" ref="N17" si="21">O17*2</f>
-        <v>21600</v>
-      </c>
-      <c r="O17" s="10">
-        <f t="shared" ref="O17" si="22">P17*2</f>
-        <v>10800</v>
-      </c>
-      <c r="P17" s="19">
-        <f>IF(G17="Once",H17*90%,(IF(G17="Half-Yearly",(H17*90%)/6,(IF(G17="Yearly",(H17*90%)/12,"Formula Error")))))</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A18" s="25" t="str">
-        <f>"VIII - X - All Boards - " &amp; B18</f>
-        <v>VIII - X - All Boards - All  Other Subjects</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>53</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="27">
@@ -1922,99 +1943,96 @@
         <v>31</v>
       </c>
       <c r="H18" s="27">
-        <f t="shared" ref="H18" si="23">J18*50%</f>
-        <v>30000</v>
+        <f t="shared" ref="H18" si="25">J18*50%</f>
+        <v>36000</v>
       </c>
       <c r="I18" s="27">
         <v>0</v>
       </c>
       <c r="J18" s="8">
-        <v>60000</v>
+        <v>72000</v>
       </c>
       <c r="K18" s="8">
         <v>51</v>
       </c>
       <c r="L18" s="10">
-        <f t="shared" ref="L18" si="24">M18*2</f>
-        <v>72000</v>
+        <f t="shared" ref="L18" si="26">M18*2</f>
+        <v>86400</v>
       </c>
       <c r="M18" s="10">
-        <f t="shared" ref="M18" si="25">N18*2</f>
-        <v>36000</v>
+        <f t="shared" ref="M18" si="27">N18*2</f>
+        <v>43200</v>
       </c>
       <c r="N18" s="10">
-        <f t="shared" ref="N18" si="26">O18*2</f>
-        <v>18000</v>
+        <f t="shared" ref="N18" si="28">O18*2</f>
+        <v>21600</v>
       </c>
       <c r="O18" s="10">
-        <f t="shared" ref="O18" si="27">P18*2</f>
-        <v>9000</v>
+        <f t="shared" ref="O18" si="29">P18*2</f>
+        <v>10800</v>
       </c>
       <c r="P18" s="19">
-        <f t="shared" ref="P18" si="28">IF(G18="Once",H18*90%,(IF(G18="Half-Yearly",(H18*90%)/6,(IF(G18="Yearly",(H18*90%)/12,"Formula Error")))))</f>
-        <v>4500</v>
+        <f>IF(G18="Once",H18*90%,(IF(G18="Half-Yearly",(H18*90%)/6,(IF(G18="Yearly",(H18*90%)/12,"Formula Error")))))</f>
+        <v>5400</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A19" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>7</v>
-      </c>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="25" t="str">
+        <f>"VIII - X - All Boards - " &amp; B19</f>
+        <v>VIII - X - All Boards - All  Other Subjects</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="26"/>
       <c r="D19" s="27">
-        <v>104</v>
-      </c>
-      <c r="E19" s="27">
-        <v>2</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E19" s="27"/>
       <c r="F19" s="27"/>
       <c r="G19" s="27" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H19" s="27">
-        <f>J19*50%</f>
-        <v>25000</v>
+        <f t="shared" ref="H19" si="30">J19*50%</f>
+        <v>30000</v>
       </c>
       <c r="I19" s="27">
         <v>0</v>
       </c>
       <c r="J19" s="8">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="K19" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L19" s="10">
-        <f t="shared" si="1"/>
-        <v>30000</v>
+        <f t="shared" ref="L19" si="31">M19*2</f>
+        <v>72000</v>
       </c>
       <c r="M19" s="10">
-        <f t="shared" si="1"/>
-        <v>15000</v>
+        <f t="shared" ref="M19" si="32">N19*2</f>
+        <v>36000</v>
       </c>
       <c r="N19" s="10">
-        <f t="shared" si="1"/>
-        <v>7500</v>
+        <f t="shared" ref="N19" si="33">O19*2</f>
+        <v>18000</v>
       </c>
       <c r="O19" s="10">
-        <f t="shared" ref="O19" si="29">P19*2</f>
-        <v>3750</v>
+        <f t="shared" ref="O19" si="34">P19*2</f>
+        <v>9000</v>
       </c>
       <c r="P19" s="19">
-        <f t="shared" si="3"/>
-        <v>1875</v>
+        <f t="shared" ref="P19" si="35">IF(G19="Once",H19*90%,(IF(G19="Half-Yearly",(H19*90%)/6,(IF(G19="Yearly",(H19*90%)/12,"Formula Error")))))</f>
+        <v>4500</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="29" t="s">
         <v>7</v>
@@ -2055,7 +2073,7 @@
         <v>7500</v>
       </c>
       <c r="O20" s="10">
-        <f t="shared" ref="O20" si="30">P20*2</f>
+        <f t="shared" ref="O20" si="36">P20*2</f>
         <v>3750</v>
       </c>
       <c r="P20" s="19">
@@ -2063,15 +2081,15 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D21" s="27">
         <v>104</v>
@@ -2109,7 +2127,7 @@
         <v>7500</v>
       </c>
       <c r="O21" s="10">
-        <f t="shared" ref="O21" si="31">P21*2</f>
+        <f t="shared" ref="O21" si="37">P21*2</f>
         <v>3750</v>
       </c>
       <c r="P21" s="19">
@@ -2117,15 +2135,15 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D22" s="27">
         <v>104</v>
@@ -2163,7 +2181,7 @@
         <v>7500</v>
       </c>
       <c r="O22" s="10">
-        <f t="shared" ref="O22" si="32">P22*2</f>
+        <f t="shared" ref="O22" si="38">P22*2</f>
         <v>3750</v>
       </c>
       <c r="P22" s="19">
@@ -2171,8 +2189,62 @@
         <v>1875</v>
       </c>
     </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="27">
+        <v>104</v>
+      </c>
+      <c r="E23" s="27">
+        <v>2</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="27">
+        <f>J23*50%</f>
+        <v>25000</v>
+      </c>
+      <c r="I23" s="27">
+        <v>0</v>
+      </c>
+      <c r="J23" s="8">
+        <v>50000</v>
+      </c>
+      <c r="K23" s="8">
+        <v>50</v>
+      </c>
+      <c r="L23" s="10">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+      <c r="M23" s="10">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
+      <c r="N23" s="10">
+        <f t="shared" si="1"/>
+        <v>7500</v>
+      </c>
+      <c r="O23" s="10">
+        <f t="shared" ref="O23" si="39">P23*2</f>
+        <v>3750</v>
+      </c>
+      <c r="P23" s="19">
+        <f t="shared" si="3"/>
+        <v>1875</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:P22" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:P23" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="11" showButton="0"/>
     <filterColumn colId="12" showButton="0"/>
     <filterColumn colId="13" showButton="0"/>

--- a/Offline/BusinessManagement/ProfitabilityV2.xlsx
+++ b/Offline/BusinessManagement/ProfitabilityV2.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64E2BFD-762F-43D1-B695-B354725CF47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052BB64D-9BCF-4A1B-A5F6-C447C86BEB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Profitability" sheetId="14" r:id="rId1"/>
+    <sheet name="Tech" sheetId="14" r:id="rId1"/>
+    <sheet name="Non-Tech" sheetId="15" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Profitability!$A$1:$P$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tech!$A$1:$P$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="62">
   <si>
     <t>Maths</t>
   </si>
@@ -105,18 +106,6 @@
     <t>Creative Writing, Public Speaking</t>
   </si>
   <si>
-    <t>ChatGPT, Generative AI &amp; Prompt Engineering</t>
-  </si>
-  <si>
-    <t>Data Science, Machine Learning</t>
-  </si>
-  <si>
-    <t>Deep Learning Application, ML Ops</t>
-  </si>
-  <si>
-    <t>AI/ML Live Project</t>
-  </si>
-  <si>
     <t>III - VIII - All Boards - AI, IoT</t>
   </si>
   <si>
@@ -135,12 +124,6 @@
     <t>Half-Yearly</t>
   </si>
   <si>
-    <t>Data Analytics - Python, Data Visualization, AI Basics</t>
-  </si>
-  <si>
-    <t>Internship - Live Project, Product Engg, Agile Proj Mgmt</t>
-  </si>
-  <si>
     <t>Debasish</t>
   </si>
   <si>
@@ -150,9 +133,6 @@
     <t>Course Length (Wks)</t>
   </si>
   <si>
-    <t>Machine/Deep Learning / Neural Network, Sequence Models (NLP, RNN), Computer Vision (CNN), TensorFlow</t>
-  </si>
-  <si>
     <t>Offer Price</t>
   </si>
   <si>
@@ -177,18 +157,6 @@
     <t>3 - 10 Students</t>
   </si>
   <si>
-    <t>Python for AI</t>
-  </si>
-  <si>
-    <t>UI: HTML, CSS, JavaScript, React, Material UI</t>
-  </si>
-  <si>
-    <t>Mobile Apps Development</t>
-  </si>
-  <si>
-    <t>ML Projects Org, Hyperparameters, TF (Deep Dive), PyTorch, Keras, ML-Ops &amp; Deployment, GAN, LLM, LLM-Ops</t>
-  </si>
-  <si>
     <t>Yearly</t>
   </si>
   <si>
@@ -201,25 +169,83 @@
     <t>All  Other Subjects</t>
   </si>
   <si>
-    <t>Full Stack Java: Advanced Java &amp; MySQL</t>
-  </si>
-  <si>
-    <t>Full Stack Advanced Java</t>
-  </si>
-  <si>
-    <t>Full Stack (HTML, CSS, JavaScript, React, Material UI)</t>
-  </si>
-  <si>
-    <t>Full Stack (React Native (Android, IOS))</t>
-  </si>
-  <si>
     <t>AI, IoT, Robotics - Board Syllabus</t>
   </si>
   <si>
-    <t>AWS Cloud,Dev Ops,Agile product engineering &amp; Live Project</t>
-  </si>
-  <si>
-    <t>Agile Product Management</t>
+    <t>Web Developer</t>
+  </si>
+  <si>
+    <t>Mobile Developer</t>
+  </si>
+  <si>
+    <t>Data Analysis Engineer</t>
+  </si>
+  <si>
+    <t>AI Intro, Python, Maths,  Stats
+Data Analysis: numpy &amp; pandas
+Visualization: matplotlib</t>
+  </si>
+  <si>
+    <t>Gen AI &amp; Prompt Engineer</t>
+  </si>
+  <si>
+    <t>LLM – ChatGPT / LLAMA
+LangChain &amp; Semantic Search
+Prompt Engineering</t>
+  </si>
+  <si>
+    <t>Data Science Specialist</t>
+  </si>
+  <si>
+    <t>Neural Network
+TensorFlow, Keras
+Deep Learning
+Computer Vision
+NLP</t>
+  </si>
+  <si>
+    <t>Machine Learning Engineer</t>
+  </si>
+  <si>
+    <t>Project Org, Hyperparameters
+ML Ops: TF Data &amp; Deployment
+GAN, LLM
+AWS Cloud &amp; Sagemaker</t>
+  </si>
+  <si>
+    <t>AI Specialist</t>
+  </si>
+  <si>
+    <t>Live Project
+Product Engineering
+Agile Project Management</t>
+  </si>
+  <si>
+    <t>HTML5, CSS, JavaScript
+React JS
+Material UI</t>
+  </si>
+  <si>
+    <t>Java Programmer</t>
+  </si>
+  <si>
+    <t>Core Java
+Advanced Java (Spring Boot)
+MySQL
+Firebase</t>
+  </si>
+  <si>
+    <t>React Native (Android, IOS)
+Responsive Web Design</t>
+  </si>
+  <si>
+    <t>Full Stack Architect</t>
+  </si>
+  <si>
+    <t>AWS Cloud
+Dev Ops (Kubernetes)
+Agile Project Management
+Live Project</t>
   </si>
 </sst>
 </file>
@@ -262,7 +288,7 @@
       <name val="Oxygen"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,12 +310,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,12 +340,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,6 +391,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -582,39 +602,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -623,58 +643,52 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -693,6 +707,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -982,13 +999,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -1009,93 +1026,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="34" t="s">
+      <c r="A1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="34" t="s">
+      <c r="D1" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="34" t="s">
+      <c r="H1" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="31"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="29"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="33"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="31"/>
       <c r="L2" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E3" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>14</v>
@@ -1115,11 +1132,11 @@
         <v>100</v>
       </c>
       <c r="L3" s="10">
-        <f t="shared" ref="L3:M3" si="0">M3*2</f>
+        <f>M3*2</f>
         <v>0</v>
       </c>
       <c r="M3" s="11">
-        <f t="shared" si="0"/>
+        <f>N3*2</f>
         <v>0</v>
       </c>
       <c r="N3" s="11">
@@ -1135,24 +1152,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D4" s="7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>14</v>
@@ -1166,50 +1183,50 @@
         <v>0</v>
       </c>
       <c r="J4" s="8">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="K4" s="9">
         <v>100</v>
       </c>
       <c r="L4" s="10">
-        <f t="shared" ref="L4:N23" si="1">M4*2</f>
+        <f>M4*2</f>
         <v>0</v>
       </c>
       <c r="M4" s="11">
-        <f t="shared" si="1"/>
+        <f>N4*2</f>
         <v>0</v>
       </c>
       <c r="N4" s="11">
-        <f t="shared" si="1"/>
+        <f>O4*2</f>
         <v>0</v>
       </c>
       <c r="O4" s="11">
-        <f t="shared" ref="O4" si="2">P4*2</f>
+        <f>P4*2</f>
         <v>0</v>
       </c>
       <c r="P4" s="11">
-        <f t="shared" ref="P4:P23" si="3">IF(G4="Once",H4*90%,(IF(G4="Half-Yearly",(H4*90%)/6,(IF(G4="Yearly",(H4*90%)/12,"Formula Error")))))</f>
+        <f>IF(G4="Once",H4*90%,(IF(G4="Half-Yearly",(H4*90%)/6,(IF(G4="Yearly",(H4*90%)/12,"Formula Error")))))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="51" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>14</v>
@@ -1219,54 +1236,54 @@
         <v>0</v>
       </c>
       <c r="I5" s="7">
-        <f t="shared" ref="I5:I6" si="4">H5*18%</f>
+        <f>H5*18%</f>
         <v>0</v>
       </c>
       <c r="J5" s="8">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="K5" s="9">
         <v>100</v>
       </c>
       <c r="L5" s="10">
-        <f t="shared" si="1"/>
+        <f>M5*2</f>
         <v>0</v>
       </c>
       <c r="M5" s="11">
-        <f t="shared" si="1"/>
+        <f>N5*2</f>
         <v>0</v>
       </c>
       <c r="N5" s="11">
-        <f t="shared" si="1"/>
+        <f>O5*2</f>
         <v>0</v>
       </c>
       <c r="O5" s="11">
-        <f t="shared" ref="O5" si="5">P5*2</f>
+        <f>P5*2</f>
         <v>0</v>
       </c>
       <c r="P5" s="11">
-        <f t="shared" si="3"/>
+        <f>IF(G5="Once",H5*90%,(IF(G5="Half-Yearly",(H5*90%)/6,(IF(G5="Yearly",(H5*90%)/12,"Formula Error")))))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="7">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>14</v>
@@ -1276,178 +1293,178 @@
         <v>0</v>
       </c>
       <c r="I6" s="7">
-        <f t="shared" si="4"/>
+        <f>H6*18%</f>
         <v>0</v>
       </c>
       <c r="J6" s="8">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="K6" s="9">
         <v>100</v>
       </c>
       <c r="L6" s="10">
-        <f t="shared" si="1"/>
+        <f>M6*2</f>
         <v>0</v>
       </c>
       <c r="M6" s="11">
-        <f t="shared" si="1"/>
+        <f>N6*2</f>
         <v>0</v>
       </c>
       <c r="N6" s="11">
-        <f t="shared" si="1"/>
+        <f>O6*2</f>
         <v>0</v>
       </c>
       <c r="O6" s="11">
-        <f t="shared" ref="O6" si="6">P6*2</f>
+        <f>P6*2</f>
         <v>0</v>
       </c>
       <c r="P6" s="11">
-        <f t="shared" si="3"/>
+        <f>IF(G6="Once",H6*90%,(IF(G6="Half-Yearly",(H6*90%)/6,(IF(G6="Yearly",(H6*90%)/12,"Formula Error")))))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>22</v>
+    <row r="7" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="7">
-        <f t="shared" ref="H7:H15" si="7">J7*50%</f>
-        <v>6000</v>
+        <f>J7*0%</f>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <f t="shared" ref="I7:I15" si="8">H7*18%</f>
-        <v>1080</v>
+        <f>H7*18%</f>
+        <v>0</v>
       </c>
       <c r="J7" s="8">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="K7" s="9">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L7" s="10">
-        <f t="shared" si="1"/>
-        <v>86400</v>
+        <f>M7*2</f>
+        <v>0</v>
       </c>
       <c r="M7" s="11">
-        <f t="shared" si="1"/>
-        <v>43200</v>
+        <f>N7*2</f>
+        <v>0</v>
       </c>
       <c r="N7" s="11">
-        <f t="shared" si="1"/>
-        <v>21600</v>
+        <f>O7*2</f>
+        <v>0</v>
       </c>
       <c r="O7" s="11">
-        <f t="shared" ref="O7" si="9">P7*2</f>
-        <v>10800</v>
+        <f>P7*2</f>
+        <v>0</v>
       </c>
       <c r="P7" s="11">
-        <f t="shared" si="3"/>
-        <v>5400</v>
+        <f>IF(G7="Once",H7*90%,(IF(G7="Half-Yearly",(H7*90%)/6,(IF(G7="Yearly",(H7*90%)/12,"Formula Error")))))</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>32</v>
+        <v>44</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>56</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D8" s="7">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H8" s="7">
-        <f t="shared" si="7"/>
-        <v>6000</v>
+        <f>J8*50%</f>
+        <v>10000</v>
       </c>
       <c r="I8" s="7">
-        <f t="shared" si="8"/>
-        <v>1080</v>
+        <f>H8*18%</f>
+        <v>1800</v>
       </c>
       <c r="J8" s="8">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="K8" s="9">
         <v>50</v>
       </c>
       <c r="L8" s="10">
-        <f t="shared" si="1"/>
-        <v>86400</v>
+        <f>M8*2</f>
+        <v>144000</v>
       </c>
       <c r="M8" s="11">
-        <f t="shared" si="1"/>
-        <v>43200</v>
+        <f>N8*2</f>
+        <v>72000</v>
       </c>
       <c r="N8" s="11">
-        <f t="shared" si="1"/>
-        <v>21600</v>
+        <f>O8*2</f>
+        <v>36000</v>
       </c>
       <c r="O8" s="11">
-        <f t="shared" ref="O8" si="10">P8*2</f>
-        <v>10800</v>
+        <f>P8*2</f>
+        <v>18000</v>
       </c>
       <c r="P8" s="11">
-        <f t="shared" si="3"/>
-        <v>5400</v>
+        <f>IF(G8="Once",H8*90%,(IF(G8="Half-Yearly",(H8*90%)/6,(IF(G8="Yearly",(H8*90%)/12,"Formula Error")))))</f>
+        <v>9000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>55</v>
+    <row r="9" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>58</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D9" s="7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="7">
-        <f t="shared" si="7"/>
+        <f>J9*50%</f>
         <v>10000</v>
       </c>
       <c r="I9" s="7">
-        <f t="shared" si="8"/>
+        <f>H9*18%</f>
         <v>1800</v>
       </c>
       <c r="J9" s="8">
@@ -1457,54 +1474,54 @@
         <v>50</v>
       </c>
       <c r="L9" s="10">
-        <f t="shared" si="1"/>
+        <f>M9*2</f>
         <v>144000</v>
       </c>
       <c r="M9" s="11">
-        <f t="shared" si="1"/>
+        <f>N9*2</f>
         <v>72000</v>
       </c>
       <c r="N9" s="11">
-        <f t="shared" si="1"/>
+        <f>O9*2</f>
         <v>36000</v>
       </c>
       <c r="O9" s="11">
-        <f t="shared" ref="O9" si="11">P9*2</f>
+        <f>P9*2</f>
         <v>18000</v>
       </c>
       <c r="P9" s="11">
-        <f t="shared" si="3"/>
+        <f>IF(G9="Once",H9*90%,(IF(G9="Half-Yearly",(H9*90%)/6,(IF(G9="Yearly",(H9*90%)/12,"Formula Error")))))</f>
         <v>9000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>56</v>
+    <row r="10" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>59</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H10" s="7">
-        <f t="shared" si="7"/>
+        <f>J10*50%</f>
         <v>10000</v>
       </c>
       <c r="I10" s="7">
-        <f t="shared" si="8"/>
+        <f>H10*18%</f>
         <v>1800</v>
       </c>
       <c r="J10" s="8">
@@ -1514,737 +1531,85 @@
         <v>50</v>
       </c>
       <c r="L10" s="10">
-        <f t="shared" si="1"/>
+        <f>M10*2</f>
         <v>144000</v>
       </c>
       <c r="M10" s="11">
-        <f t="shared" si="1"/>
+        <f>N10*2</f>
         <v>72000</v>
       </c>
       <c r="N10" s="11">
-        <f t="shared" si="1"/>
+        <f>O10*2</f>
         <v>36000</v>
       </c>
       <c r="O10" s="11">
-        <f t="shared" ref="O10:O11" si="12">P10*2</f>
+        <f>P10*2</f>
         <v>18000</v>
       </c>
       <c r="P10" s="11">
-        <f t="shared" si="3"/>
+        <f>IF(G10="Once",H10*90%,(IF(G10="Half-Yearly",(H10*90%)/6,(IF(G10="Yearly",(H10*90%)/12,"Formula Error")))))</f>
         <v>9000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>57</v>
+    <row r="11" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>61</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D11" s="7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="7">
-        <f t="shared" si="7"/>
-        <v>10000</v>
+        <f>J11*50%</f>
+        <v>20000</v>
       </c>
       <c r="I11" s="7">
-        <f t="shared" si="8"/>
-        <v>1800</v>
+        <f>H11*18%</f>
+        <v>3600</v>
       </c>
       <c r="J11" s="8">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="K11" s="9">
         <v>50</v>
       </c>
       <c r="L11" s="10">
-        <f t="shared" si="1"/>
+        <f>M11*2</f>
+        <v>288000</v>
+      </c>
+      <c r="M11" s="11">
+        <f>N11*2</f>
         <v>144000</v>
       </c>
-      <c r="M11" s="11">
-        <f t="shared" si="1"/>
+      <c r="N11" s="11">
+        <f>O11*2</f>
         <v>72000</v>
       </c>
-      <c r="N11" s="11">
-        <f t="shared" si="1"/>
+      <c r="O11" s="11">
+        <f>P11*2</f>
         <v>36000</v>
       </c>
-      <c r="O11" s="11">
-        <f t="shared" si="12"/>
+      <c r="P11" s="11">
+        <f>IF(G11="Once",H11*90%,(IF(G11="Half-Yearly",(H11*90%)/6,(IF(G11="Yearly",(H11*90%)/12,"Formula Error")))))</f>
         <v>18000</v>
-      </c>
-      <c r="P11" s="11">
-        <f t="shared" si="3"/>
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="7">
-        <v>24</v>
-      </c>
-      <c r="E12" s="7">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7">
-        <v>1</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="7">
-        <f t="shared" ref="H12" si="13">J12*50%</f>
-        <v>10000</v>
-      </c>
-      <c r="I12" s="7">
-        <f t="shared" ref="I12" si="14">H12*18%</f>
-        <v>1800</v>
-      </c>
-      <c r="J12" s="8">
-        <v>20000</v>
-      </c>
-      <c r="K12" s="9">
-        <v>50</v>
-      </c>
-      <c r="L12" s="10">
-        <f t="shared" ref="L12" si="15">M12*2</f>
-        <v>144000</v>
-      </c>
-      <c r="M12" s="11">
-        <f t="shared" ref="M12" si="16">N12*2</f>
-        <v>72000</v>
-      </c>
-      <c r="N12" s="11">
-        <f t="shared" ref="N12" si="17">O12*2</f>
-        <v>36000</v>
-      </c>
-      <c r="O12" s="11">
-        <f t="shared" ref="O12" si="18">P12*2</f>
-        <v>18000</v>
-      </c>
-      <c r="P12" s="11">
-        <f t="shared" ref="P12" si="19">IF(G12="Once",H12*90%,(IF(G12="Half-Yearly",(H12*90%)/6,(IF(G12="Yearly",(H12*90%)/12,"Formula Error")))))</f>
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="7">
-        <v>12</v>
-      </c>
-      <c r="E13" s="7">
-        <v>2</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="7">
-        <f t="shared" si="7"/>
-        <v>3000</v>
-      </c>
-      <c r="I13" s="7">
-        <f t="shared" si="8"/>
-        <v>540</v>
-      </c>
-      <c r="J13" s="8">
-        <v>6000</v>
-      </c>
-      <c r="K13" s="9">
-        <v>50</v>
-      </c>
-      <c r="L13" s="10">
-        <f t="shared" si="1"/>
-        <v>43200</v>
-      </c>
-      <c r="M13" s="11">
-        <f t="shared" si="1"/>
-        <v>21600</v>
-      </c>
-      <c r="N13" s="11">
-        <f t="shared" si="1"/>
-        <v>10800</v>
-      </c>
-      <c r="O13" s="11">
-        <f t="shared" ref="O13" si="20">P13*2</f>
-        <v>5400</v>
-      </c>
-      <c r="P13" s="11">
-        <f t="shared" si="3"/>
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="7">
-        <v>12</v>
-      </c>
-      <c r="E14" s="7">
-        <v>2</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="7">
-        <f t="shared" si="7"/>
-        <v>3000</v>
-      </c>
-      <c r="I14" s="7">
-        <f t="shared" si="8"/>
-        <v>540</v>
-      </c>
-      <c r="J14" s="8">
-        <v>6000</v>
-      </c>
-      <c r="K14" s="9">
-        <v>50</v>
-      </c>
-      <c r="L14" s="10">
-        <f t="shared" si="1"/>
-        <v>43200</v>
-      </c>
-      <c r="M14" s="11">
-        <f t="shared" si="1"/>
-        <v>21600</v>
-      </c>
-      <c r="N14" s="11">
-        <f t="shared" si="1"/>
-        <v>10800</v>
-      </c>
-      <c r="O14" s="11">
-        <f t="shared" ref="O14" si="21">P14*2</f>
-        <v>5400</v>
-      </c>
-      <c r="P14" s="11">
-        <f t="shared" si="3"/>
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="7">
-        <v>52</v>
-      </c>
-      <c r="E15" s="7">
-        <v>2</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="7">
-        <f t="shared" si="7"/>
-        <v>6000</v>
-      </c>
-      <c r="I15" s="7">
-        <f t="shared" si="8"/>
-        <v>1080</v>
-      </c>
-      <c r="J15" s="8">
-        <v>12000</v>
-      </c>
-      <c r="K15" s="9">
-        <v>50</v>
-      </c>
-      <c r="L15" s="10">
-        <f t="shared" si="1"/>
-        <v>14400</v>
-      </c>
-      <c r="M15" s="11">
-        <f t="shared" si="1"/>
-        <v>7200</v>
-      </c>
-      <c r="N15" s="11">
-        <f t="shared" si="1"/>
-        <v>3600</v>
-      </c>
-      <c r="O15" s="11">
-        <f t="shared" ref="O15" si="22">P15*2</f>
-        <v>1800</v>
-      </c>
-      <c r="P15" s="11">
-        <f t="shared" si="3"/>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="7">
-        <v>52</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7">
-        <v>1</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="7">
-        <v>12000</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="8">
-        <v>18000</v>
-      </c>
-      <c r="K16" s="9">
-        <v>50</v>
-      </c>
-      <c r="L16" s="10">
-        <f t="shared" si="1"/>
-        <v>28800</v>
-      </c>
-      <c r="M16" s="11">
-        <f t="shared" si="1"/>
-        <v>14400</v>
-      </c>
-      <c r="N16" s="11">
-        <f t="shared" si="1"/>
-        <v>7200</v>
-      </c>
-      <c r="O16" s="11">
-        <f t="shared" ref="O16" si="23">P16*2</f>
-        <v>3600</v>
-      </c>
-      <c r="P16" s="11">
-        <f t="shared" si="3"/>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="10.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="22">
-        <v>52</v>
-      </c>
-      <c r="E17" s="22">
-        <v>1</v>
-      </c>
-      <c r="F17" s="22">
-        <v>1</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="22">
-        <v>9000</v>
-      </c>
-      <c r="I17" s="22">
-        <v>0</v>
-      </c>
-      <c r="J17" s="23">
-        <v>24000</v>
-      </c>
-      <c r="K17" s="24">
-        <v>50</v>
-      </c>
-      <c r="L17" s="10">
-        <f t="shared" si="1"/>
-        <v>21600</v>
-      </c>
-      <c r="M17" s="11">
-        <f t="shared" si="1"/>
-        <v>10800</v>
-      </c>
-      <c r="N17" s="11">
-        <f t="shared" si="1"/>
-        <v>5400</v>
-      </c>
-      <c r="O17" s="11">
-        <f t="shared" ref="O17" si="24">P17*2</f>
-        <v>2700</v>
-      </c>
-      <c r="P17" s="11">
-        <f t="shared" si="3"/>
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="str">
-        <f>"XI - XII - All Boards - " &amp; B18</f>
-        <v>XI - XII - All Boards - All Other Subjects</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27">
-        <v>52</v>
-      </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="27">
-        <f t="shared" ref="H18" si="25">J18*50%</f>
-        <v>36000</v>
-      </c>
-      <c r="I18" s="27">
-        <v>0</v>
-      </c>
-      <c r="J18" s="8">
-        <v>72000</v>
-      </c>
-      <c r="K18" s="8">
-        <v>51</v>
-      </c>
-      <c r="L18" s="10">
-        <f t="shared" ref="L18" si="26">M18*2</f>
-        <v>86400</v>
-      </c>
-      <c r="M18" s="10">
-        <f t="shared" ref="M18" si="27">N18*2</f>
-        <v>43200</v>
-      </c>
-      <c r="N18" s="10">
-        <f t="shared" ref="N18" si="28">O18*2</f>
-        <v>21600</v>
-      </c>
-      <c r="O18" s="10">
-        <f t="shared" ref="O18" si="29">P18*2</f>
-        <v>10800</v>
-      </c>
-      <c r="P18" s="19">
-        <f>IF(G18="Once",H18*90%,(IF(G18="Half-Yearly",(H18*90%)/6,(IF(G18="Yearly",(H18*90%)/12,"Formula Error")))))</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="str">
-        <f>"VIII - X - All Boards - " &amp; B19</f>
-        <v>VIII - X - All Boards - All  Other Subjects</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27">
-        <v>52</v>
-      </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="27">
-        <f t="shared" ref="H19" si="30">J19*50%</f>
-        <v>30000</v>
-      </c>
-      <c r="I19" s="27">
-        <v>0</v>
-      </c>
-      <c r="J19" s="8">
-        <v>60000</v>
-      </c>
-      <c r="K19" s="8">
-        <v>51</v>
-      </c>
-      <c r="L19" s="10">
-        <f t="shared" ref="L19" si="31">M19*2</f>
-        <v>72000</v>
-      </c>
-      <c r="M19" s="10">
-        <f t="shared" ref="M19" si="32">N19*2</f>
-        <v>36000</v>
-      </c>
-      <c r="N19" s="10">
-        <f t="shared" ref="N19" si="33">O19*2</f>
-        <v>18000</v>
-      </c>
-      <c r="O19" s="10">
-        <f t="shared" ref="O19" si="34">P19*2</f>
-        <v>9000</v>
-      </c>
-      <c r="P19" s="19">
-        <f t="shared" ref="P19" si="35">IF(G19="Once",H19*90%,(IF(G19="Half-Yearly",(H19*90%)/6,(IF(G19="Yearly",(H19*90%)/12,"Formula Error")))))</f>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="27">
-        <v>104</v>
-      </c>
-      <c r="E20" s="27">
-        <v>2</v>
-      </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" s="27">
-        <f>J20*50%</f>
-        <v>25000</v>
-      </c>
-      <c r="I20" s="27">
-        <v>0</v>
-      </c>
-      <c r="J20" s="8">
-        <v>50000</v>
-      </c>
-      <c r="K20" s="8">
-        <v>50</v>
-      </c>
-      <c r="L20" s="10">
-        <f t="shared" si="1"/>
-        <v>30000</v>
-      </c>
-      <c r="M20" s="10">
-        <f t="shared" si="1"/>
-        <v>15000</v>
-      </c>
-      <c r="N20" s="10">
-        <f t="shared" si="1"/>
-        <v>7500</v>
-      </c>
-      <c r="O20" s="10">
-        <f t="shared" ref="O20" si="36">P20*2</f>
-        <v>3750</v>
-      </c>
-      <c r="P20" s="19">
-        <f t="shared" si="3"/>
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="27">
-        <v>104</v>
-      </c>
-      <c r="E21" s="27">
-        <v>2</v>
-      </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" s="27">
-        <f>J21*50%</f>
-        <v>25000</v>
-      </c>
-      <c r="I21" s="27">
-        <v>0</v>
-      </c>
-      <c r="J21" s="8">
-        <v>50000</v>
-      </c>
-      <c r="K21" s="8">
-        <v>50</v>
-      </c>
-      <c r="L21" s="10">
-        <f t="shared" si="1"/>
-        <v>30000</v>
-      </c>
-      <c r="M21" s="10">
-        <f t="shared" si="1"/>
-        <v>15000</v>
-      </c>
-      <c r="N21" s="10">
-        <f t="shared" si="1"/>
-        <v>7500</v>
-      </c>
-      <c r="O21" s="10">
-        <f t="shared" ref="O21" si="37">P21*2</f>
-        <v>3750</v>
-      </c>
-      <c r="P21" s="19">
-        <f t="shared" si="3"/>
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="27">
-        <v>104</v>
-      </c>
-      <c r="E22" s="27">
-        <v>2</v>
-      </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="H22" s="27">
-        <f>J22*50%</f>
-        <v>25000</v>
-      </c>
-      <c r="I22" s="27">
-        <v>0</v>
-      </c>
-      <c r="J22" s="8">
-        <v>50000</v>
-      </c>
-      <c r="K22" s="8">
-        <v>50</v>
-      </c>
-      <c r="L22" s="10">
-        <f t="shared" si="1"/>
-        <v>30000</v>
-      </c>
-      <c r="M22" s="10">
-        <f t="shared" si="1"/>
-        <v>15000</v>
-      </c>
-      <c r="N22" s="10">
-        <f t="shared" si="1"/>
-        <v>7500</v>
-      </c>
-      <c r="O22" s="10">
-        <f t="shared" ref="O22" si="38">P22*2</f>
-        <v>3750</v>
-      </c>
-      <c r="P22" s="19">
-        <f t="shared" si="3"/>
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="27">
-        <v>104</v>
-      </c>
-      <c r="E23" s="27">
-        <v>2</v>
-      </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" s="27">
-        <f>J23*50%</f>
-        <v>25000</v>
-      </c>
-      <c r="I23" s="27">
-        <v>0</v>
-      </c>
-      <c r="J23" s="8">
-        <v>50000</v>
-      </c>
-      <c r="K23" s="8">
-        <v>50</v>
-      </c>
-      <c r="L23" s="10">
-        <f t="shared" si="1"/>
-        <v>30000</v>
-      </c>
-      <c r="M23" s="10">
-        <f t="shared" si="1"/>
-        <v>15000</v>
-      </c>
-      <c r="N23" s="10">
-        <f t="shared" si="1"/>
-        <v>7500</v>
-      </c>
-      <c r="O23" s="10">
-        <f t="shared" ref="O23" si="39">P23*2</f>
-        <v>3750</v>
-      </c>
-      <c r="P23" s="19">
-        <f t="shared" si="3"/>
-        <v>1875</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P23" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:P22" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="11" showButton="0"/>
     <filterColumn colId="12" showButton="0"/>
     <filterColumn colId="13" showButton="0"/>
@@ -2266,4 +1631,702 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBF4211-A825-4F1C-9EDA-3E14B2B6DEF7}">
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="29"/>
+    </row>
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="35"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="7">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="7">
+        <f>J3*50%</f>
+        <v>3000</v>
+      </c>
+      <c r="I3" s="7">
+        <f>H3*18%</f>
+        <v>540</v>
+      </c>
+      <c r="J3" s="8">
+        <v>6000</v>
+      </c>
+      <c r="K3" s="9">
+        <v>50</v>
+      </c>
+      <c r="L3" s="10">
+        <f>M3*2</f>
+        <v>43200</v>
+      </c>
+      <c r="M3" s="11">
+        <f>N3*2</f>
+        <v>21600</v>
+      </c>
+      <c r="N3" s="11">
+        <f>O3*2</f>
+        <v>10800</v>
+      </c>
+      <c r="O3" s="11">
+        <f>P3*2</f>
+        <v>5400</v>
+      </c>
+      <c r="P3" s="11">
+        <f>IF(G3="Once",H3*90%,(IF(G3="Half-Yearly",(H3*90%)/6,(IF(G3="Yearly",(H3*90%)/12,"Formula Error")))))</f>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="7">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="7">
+        <f>J4*50%</f>
+        <v>3000</v>
+      </c>
+      <c r="I4" s="7">
+        <f>H4*18%</f>
+        <v>540</v>
+      </c>
+      <c r="J4" s="8">
+        <v>6000</v>
+      </c>
+      <c r="K4" s="9">
+        <v>50</v>
+      </c>
+      <c r="L4" s="10">
+        <f>M4*2</f>
+        <v>43200</v>
+      </c>
+      <c r="M4" s="11">
+        <f>N4*2</f>
+        <v>21600</v>
+      </c>
+      <c r="N4" s="11">
+        <f>O4*2</f>
+        <v>10800</v>
+      </c>
+      <c r="O4" s="11">
+        <f>P4*2</f>
+        <v>5400</v>
+      </c>
+      <c r="P4" s="11">
+        <f>IF(G4="Once",H4*90%,(IF(G4="Half-Yearly",(H4*90%)/6,(IF(G4="Yearly",(H4*90%)/12,"Formula Error")))))</f>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="7">
+        <v>52</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="7">
+        <f>J5*50%</f>
+        <v>6000</v>
+      </c>
+      <c r="I5" s="7">
+        <f>H5*18%</f>
+        <v>1080</v>
+      </c>
+      <c r="J5" s="8">
+        <v>12000</v>
+      </c>
+      <c r="K5" s="9">
+        <v>50</v>
+      </c>
+      <c r="L5" s="10">
+        <f>M5*2</f>
+        <v>14400</v>
+      </c>
+      <c r="M5" s="11">
+        <f>N5*2</f>
+        <v>7200</v>
+      </c>
+      <c r="N5" s="11">
+        <f>O5*2</f>
+        <v>3600</v>
+      </c>
+      <c r="O5" s="11">
+        <f>P5*2</f>
+        <v>1800</v>
+      </c>
+      <c r="P5" s="11">
+        <f>IF(G5="Once",H5*90%,(IF(G5="Half-Yearly",(H5*90%)/6,(IF(G5="Yearly",(H5*90%)/12,"Formula Error")))))</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="7">
+        <v>52</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="7">
+        <v>12000</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>18000</v>
+      </c>
+      <c r="K6" s="9">
+        <v>50</v>
+      </c>
+      <c r="L6" s="10">
+        <f>M6*2</f>
+        <v>28800</v>
+      </c>
+      <c r="M6" s="11">
+        <f>N6*2</f>
+        <v>14400</v>
+      </c>
+      <c r="N6" s="11">
+        <f>O6*2</f>
+        <v>7200</v>
+      </c>
+      <c r="O6" s="11">
+        <f>P6*2</f>
+        <v>3600</v>
+      </c>
+      <c r="P6" s="11">
+        <f>IF(G6="Once",H6*90%,(IF(G6="Half-Yearly",(H6*90%)/6,(IF(G6="Yearly",(H6*90%)/12,"Formula Error")))))</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="20">
+        <v>52</v>
+      </c>
+      <c r="E7" s="20">
+        <v>1</v>
+      </c>
+      <c r="F7" s="20">
+        <v>1</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="20">
+        <v>9000</v>
+      </c>
+      <c r="I7" s="20">
+        <v>0</v>
+      </c>
+      <c r="J7" s="21">
+        <v>24000</v>
+      </c>
+      <c r="K7" s="22">
+        <v>50</v>
+      </c>
+      <c r="L7" s="10">
+        <f>M7*2</f>
+        <v>21600</v>
+      </c>
+      <c r="M7" s="11">
+        <f>N7*2</f>
+        <v>10800</v>
+      </c>
+      <c r="N7" s="11">
+        <f>O7*2</f>
+        <v>5400</v>
+      </c>
+      <c r="O7" s="11">
+        <f>P7*2</f>
+        <v>2700</v>
+      </c>
+      <c r="P7" s="11">
+        <f>IF(G7="Once",H7*90%,(IF(G7="Half-Yearly",(H7*90%)/6,(IF(G7="Yearly",(H7*90%)/12,"Formula Error")))))</f>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="str">
+        <f>"XI - XII - All Boards - " &amp; B8</f>
+        <v>XI - XII - All Boards - All Other Subjects</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25">
+        <v>52</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="25">
+        <f>J8*50%</f>
+        <v>36000</v>
+      </c>
+      <c r="I8" s="25">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>72000</v>
+      </c>
+      <c r="K8" s="8">
+        <v>51</v>
+      </c>
+      <c r="L8" s="10">
+        <f>M8*2</f>
+        <v>86400</v>
+      </c>
+      <c r="M8" s="10">
+        <f>N8*2</f>
+        <v>43200</v>
+      </c>
+      <c r="N8" s="10">
+        <f>O8*2</f>
+        <v>21600</v>
+      </c>
+      <c r="O8" s="10">
+        <f>P8*2</f>
+        <v>10800</v>
+      </c>
+      <c r="P8" s="17">
+        <f>IF(G8="Once",H8*90%,(IF(G8="Half-Yearly",(H8*90%)/6,(IF(G8="Yearly",(H8*90%)/12,"Formula Error")))))</f>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="str">
+        <f>"VIII - X - All Boards - " &amp; B9</f>
+        <v>VIII - X - All Boards - All  Other Subjects</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25">
+        <v>52</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="25">
+        <f>J9*50%</f>
+        <v>30000</v>
+      </c>
+      <c r="I9" s="25">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>60000</v>
+      </c>
+      <c r="K9" s="8">
+        <v>51</v>
+      </c>
+      <c r="L9" s="10">
+        <f>M9*2</f>
+        <v>72000</v>
+      </c>
+      <c r="M9" s="10">
+        <f>N9*2</f>
+        <v>36000</v>
+      </c>
+      <c r="N9" s="10">
+        <f>O9*2</f>
+        <v>18000</v>
+      </c>
+      <c r="O9" s="10">
+        <f>P9*2</f>
+        <v>9000</v>
+      </c>
+      <c r="P9" s="17">
+        <f>IF(G9="Once",H9*90%,(IF(G9="Half-Yearly",(H9*90%)/6,(IF(G9="Yearly",(H9*90%)/12,"Formula Error")))))</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A10" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="25">
+        <v>104</v>
+      </c>
+      <c r="E10" s="25">
+        <v>2</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="25">
+        <f>J10*50%</f>
+        <v>25000</v>
+      </c>
+      <c r="I10" s="25">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
+        <v>50000</v>
+      </c>
+      <c r="K10" s="8">
+        <v>50</v>
+      </c>
+      <c r="L10" s="10">
+        <f>M10*2</f>
+        <v>30000</v>
+      </c>
+      <c r="M10" s="10">
+        <f>N10*2</f>
+        <v>15000</v>
+      </c>
+      <c r="N10" s="10">
+        <f>O10*2</f>
+        <v>7500</v>
+      </c>
+      <c r="O10" s="10">
+        <f>P10*2</f>
+        <v>3750</v>
+      </c>
+      <c r="P10" s="17">
+        <f>IF(G10="Once",H10*90%,(IF(G10="Half-Yearly",(H10*90%)/6,(IF(G10="Yearly",(H10*90%)/12,"Formula Error")))))</f>
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="25">
+        <v>104</v>
+      </c>
+      <c r="E11" s="25">
+        <v>2</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="25">
+        <f>J11*50%</f>
+        <v>25000</v>
+      </c>
+      <c r="I11" s="25">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>50000</v>
+      </c>
+      <c r="K11" s="8">
+        <v>50</v>
+      </c>
+      <c r="L11" s="10">
+        <f>M11*2</f>
+        <v>30000</v>
+      </c>
+      <c r="M11" s="10">
+        <f>N11*2</f>
+        <v>15000</v>
+      </c>
+      <c r="N11" s="10">
+        <f>O11*2</f>
+        <v>7500</v>
+      </c>
+      <c r="O11" s="10">
+        <f>P11*2</f>
+        <v>3750</v>
+      </c>
+      <c r="P11" s="17">
+        <f>IF(G11="Once",H11*90%,(IF(G11="Half-Yearly",(H11*90%)/6,(IF(G11="Yearly",(H11*90%)/12,"Formula Error")))))</f>
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="25">
+        <v>104</v>
+      </c>
+      <c r="E12" s="25">
+        <v>2</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="25">
+        <f>J12*50%</f>
+        <v>25000</v>
+      </c>
+      <c r="I12" s="25">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>50000</v>
+      </c>
+      <c r="K12" s="8">
+        <v>50</v>
+      </c>
+      <c r="L12" s="10">
+        <f>M12*2</f>
+        <v>30000</v>
+      </c>
+      <c r="M12" s="10">
+        <f>N12*2</f>
+        <v>15000</v>
+      </c>
+      <c r="N12" s="10">
+        <f>O12*2</f>
+        <v>7500</v>
+      </c>
+      <c r="O12" s="10">
+        <f>P12*2</f>
+        <v>3750</v>
+      </c>
+      <c r="P12" s="17">
+        <f>IF(G12="Once",H12*90%,(IF(G12="Half-Yearly",(H12*90%)/6,(IF(G12="Yearly",(H12*90%)/12,"Formula Error")))))</f>
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A13" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="25">
+        <v>104</v>
+      </c>
+      <c r="E13" s="25">
+        <v>2</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="25">
+        <f>J13*50%</f>
+        <v>25000</v>
+      </c>
+      <c r="I13" s="25">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8">
+        <v>50000</v>
+      </c>
+      <c r="K13" s="8">
+        <v>50</v>
+      </c>
+      <c r="L13" s="10">
+        <f>M13*2</f>
+        <v>30000</v>
+      </c>
+      <c r="M13" s="10">
+        <f>N13*2</f>
+        <v>15000</v>
+      </c>
+      <c r="N13" s="10">
+        <f>O13*2</f>
+        <v>7500</v>
+      </c>
+      <c r="O13" s="10">
+        <f>P13*2</f>
+        <v>3750</v>
+      </c>
+      <c r="P13" s="17">
+        <f>IF(G13="Once",H13*90%,(IF(G13="Half-Yearly",(H13*90%)/6,(IF(G13="Yearly",(H13*90%)/12,"Formula Error")))))</f>
+        <v>1875</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Offline/BusinessManagement/ProfitabilityV2.xlsx
+++ b/Offline/BusinessManagement/ProfitabilityV2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052BB64D-9BCF-4A1B-A5F6-C447C86BEB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731CB093-BCEC-4F0A-946A-D31976122BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tech" sheetId="14" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="61">
   <si>
     <t>Maths</t>
   </si>
@@ -122,12 +122,6 @@
   </si>
   <si>
     <t>Half-Yearly</t>
-  </si>
-  <si>
-    <t>Debasish</t>
-  </si>
-  <si>
-    <t>Rahul</t>
   </si>
   <si>
     <t>Course Length (Wks)</t>
@@ -247,12 +241,15 @@
 Agile Project Management
 Live Project</t>
   </si>
+  <si>
+    <t>Debashish</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,11 +271,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="0"/>
-      <name val="Oxygen"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color theme="1"/>
       <name val="Oxygen"/>
     </font>
@@ -288,48 +280,12 @@
       <name val="Oxygen"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -339,66 +295,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.34998626667073579"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8C52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -553,164 +479,137 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1001,394 +900,397 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:C3"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="6" style="12" customWidth="1"/>
-    <col min="5" max="5" width="5.21875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="4.88671875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="6.21875" style="12" customWidth="1"/>
-    <col min="9" max="9" width="4.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.88671875" style="12" customWidth="1"/>
-    <col min="11" max="11" width="5.21875" style="12" customWidth="1"/>
-    <col min="12" max="16" width="6.21875" style="12" customWidth="1"/>
-    <col min="17" max="16384" width="10.77734375" style="12"/>
+    <col min="1" max="1" width="19.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="32" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="32" t="s">
+      <c r="L1" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="21"/>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="29"/>
-    </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="3" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3">
+        <f>J3*0%</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I11" si="0">H3*18%</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K3" s="4">
+        <v>100</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" ref="L3:O11" si="1">M3*2</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <f t="shared" ref="P3:P11" si="2">IF(G3="Once",H3*90%,(IF(G3="Half-Yearly",(H3*90%)/6,(IF(G3="Yearly",(H3*90%)/12,"Formula Error")))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3">
+        <f>J4*0%</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K4" s="4">
+        <v>100</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="51" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7">
-        <v>13</v>
-      </c>
-      <c r="E3" s="7">
-        <v>2</v>
-      </c>
-      <c r="F3" s="7">
-        <v>2</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="D5" s="3">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="7">
-        <f>J3*0%</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <f>H3*18%</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="8">
-        <v>10000</v>
-      </c>
-      <c r="K3" s="9">
+      <c r="H5" s="3">
+        <f>J5*0%</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K5" s="4">
         <v>100</v>
       </c>
-      <c r="L3" s="10">
-        <f>M3*2</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="11">
-        <f>N3*2</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="11">
-        <f>O3*2</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="11">
-        <f>P3*2</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="11">
-        <f>IF(G3="Once",H3*90%,(IF(G3="Half-Yearly",(H3*90%)/6,(IF(G3="Yearly",(H3*90%)/12,"Formula Error")))))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="7">
-        <v>13</v>
-      </c>
-      <c r="E4" s="7">
-        <v>2</v>
-      </c>
-      <c r="F4" s="7">
-        <v>2</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="L5" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="7">
-        <f>J4*0%</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <f>H4*18%</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="8">
-        <v>10000</v>
-      </c>
-      <c r="K4" s="9">
+      <c r="H6" s="3">
+        <f>J6*0%</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K6" s="4">
         <v>100</v>
       </c>
-      <c r="L4" s="10">
-        <f>M4*2</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="11">
-        <f>N4*2</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="11">
-        <f>O4*2</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="11">
-        <f>P4*2</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="11">
-        <f>IF(G4="Once",H4*90%,(IF(G4="Half-Yearly",(H4*90%)/6,(IF(G4="Yearly",(H4*90%)/12,"Formula Error")))))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="51" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="L6" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D7" s="3">
         <v>26</v>
       </c>
-      <c r="E5" s="7">
-        <v>2</v>
-      </c>
-      <c r="F5" s="7">
-        <v>2</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="7">
-        <f>J5*0%</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <f>H5*18%</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="8">
+      <c r="H7" s="3">
+        <f>J7*0%</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
         <v>20000</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K7" s="4">
         <v>100</v>
       </c>
-      <c r="L5" s="10">
-        <f>M5*2</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="11">
-        <f>N5*2</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="11">
-        <f>O5*2</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="11">
-        <f>P5*2</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="11">
-        <f>IF(G5="Once",H5*90%,(IF(G5="Half-Yearly",(H5*90%)/6,(IF(G5="Yearly",(H5*90%)/12,"Formula Error")))))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="7">
-        <v>26</v>
-      </c>
-      <c r="E6" s="7">
-        <v>2</v>
-      </c>
-      <c r="F6" s="7">
-        <v>2</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="7">
-        <f>J6*0%</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <f>H6*18%</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
-        <v>20000</v>
-      </c>
-      <c r="K6" s="9">
-        <v>100</v>
-      </c>
-      <c r="L6" s="10">
-        <f>M6*2</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="11">
-        <f>N6*2</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="11">
-        <f>O6*2</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="11">
-        <f>P6*2</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="11">
-        <f>IF(G6="Once",H6*90%,(IF(G6="Half-Yearly",(H6*90%)/6,(IF(G6="Yearly",(H6*90%)/12,"Formula Error")))))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="L7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="7">
-        <v>26</v>
-      </c>
-      <c r="E7" s="7">
-        <v>2</v>
-      </c>
-      <c r="F7" s="7">
-        <v>2</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="7">
-        <f>J7*0%</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <f>H7*18%</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <v>20000</v>
-      </c>
-      <c r="K7" s="9">
-        <v>100</v>
-      </c>
-      <c r="L7" s="10">
-        <f>M7*2</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="11">
-        <f>N7*2</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="11">
-        <f>O7*2</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="11">
-        <f>P7*2</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="11">
-        <f>IF(G7="Once",H7*90%,(IF(G7="Half-Yearly",(H7*90%)/6,(IF(G7="Yearly",(H7*90%)/12,"Formula Error")))))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>28</v>
+      <c r="C8" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="D8" s="7">
         <v>26</v>
@@ -1407,45 +1309,45 @@
         <v>10000</v>
       </c>
       <c r="I8" s="7">
-        <f>H8*18%</f>
+        <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <v>20000</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="8">
         <v>50</v>
       </c>
-      <c r="L8" s="10">
-        <f>M8*2</f>
+      <c r="L8" s="9">
+        <f t="shared" si="1"/>
         <v>144000</v>
       </c>
-      <c r="M8" s="11">
-        <f>N8*2</f>
+      <c r="M8" s="10">
+        <f t="shared" si="1"/>
         <v>72000</v>
       </c>
-      <c r="N8" s="11">
-        <f>O8*2</f>
+      <c r="N8" s="10">
+        <f t="shared" si="1"/>
         <v>36000</v>
       </c>
-      <c r="O8" s="11">
-        <f>P8*2</f>
+      <c r="O8" s="10">
+        <f t="shared" si="1"/>
         <v>18000</v>
       </c>
-      <c r="P8" s="11">
-        <f>IF(G8="Once",H8*90%,(IF(G8="Half-Yearly",(H8*90%)/6,(IF(G8="Yearly",(H8*90%)/12,"Formula Error")))))</f>
+      <c r="P8" s="10">
+        <f t="shared" si="2"/>
         <v>9000</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>28</v>
+      <c r="A9" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="D9" s="7">
         <v>26</v>
@@ -1464,45 +1366,45 @@
         <v>10000</v>
       </c>
       <c r="I9" s="7">
-        <f>H9*18%</f>
+        <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <v>20000</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <v>50</v>
       </c>
-      <c r="L9" s="10">
-        <f>M9*2</f>
+      <c r="L9" s="9">
+        <f t="shared" si="1"/>
         <v>144000</v>
       </c>
-      <c r="M9" s="11">
-        <f>N9*2</f>
+      <c r="M9" s="10">
+        <f t="shared" si="1"/>
         <v>72000</v>
       </c>
-      <c r="N9" s="11">
-        <f>O9*2</f>
+      <c r="N9" s="10">
+        <f t="shared" si="1"/>
         <v>36000</v>
       </c>
-      <c r="O9" s="11">
-        <f>P9*2</f>
+      <c r="O9" s="10">
+        <f t="shared" si="1"/>
         <v>18000</v>
       </c>
-      <c r="P9" s="11">
-        <f>IF(G9="Once",H9*90%,(IF(G9="Half-Yearly",(H9*90%)/6,(IF(G9="Yearly",(H9*90%)/12,"Formula Error")))))</f>
+      <c r="P9" s="10">
+        <f t="shared" si="2"/>
         <v>9000</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>28</v>
+      <c r="A10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="D10" s="7">
         <v>26</v>
@@ -1521,45 +1423,45 @@
         <v>10000</v>
       </c>
       <c r="I10" s="7">
-        <f>H10*18%</f>
+        <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <v>20000</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="8">
         <v>50</v>
       </c>
-      <c r="L10" s="10">
-        <f>M10*2</f>
+      <c r="L10" s="9">
+        <f t="shared" si="1"/>
         <v>144000</v>
       </c>
-      <c r="M10" s="11">
-        <f>N10*2</f>
+      <c r="M10" s="10">
+        <f t="shared" si="1"/>
         <v>72000</v>
       </c>
-      <c r="N10" s="11">
-        <f>O10*2</f>
+      <c r="N10" s="10">
+        <f t="shared" si="1"/>
         <v>36000</v>
       </c>
-      <c r="O10" s="11">
-        <f>P10*2</f>
+      <c r="O10" s="10">
+        <f t="shared" si="1"/>
         <v>18000</v>
       </c>
-      <c r="P10" s="11">
-        <f>IF(G10="Once",H10*90%,(IF(G10="Half-Yearly",(H10*90%)/6,(IF(G10="Yearly",(H10*90%)/12,"Formula Error")))))</f>
+      <c r="P10" s="10">
+        <f t="shared" si="2"/>
         <v>9000</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="D11" s="7">
         <v>26</v>
@@ -1578,33 +1480,33 @@
         <v>20000</v>
       </c>
       <c r="I11" s="7">
-        <f>H11*18%</f>
+        <f t="shared" si="0"/>
         <v>3600</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <v>40000</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="8">
         <v>50</v>
       </c>
-      <c r="L11" s="10">
-        <f>M11*2</f>
+      <c r="L11" s="9">
+        <f t="shared" si="1"/>
         <v>288000</v>
       </c>
-      <c r="M11" s="11">
-        <f>N11*2</f>
+      <c r="M11" s="10">
+        <f t="shared" si="1"/>
         <v>144000</v>
       </c>
-      <c r="N11" s="11">
-        <f>O11*2</f>
+      <c r="N11" s="10">
+        <f t="shared" si="1"/>
         <v>72000</v>
       </c>
-      <c r="O11" s="11">
-        <f>P11*2</f>
+      <c r="O11" s="10">
+        <f t="shared" si="1"/>
         <v>36000</v>
       </c>
-      <c r="P11" s="11">
-        <f>IF(G11="Once",H11*90%,(IF(G11="Half-Yearly",(H11*90%)/6,(IF(G11="Yearly",(H11*90%)/12,"Formula Error")))))</f>
+      <c r="P11" s="10">
+        <f t="shared" si="2"/>
         <v>18000</v>
       </c>
     </row>
@@ -1637,688 +1539,677 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBF4211-A825-4F1C-9EDA-3E14B2B6DEF7}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="32" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="32" t="s">
+      <c r="L1" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="21"/>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="29"/>
-    </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30">
         <v>12</v>
       </c>
-      <c r="E3" s="7">
-        <v>2</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
+      <c r="E3" s="30">
+        <v>2</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="30">
         <f>J3*50%</f>
         <v>3000</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="30">
         <f>H3*18%</f>
         <v>540</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="30">
         <v>6000</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="30">
         <v>50</v>
       </c>
-      <c r="L3" s="10">
-        <f>M3*2</f>
+      <c r="L3" s="31">
+        <f t="shared" ref="L3:O13" si="0">M3*2</f>
         <v>43200</v>
       </c>
-      <c r="M3" s="11">
-        <f>N3*2</f>
+      <c r="M3" s="31">
+        <f t="shared" si="0"/>
         <v>21600</v>
       </c>
-      <c r="N3" s="11">
-        <f>O3*2</f>
+      <c r="N3" s="31">
+        <f t="shared" si="0"/>
         <v>10800</v>
       </c>
-      <c r="O3" s="11">
-        <f>P3*2</f>
+      <c r="O3" s="31">
+        <f t="shared" si="0"/>
         <v>5400</v>
       </c>
-      <c r="P3" s="11">
-        <f>IF(G3="Once",H3*90%,(IF(G3="Half-Yearly",(H3*90%)/6,(IF(G3="Yearly",(H3*90%)/12,"Formula Error")))))</f>
+      <c r="P3" s="31">
+        <f t="shared" ref="P3:P13" si="1">IF(G3="Once",H3*90%,(IF(G3="Half-Yearly",(H3*90%)/6,(IF(G3="Yearly",(H3*90%)/12,"Formula Error")))))</f>
         <v>2700</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A4" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="C4" s="30"/>
+      <c r="D4" s="30">
         <v>12</v>
       </c>
-      <c r="E4" s="7">
-        <v>2</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
+      <c r="E4" s="30">
+        <v>2</v>
+      </c>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="30">
         <f>J4*50%</f>
         <v>3000</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="30">
         <f>H4*18%</f>
         <v>540</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="30">
         <v>6000</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="30">
         <v>50</v>
       </c>
-      <c r="L4" s="10">
-        <f>M4*2</f>
+      <c r="L4" s="31">
+        <f t="shared" si="0"/>
         <v>43200</v>
       </c>
-      <c r="M4" s="11">
-        <f>N4*2</f>
+      <c r="M4" s="31">
+        <f t="shared" si="0"/>
         <v>21600</v>
       </c>
-      <c r="N4" s="11">
-        <f>O4*2</f>
+      <c r="N4" s="31">
+        <f t="shared" si="0"/>
         <v>10800</v>
       </c>
-      <c r="O4" s="11">
-        <f>P4*2</f>
+      <c r="O4" s="31">
+        <f t="shared" si="0"/>
         <v>5400</v>
       </c>
-      <c r="P4" s="11">
-        <f>IF(G4="Once",H4*90%,(IF(G4="Half-Yearly",(H4*90%)/6,(IF(G4="Yearly",(H4*90%)/12,"Formula Error")))))</f>
+      <c r="P4" s="31">
+        <f t="shared" si="1"/>
         <v>2700</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="61.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="C5" s="30"/>
+      <c r="D5" s="30">
         <v>52</v>
       </c>
-      <c r="E5" s="7">
-        <v>2</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="E5" s="30">
+        <v>2</v>
+      </c>
+      <c r="F5" s="30">
+        <v>0</v>
+      </c>
+      <c r="G5" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="30">
         <f>J5*50%</f>
         <v>6000</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="30">
         <f>H5*18%</f>
         <v>1080</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="30">
         <v>12000</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="30">
         <v>50</v>
       </c>
-      <c r="L5" s="10">
-        <f>M5*2</f>
+      <c r="L5" s="31">
+        <f t="shared" si="0"/>
         <v>14400</v>
       </c>
-      <c r="M5" s="11">
-        <f>N5*2</f>
+      <c r="M5" s="31">
+        <f t="shared" si="0"/>
         <v>7200</v>
       </c>
-      <c r="N5" s="11">
-        <f>O5*2</f>
+      <c r="N5" s="31">
+        <f t="shared" si="0"/>
         <v>3600</v>
       </c>
-      <c r="O5" s="11">
-        <f>P5*2</f>
+      <c r="O5" s="31">
+        <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="P5" s="11">
-        <f>IF(G5="Once",H5*90%,(IF(G5="Half-Yearly",(H5*90%)/6,(IF(G5="Yearly",(H5*90%)/12,"Formula Error")))))</f>
+      <c r="P5" s="31">
+        <f t="shared" si="1"/>
         <v>900</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="33">
         <v>52</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="33">
         <v>1</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="33">
         <v>1</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="33">
         <v>12000</v>
       </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
+      <c r="I6" s="33">
+        <v>0</v>
+      </c>
+      <c r="J6" s="33">
         <v>18000</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="33">
         <v>50</v>
       </c>
-      <c r="L6" s="10">
-        <f>M6*2</f>
+      <c r="L6" s="34">
+        <f t="shared" si="0"/>
         <v>28800</v>
       </c>
-      <c r="M6" s="11">
-        <f>N6*2</f>
+      <c r="M6" s="34">
+        <f t="shared" si="0"/>
         <v>14400</v>
       </c>
-      <c r="N6" s="11">
-        <f>O6*2</f>
+      <c r="N6" s="34">
+        <f t="shared" si="0"/>
         <v>7200</v>
       </c>
-      <c r="O6" s="11">
-        <f>P6*2</f>
+      <c r="O6" s="34">
+        <f t="shared" si="0"/>
         <v>3600</v>
       </c>
-      <c r="P6" s="11">
-        <f>IF(G6="Once",H6*90%,(IF(G6="Half-Yearly",(H6*90%)/6,(IF(G6="Yearly",(H6*90%)/12,"Formula Error")))))</f>
+      <c r="P6" s="34">
+        <f t="shared" si="1"/>
         <v>1800</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="33">
         <v>52</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="33">
         <v>1</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="33">
         <v>1</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="33">
         <v>9000</v>
       </c>
-      <c r="I7" s="20">
-        <v>0</v>
-      </c>
-      <c r="J7" s="21">
+      <c r="I7" s="33">
+        <v>0</v>
+      </c>
+      <c r="J7" s="33">
         <v>24000</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="33">
         <v>50</v>
       </c>
-      <c r="L7" s="10">
-        <f>M7*2</f>
+      <c r="L7" s="34">
+        <f t="shared" si="0"/>
         <v>21600</v>
       </c>
-      <c r="M7" s="11">
-        <f>N7*2</f>
+      <c r="M7" s="34">
+        <f t="shared" si="0"/>
         <v>10800</v>
       </c>
-      <c r="N7" s="11">
-        <f>O7*2</f>
+      <c r="N7" s="34">
+        <f t="shared" si="0"/>
         <v>5400</v>
       </c>
-      <c r="O7" s="11">
-        <f>P7*2</f>
+      <c r="O7" s="34">
+        <f t="shared" si="0"/>
         <v>2700</v>
       </c>
-      <c r="P7" s="11">
-        <f>IF(G7="Once",H7*90%,(IF(G7="Half-Yearly",(H7*90%)/6,(IF(G7="Yearly",(H7*90%)/12,"Formula Error")))))</f>
+      <c r="P7" s="34">
+        <f t="shared" si="1"/>
         <v>1350</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="str">
+    <row r="8" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="str">
         <f>"XI - XII - All Boards - " &amp; B8</f>
         <v>XI - XII - All Boards - All Other Subjects</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25">
+      <c r="B8" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36">
         <v>52</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25" t="s">
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="25">
-        <f>J8*50%</f>
+      <c r="H8" s="36">
+        <f t="shared" ref="H8:H13" si="2">J8*50%</f>
         <v>36000</v>
       </c>
-      <c r="I8" s="25">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8">
+      <c r="I8" s="36">
+        <v>0</v>
+      </c>
+      <c r="J8" s="36">
         <v>72000</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="36">
         <v>51</v>
       </c>
-      <c r="L8" s="10">
-        <f>M8*2</f>
+      <c r="L8" s="37">
+        <f t="shared" si="0"/>
         <v>86400</v>
       </c>
-      <c r="M8" s="10">
-        <f>N8*2</f>
+      <c r="M8" s="37">
+        <f t="shared" si="0"/>
         <v>43200</v>
       </c>
-      <c r="N8" s="10">
-        <f>O8*2</f>
+      <c r="N8" s="37">
+        <f t="shared" si="0"/>
         <v>21600</v>
       </c>
-      <c r="O8" s="10">
-        <f>P8*2</f>
+      <c r="O8" s="37">
+        <f t="shared" si="0"/>
         <v>10800</v>
       </c>
-      <c r="P8" s="17">
-        <f>IF(G8="Once",H8*90%,(IF(G8="Half-Yearly",(H8*90%)/6,(IF(G8="Yearly",(H8*90%)/12,"Formula Error")))))</f>
+      <c r="P8" s="37">
+        <f t="shared" si="1"/>
         <v>5400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="str">
+    <row r="9" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="str">
         <f>"VIII - X - All Boards - " &amp; B9</f>
         <v>VIII - X - All Boards - All  Other Subjects</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25">
+      <c r="B9" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36">
         <v>52</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25" t="s">
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="25">
-        <f>J9*50%</f>
+      <c r="H9" s="36">
+        <f t="shared" si="2"/>
         <v>30000</v>
       </c>
-      <c r="I9" s="25">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8">
+      <c r="I9" s="36">
+        <v>0</v>
+      </c>
+      <c r="J9" s="36">
         <v>60000</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="36">
         <v>51</v>
       </c>
-      <c r="L9" s="10">
-        <f>M9*2</f>
+      <c r="L9" s="37">
+        <f t="shared" si="0"/>
         <v>72000</v>
       </c>
-      <c r="M9" s="10">
-        <f>N9*2</f>
+      <c r="M9" s="37">
+        <f t="shared" si="0"/>
         <v>36000</v>
       </c>
-      <c r="N9" s="10">
-        <f>O9*2</f>
+      <c r="N9" s="37">
+        <f t="shared" si="0"/>
         <v>18000</v>
       </c>
-      <c r="O9" s="10">
-        <f>P9*2</f>
+      <c r="O9" s="37">
+        <f t="shared" si="0"/>
         <v>9000</v>
       </c>
-      <c r="P9" s="17">
-        <f>IF(G9="Once",H9*90%,(IF(G9="Half-Yearly",(H9*90%)/6,(IF(G9="Yearly",(H9*90%)/12,"Formula Error")))))</f>
+      <c r="P9" s="37">
+        <f t="shared" si="1"/>
         <v>4500</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+    <row r="10" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="39">
+        <v>104</v>
+      </c>
+      <c r="E10" s="39">
+        <v>2</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="39">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="I10" s="39">
+        <v>0</v>
+      </c>
+      <c r="J10" s="39">
+        <v>50000</v>
+      </c>
+      <c r="K10" s="39">
+        <v>50</v>
+      </c>
+      <c r="L10" s="40">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+      <c r="M10" s="40">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="N10" s="40">
+        <f t="shared" si="0"/>
+        <v>7500</v>
+      </c>
+      <c r="O10" s="40">
+        <f t="shared" si="0"/>
+        <v>3750</v>
+      </c>
+      <c r="P10" s="40">
+        <f t="shared" si="1"/>
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="39">
+        <v>104</v>
+      </c>
+      <c r="E11" s="39">
+        <v>2</v>
+      </c>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="39">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="I11" s="39">
+        <v>0</v>
+      </c>
+      <c r="J11" s="39">
+        <v>50000</v>
+      </c>
+      <c r="K11" s="39">
+        <v>50</v>
+      </c>
+      <c r="L11" s="40">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+      <c r="M11" s="40">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="N11" s="40">
+        <f t="shared" si="0"/>
+        <v>7500</v>
+      </c>
+      <c r="O11" s="40">
+        <f t="shared" si="0"/>
+        <v>3750</v>
+      </c>
+      <c r="P11" s="40">
+        <f t="shared" si="1"/>
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="39">
+        <v>104</v>
+      </c>
+      <c r="E12" s="39">
+        <v>2</v>
+      </c>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="39">
+        <f t="shared" si="2"/>
+        <v>25000</v>
+      </c>
+      <c r="I12" s="39">
+        <v>0</v>
+      </c>
+      <c r="J12" s="39">
+        <v>50000</v>
+      </c>
+      <c r="K12" s="39">
+        <v>50</v>
+      </c>
+      <c r="L12" s="40">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+      <c r="M12" s="40">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="N12" s="40">
+        <f t="shared" si="0"/>
+        <v>7500</v>
+      </c>
+      <c r="O12" s="40">
+        <f t="shared" si="0"/>
+        <v>3750</v>
+      </c>
+      <c r="P12" s="40">
+        <f t="shared" si="1"/>
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D13" s="39">
         <v>104</v>
       </c>
-      <c r="E10" s="25">
-        <v>2</v>
-      </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="25">
-        <f>J10*50%</f>
+      <c r="E13" s="39">
+        <v>2</v>
+      </c>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="39">
+        <f t="shared" si="2"/>
         <v>25000</v>
       </c>
-      <c r="I10" s="25">
-        <v>0</v>
-      </c>
-      <c r="J10" s="8">
+      <c r="I13" s="39">
+        <v>0</v>
+      </c>
+      <c r="J13" s="39">
         <v>50000</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K13" s="39">
         <v>50</v>
       </c>
-      <c r="L10" s="10">
-        <f>M10*2</f>
+      <c r="L13" s="40">
+        <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="M10" s="10">
-        <f>N10*2</f>
+      <c r="M13" s="40">
+        <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="N10" s="10">
-        <f>O10*2</f>
+      <c r="N13" s="40">
+        <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="O10" s="10">
-        <f>P10*2</f>
+      <c r="O13" s="40">
+        <f t="shared" si="0"/>
         <v>3750</v>
       </c>
-      <c r="P10" s="17">
-        <f>IF(G10="Once",H10*90%,(IF(G10="Half-Yearly",(H10*90%)/6,(IF(G10="Yearly",(H10*90%)/12,"Formula Error")))))</f>
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="25">
-        <v>104</v>
-      </c>
-      <c r="E11" s="25">
-        <v>2</v>
-      </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="25">
-        <f>J11*50%</f>
-        <v>25000</v>
-      </c>
-      <c r="I11" s="25">
-        <v>0</v>
-      </c>
-      <c r="J11" s="8">
-        <v>50000</v>
-      </c>
-      <c r="K11" s="8">
-        <v>50</v>
-      </c>
-      <c r="L11" s="10">
-        <f>M11*2</f>
-        <v>30000</v>
-      </c>
-      <c r="M11" s="10">
-        <f>N11*2</f>
-        <v>15000</v>
-      </c>
-      <c r="N11" s="10">
-        <f>O11*2</f>
-        <v>7500</v>
-      </c>
-      <c r="O11" s="10">
-        <f>P11*2</f>
-        <v>3750</v>
-      </c>
-      <c r="P11" s="17">
-        <f>IF(G11="Once",H11*90%,(IF(G11="Half-Yearly",(H11*90%)/6,(IF(G11="Yearly",(H11*90%)/12,"Formula Error")))))</f>
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="25">
-        <v>104</v>
-      </c>
-      <c r="E12" s="25">
-        <v>2</v>
-      </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="25">
-        <f>J12*50%</f>
-        <v>25000</v>
-      </c>
-      <c r="I12" s="25">
-        <v>0</v>
-      </c>
-      <c r="J12" s="8">
-        <v>50000</v>
-      </c>
-      <c r="K12" s="8">
-        <v>50</v>
-      </c>
-      <c r="L12" s="10">
-        <f>M12*2</f>
-        <v>30000</v>
-      </c>
-      <c r="M12" s="10">
-        <f>N12*2</f>
-        <v>15000</v>
-      </c>
-      <c r="N12" s="10">
-        <f>O12*2</f>
-        <v>7500</v>
-      </c>
-      <c r="O12" s="10">
-        <f>P12*2</f>
-        <v>3750</v>
-      </c>
-      <c r="P12" s="17">
-        <f>IF(G12="Once",H12*90%,(IF(G12="Half-Yearly",(H12*90%)/6,(IF(G12="Yearly",(H12*90%)/12,"Formula Error")))))</f>
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="25">
-        <v>104</v>
-      </c>
-      <c r="E13" s="25">
-        <v>2</v>
-      </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="25">
-        <f>J13*50%</f>
-        <v>25000</v>
-      </c>
-      <c r="I13" s="25">
-        <v>0</v>
-      </c>
-      <c r="J13" s="8">
-        <v>50000</v>
-      </c>
-      <c r="K13" s="8">
-        <v>50</v>
-      </c>
-      <c r="L13" s="10">
-        <f>M13*2</f>
-        <v>30000</v>
-      </c>
-      <c r="M13" s="10">
-        <f>N13*2</f>
-        <v>15000</v>
-      </c>
-      <c r="N13" s="10">
-        <f>O13*2</f>
-        <v>7500</v>
-      </c>
-      <c r="O13" s="10">
-        <f>P13*2</f>
-        <v>3750</v>
-      </c>
-      <c r="P13" s="17">
-        <f>IF(G13="Once",H13*90%,(IF(G13="Half-Yearly",(H13*90%)/6,(IF(G13="Yearly",(H13*90%)/12,"Formula Error")))))</f>
+      <c r="P13" s="40">
+        <f t="shared" si="1"/>
         <v>1875</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:P1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -2326,6 +2217,11 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
